--- a/Final_Results/REAL_gamma2_ReturnsWeights.xlsx
+++ b/Final_Results/REAL_gamma2_ReturnsWeights.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laurens\Documents\MThesis\from PC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laurens\Documents\MThesis\Final_Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="712">
   <si>
     <t>Mean Weights Xs</t>
   </si>
@@ -14043,6 +14043,1343 @@
 dtype: float64, Date
 1992-03-01   -0.009074
 dtype: float64]</t>
+  </si>
+  <si>
+    <t>[array([ 0.05955233]), array([ 0.015818]), array([ 0.044739]), array([ 0.01649533]), array([ 0.014683]), array([-0.01145733]), array([-0.02820767]), array([ 0.013218]), array([ 0.01162633]), array([ 0.00146478]), array([ 0.00148067]), array([ 0.019172]), array([ 0.01633833]), array([ 0.046482]), array([ 0.01181767]), array([-0.02549778]), array([-0.01266167]), array([-0.01140522]), array([ 0.00852856]), array([ 0.02323289]), array([ 0.009058]), array([-0.01774333]), array([-0.00640944]), array([-0.014922]), array([-0.02396867]), array([ 0.03709567]), array([ 0.00021433]), array([ 0.03649967]), array([-0.00533167]), array([ 0.01249333]), array([ 0.00913167]), array([-0.01224]), array([-0.00437767]), array([ 0.00233544]), array([ 0.02091467]), array([ 0.01541567]), array([ 0.033034]), array([ 0.01622589]), array([-0.00134056]), array([-0.00043144]), array([-0.01818567]), array([ 0.00443244]), array([ 0.03576267]), array([ 0.03499033]), array([-0.01513944]), array([-0.02453356]), array([ 0.01069633]), array([ 0.03760733]), array([ 0.01434433]), array([ 0.01546689]), array([-0.006928]), array([-0.06443867]), array([ 0.01307433]), array([-0.001508]), array([ 0.050031]), array([ 0.02239933]), array([-0.079983]), array([-0.01468633]), array([ 0.00912967])]</t>
+  </si>
+  <si>
+    <t>[ 1.          1.          1.          0.66666667  1.          1.
+  0.66666667  1.          0.44444444  0.11111111  1.          1.          1.
+  1.          0.22222222  0.88888889  0.          0.44444444  0.11111111
+  0.55555556  1.          0.          0.88888889  0.          1.          1.
+  1.          1.          1.          0.88888889  1.          0.22222222
+  1.          0.44444444  1.          1.          1.          0.77777778
+  0.55555556  0.22222222  1.          0.55555556  1.          1.
+  0.77777778  0.77777778  0.55555556  1.          0.55555556  0.22222222
+  1.          1.          0.          0.33333333  1.          1.          1.
+  1.          1.        ]</t>
+  </si>
+  <si>
+    <t>[array([-0.00989533]), array([ 0.05955233]), array([ 0.015818]), array([ 0.044739]), array([ 0.02231767]), array([ 0.014683]), array([-0.01145733]), array([-0.02501533]), array([ 0.013218]), array([ 0.02051967]), array([-0.03877433]), array([ 0.00148067]), array([ 0.019172]), array([ 0.00907567]), array([ 0.046482]), array([ 0.033352]), array([-0.02849367]), array([ 0.02056433]), array([-0.01923133]), array([-0.02750167]), array([ 0.03558933]), array([ 0.009058]), array([ 0.04064167]), array([-0.00881267]), array([ 0.007756]), array([-0.02396867]), array([ 0.03709567]), array([ 0.00021433]), array([ 0.03649967]), array([-0.00533167]), array([ 0.01529467]), array([ 0.00913167]), array([-0.03497833]), array([-0.00437767]), array([-0.006009]), array([ 0.02091467]), array([ 0.01541567]), array([ 0.033034]), array([ 0.01958833]), array([ 0.00681233]), array([ 0.015254]), array([-0.01818567]), array([ 0.00882933]), array([ 0.03576267]), array([ 0.03499033]), array([-0.01859567]), array([-0.03577467]), array([ 0.008131]), array([ 0.03760733]), array([ 0.022583]), array([-0.052052]), array([-0.006928]), array([-0.06443867]), array([-0.02343067]), array([-0.01147]), array([ 0.050031]), array([ 0.02239933]), array([-0.079983]), array([-0.01468633])]</t>
+  </si>
+  <si>
+    <t>[ 1.          1.          1.          1.          1.          1.          1.
+  1.          1.          1.          1.          1.          1.
+  0.33333333  1.          1.          1.          1.          1.          1.
+  1.          1.          1.          1.          1.          1.          1.
+  1.          1.          1.          1.          1.          1.          1.
+  1.          1.          1.          1.          1.          1.          1.
+  1.          1.          1.          1.          1.          1.          1.
+  1.          1.          1.          1.          1.          1.          1.
+  1.          1.          1.          1.        ]</t>
+  </si>
+  <si>
+    <t>[array([ 0.01191211]), array([ 0.03263767]), array([ 0.05955233]), array([ 0.015818]), array([ 0.02111033]), array([ 0.010673]), array([ 0.014009]), array([ 0.00317467]), array([-0.03246411]), array([ 0.00899689]), array([ 0.00629033]), array([-0.03877433]), array([ 0.00736833]), array([ 0.019172]), array([ 0.01391744]), array([-0.00956244]), array([ 0.033352]), array([-0.00153067]), array([-0.00527811]), array([-0.00514433]), array([-0.02299789]), array([ 0.01396556]), array([ 0.00751133]), array([ 0.04064167]), array([-0.001603]), array([-0.014922]), array([-0.01183467]), array([ 0.03709567]), array([ 0.00125878]), array([ 0.00360433]), array([-0.00536367]), array([ 0.009692]), array([-0.00512533]), array([-0.03497833]), array([-0.00437767]), array([-0.006009]), array([ 0.00925267]), array([ 0.01414033]), array([ 0.010938]), array([ 0.00445733]), array([-0.00134056]), array([ 0.00853167]), array([-0.00507367]), array([ 0.00333322]), array([ 0.00820289]), array([ 0.001663]), array([-0.00995511]), array([-0.03577467]), array([ 0.013903]), array([ 0.00105233]), array([ 0.01434433]), array([-0.03276089]), array([-0.001828]), array([ 0.03165933]), array([-0.00720622]), array([-0.006489]), array([ 0.02502833]), array([ 0.02239933]), array([-0.051496])]</t>
+  </si>
+  <si>
+    <t>[ 0.55555556  0.          1.          1.          0.33333333  0.33333333
+  0.77777778  0.33333333  0.22222222  0.77777778  0.11111111  1.
+  0.66666667  1.          0.77777778  0.11111111  1.          0.
+  0.22222222  0.          0.88888889  0.22222222  0.77777778  1.
+  0.66666667  0.          0.          1.          0.55555556  0.22222222
+  0.55555556  0.77777778  0.          1.          1.          1.          0.
+  0.88888889  0.33333333  0.          0.55555556  0.66666667  0.55555556
+  0.44444444  0.22222222  0.33333333  0.44444444  1.          0.          0.
+  0.55555556  0.77777778  0.          0.          0.55555556  0.66666667
+  0.66666667  1.          0.66666667]</t>
+  </si>
+  <si>
+    <t>[array([-0.03144]), array([-0.00341567]), array([ 0.03263767]), array([-0.01535967]), array([-0.001456]), array([ 0.009296]), array([ 0.00485067]), array([ 0.01165]), array([ 0.01049067]), array([-0.03459233]), array([-0.005777]), array([ 0.00451167]), array([ 0.00649467]), array([ 0.01914367]), array([-0.000777]), array([ 0.00544433]), array([-0.016568]), array([ 0.005665]), array([-0.00153067]), array([-0.01266167]), array([-0.00514433]), array([ 0.01303233]), array([ 0.00778733]), array([ 0.002098]), array([-0.01774333]), array([ 0.01281633]), array([-0.014922]), array([-0.01183467]), array([ 0.00108067]), array([ 0.00256433]), array([-0.00579433]), array([-0.00540367]), array([-0.00991733]), array([-0.00512533]), array([-0.00574333]), array([-0.00303567]), array([ 0.009011]), array([ 0.00925267]), array([ 0.00393767]), array([-0.00011]), array([ 0.00445733]), array([-0.01153167]), array([-0.004913]), array([ 0.01131633]), array([-0.00106367]), array([ 0.00032867]), array([-0.01500067]), array([-0.00304267]), array([ 0.01481033]), array([ 0.013903]), array([ 0.00105233]), array([ 0.004046]), array([ 0.034758]), array([-0.001828]), array([ 0.03165933]), array([ 0.01307433]), array([ 0.003473]), array([-0.024977]), array([-0.01668067])]</t>
+  </si>
+  <si>
+    <t>[array([ 0.00919367]), array([-0.007528]), array([-0.00341567]), array([ 0.00428233]), array([-0.01535967]), array([ 0.015818]), array([ 0.03292467]), array([ 0.00485067]), array([ 0.01165]), array([ 0.01049067]), array([-0.03033589]), array([-0.005777]), array([ 0.00984767]), array([-0.01865478]), array([ 0.01914367]), array([ 0.01252233]), array([ 0.01512789]), array([-0.00255689]), array([ 0.005665]), array([-0.01351422]), array([ 0.02056433]), array([-0.01923133]), array([-0.000479]), array([ 0.02323289]), array([ 0.009058]), array([ 0.01469278]), array([ 0.01281633]), array([ 0.007756]), array([-0.02127222]), array([ 0.01708733]), array([ 0.00256433]), array([ 0.027101]), array([-0.00535567]), array([-0.00991733]), array([-0.000373]), array([-0.03173]), array([-0.00303567]), array([ 0.00233544]), array([ 0.01314]), array([ 0.00776367]), array([ 0.010938]), array([ 0.01958833]), array([-0.00134056]), array([ 0.00405011]), array([ 0.01131633]), array([  3.55552222e-05]), array([ 0.00032867]), array([ 0.01832667]), array([-0.00304267]), array([-0.01329244]), array([ 0.00941367]), array([ 0.005114]), array([ 0.004046]), array([ 0.034758]), array([-0.006928]), array([-0.06443867]), array([ 0.00901822]), array([ 0.003473]), array([  2.56666667e-05])]</t>
+  </si>
+  <si>
+    <t>[ 0.66666667  0.44444444  0.          0.66666667  0.          1.
+  0.66666667  0.          0.          0.          0.44444444  0.
+  0.33333333  0.55555556  0.          0.66666667  0.88888889  0.22222222
+  0.          0.44444444  1.          1.          0.33333333  0.55555556
+  1.          0.55555556  0.          1.          0.77777778  0.44444444
+  0.          0.77777778  0.66666667  0.          0.33333333  0.88888889
+  0.          0.44444444  0.33333333  0.33333333  0.33333333  1.
+  0.55555556  0.44444444  0.          0.11111111  0.          0.66666667
+  0.          0.55555556  0.77777778  0.11111111  0.          0.          1.
+  1.          0.11111111  0.          0.33333333]</t>
+  </si>
+  <si>
+    <t>[array([ 0.06257933]), array([ 0.01556933]), array([ 0.022362]), array([ 0.02417433]), array([-0.00989533]), array([ 0.05955233]), array([ 0.015818]), array([ 0.044739]), array([ 0.02231767]), array([ 0.014683]), array([-0.01145733]), array([-0.02501533]), array([ 0.013218]), array([ 0.02051967]), array([-0.03877433]), array([ 0.00148067]), array([ 0.019172]), array([ 0.01633833]), array([ 0.046482]), array([ 0.033352]), array([-0.02849367]), array([ 0.02056433]), array([-0.01923133]), array([-0.02750167]), array([ 0.03558933]), array([ 0.009058]), array([ 0.04064167]), array([-0.00881267]), array([ 0.007756]), array([-0.02396867]), array([ 0.03709567]), array([ 0.00021433]), array([ 0.03649967]), array([-0.00533167]), array([ 0.01529467]), array([ 0.00913167]), array([-0.03497833]), array([-0.00437767]), array([-0.006009]), array([ 0.02091467]), array([ 0.01541567]), array([ 0.033034]), array([ 0.01958833]), array([ 0.00681233]), array([ 0.015254]), array([-0.01818567]), array([ 0.00882933]), array([ 0.03576267]), array([ 0.03499033]), array([-0.01859567]), array([-0.03577467]), array([ 0.008131]), array([ 0.03760733]), array([ 0.022583]), array([-0.052052]), array([-0.006928]), array([-0.06443867]), array([-0.02343067]), array([-0.01147])]</t>
+  </si>
+  <si>
+    <t>[array([ 0.08182033]), array([ 0.06257933]), array([ 0.01556933]), array([ 0.022362]), array([ 0.02417433]), array([-0.00989533]), array([ 0.05955233]), array([ 0.015818]), array([ 0.044739]), array([ 0.02231767]), array([ 0.014683]), array([-0.01145733]), array([-0.02501533]), array([ 0.013218]), array([ 0.02051967]), array([-0.03877433]), array([ 0.00148067]), array([ 0.019172]), array([ 0.01633833]), array([ 0.046482]), array([ 0.033352]), array([-0.02849367]), array([ 0.02056433]), array([-0.01923133]), array([-0.02750167]), array([ 0.03558933]), array([ 0.009058]), array([ 0.04064167]), array([-0.00881267]), array([ 0.007756]), array([-0.02396867]), array([ 0.03709567]), array([ 0.00021433]), array([ 0.03649967]), array([-0.00533167]), array([ 0.01529467]), array([ 0.00913167]), array([-0.03497833]), array([-0.00437767]), array([-0.006009]), array([ 0.02091467]), array([ 0.01541567]), array([ 0.033034]), array([ 0.01958833]), array([ 0.00681233]), array([ 0.015254]), array([-0.01818567]), array([ 0.00882933]), array([ 0.03576267]), array([ 0.03499033]), array([-0.01859567]), array([-0.03577467]), array([ 0.008131]), array([ 0.03760733]), array([ 0.022583]), array([-0.052052]), array([-0.006928]), array([-0.06443867]), array([-0.02343067])]</t>
+  </si>
+  <si>
+    <t>[array([ 0.00022333]), array([ 0.03680644]), array([ 0.06257933]), array([-0.00355767]), array([-0.025462]), array([ 0.00271544]), array([ 0.03263767]), array([-0.01535967]), array([ 0.01197933]), array([ 0.01323411]), array([ 0.02037689]), array([ 0.011987]), array([ 0.01049067]), array([-0.03459233]), array([-0.005777]), array([ 0.00629033]), array([ 0.00649467]), array([ 0.01129344]), array([-0.000777]), array([ 0.00544433]), array([-0.00255689]), array([ 0.005665]), array([-0.00153067]), array([-0.01266167]), array([-0.00827478]), array([ 0.01303233]), array([ 0.02323289]), array([ 0.004418]), array([ 0.01469278]), array([ 0.00320344]), array([-0.014922]), array([-0.02396867]), array([ 0.00508233]), array([ 0.00256433]), array([-0.00579433]), array([-0.00539567]), array([-0.00991733]), array([-0.00512533]), array([-0.00899167]), array([-0.00333389]), array([-0.00100233]), array([ 0.01573156]), array([ 0.00393767]), array([ 0.01462067]), array([ 0.01958833]), array([-0.005417]), array([-0.004913]), array([ 0.01131633]), array([-0.00106367]), array([ 0.00032867]), array([-0.01500067]), array([-0.01168322]), array([ 0.01481033]), array([ 0.01133767]), array([ 0.00105233]), array([ 0.004046]), array([-0.052052]), array([-0.00579467]), array([ 0.03165933])]</t>
+  </si>
+  <si>
+    <t>[ 0.11111111  0.44444444  1.          0.          0.11111111  0.22222222
+  0.          0.          0.77777778  0.11111111  0.88888889  0.11111111
+  0.          0.          0.          0.11111111  0.          0.44444444
+  0.          0.          0.22222222  0.          0.          0.
+  0.22222222  0.          0.55555556  0.33333333  0.55555556  0.44444444
+  0.          1.          0.11111111  0.          0.          0.11111111
+  0.          0.          0.11111111  0.22222222  0.66666667  0.55555556
+  0.          0.44444444  1.          0.33333333  0.          0.          0.
+  0.          0.          0.55555556  0.          0.44444444  0.          0.
+  1.          0.77777778  0.        ]</t>
+  </si>
+  <si>
+    <t>[array([ 0.00502367]), array([ 0.00480333]), array([ 0.08182033]), array([ 0.04982733]), array([ 0.00069278]), array([-0.00155]), array([-0.00341567]), array([-0.00989533]), array([ 0.04290522]), array([ 0.015818]), array([ 0.01717222]), array([ 0.01649533]), array([ 0.012998]), array([-0.00414133]), array([-0.03459233]), array([ 0.00899689]), array([ 0.00451167]), array([ 0.00649467]), array([ 0.00736833]), array([ 0.01030578]), array([ 0.01391744]), array([ 0.01145422]), array([ 0.005665]), array([-0.02849367]), array([-0.00527811]), array([-0.01297044]), array([-0.000479]), array([ 0.02941111]), array([ 0.00751133]), array([ 0.00820556]), array([-0.00881267]), array([ 0.007756]), array([-0.01183467]), array([ 0.03709567]), array([ 0.00021433]), array([ 0.01770233]), array([-0.00533167]), array([ 0.01529467]), array([-0.00512533]), array([-0.03497833]), array([-0.00363211]), array([ 0.009011]), array([ 0.02091467]), array([ 0.00393767]), array([ 0.01462067]), array([ 0.00445733]), array([-0.00134056]), array([ 0.01301322]), array([ 0.00148233]), array([ 0.00882933]), array([ 0.00426578]), array([ 0.03499033]), array([-0.01859567]), array([-0.03577467]), array([ 0.00877233]), array([ 0.017299]), array([ 0.010225]), array([-0.052052]), array([-0.006928])]</t>
+  </si>
+  <si>
+    <t>[ 0.33333333  0.55555556  1.          0.66666667  0.22222222  0.55555556
+  0.          1.          0.77777778  1.          0.22222222  0.66666667
+  0.44444444  0.66666667  0.          0.77777778  0.          0.
+  0.66666667  0.55555556  0.77777778  0.44444444  0.          1.
+  0.22222222  0.55555556  0.33333333  0.77777778  0.77777778  0.44444444
+  1.          1.          0.          1.          1.          0.55555556
+  1.          1.          0.          1.          0.44444444  0.          1.
+  0.          0.44444444  0.          0.55555556  0.88888889  0.33333333
+  1.          0.11111111  1.          1.          1.          0.88888889
+  0.44444444  0.33333333  1.          1.        ]</t>
+  </si>
+  <si>
+    <t>[array([-0.007142]), array([ 0.015718]), array([-0.00092167]), array([ 0.00079533]), array([ 0.02432333]), array([-0.00355767]), array([-0.03144]), array([ 0.00884656]), array([ 0.03263767]), array([-0.01535967]), array([-0.001456]), array([ 0.009296]), array([ 0.00679144]), array([ 0.01165]), array([ 0.01049067]), array([-0.03459233]), array([-0.005777]), array([ 0.00451167]), array([ 0.00649467]), array([ 0.01914367]), array([-0.000777]), array([ 0.00544433]), array([-0.016568]), array([ 0.005665]), array([-0.00153067]), array([-0.00158633]), array([-0.00514433]), array([ 0.01303233]), array([ 0.00778733]), array([ 0.002098]), array([-0.01774333]), array([ 0.01281633]), array([-0.014922]), array([-0.01183467]), array([ 0.00108067]), array([ 0.00204211]), array([-0.00579433]), array([-0.00540367]), array([-0.00991733]), array([-0.00512533]), array([-0.00574333]), array([-0.00303567]), array([ 0.009011]), array([ 0.00925267]), array([ 0.00393767]), array([-0.00011]), array([ 0.00445733]), array([-0.01153167]), array([-0.004913]), array([ 0.01131633]), array([-0.00106367]), array([ 0.00032867]), array([-0.01500067]), array([-0.00304267]), array([ 0.01481033]), array([ 0.013903]), array([ 0.00105233]), array([ 0.004046]), array([ 0.034758])]</t>
+  </si>
+  <si>
+    <t>[ 0.          0.          0.          0.          0.          0.          0.
+  0.44444444  0.          0.          0.          0.          0.11111111
+  0.          0.          0.          0.          0.          0.          0.
+  0.          0.          0.          0.          0.          0.33333333
+  0.          0.          0.          0.          0.          0.          0.
+  0.          0.          0.22222222  0.          0.          0.          0.
+  0.          0.          0.          0.          0.          0.          0.
+  0.          0.          0.          0.          0.          0.          0.
+  0.          0.          0.          0.          0.        ]</t>
+  </si>
+  <si>
+    <t>[array([ -6.40003333e-05]), array([-0.024367]), array([-0.016365]), array([ 0.00136833]), array([ 0.08182033]), array([ 0.06257933]), array([ 0.01556933]), array([-0.007528]), array([ 0.02417433]), array([ 0.01846]), array([ 0.05955233]), array([ 0.015818]), array([ 0.02898656]), array([ 0.02231767]), array([ 0.013672]), array([-0.01145733]), array([-0.02501533]), array([-0.005777]), array([ 0.01518367]), array([-0.03877433]), array([ 0.00933089]), array([ 0.00365611]), array([ 0.01028611]), array([ 0.03947644]), array([ 0.024123]), array([-0.02549778]), array([ 0.02056433]), array([-0.00984]), array([-0.02750167]), array([ 0.00778733]), array([ 0.009058]), array([ 0.04064167]), array([-0.001603]), array([ 0.007756]), array([-0.02396867]), array([ 0.03709567]), array([ 0.00021433]), array([ 0.03180033]), array([-0.00533967]), array([ 0.009692]), array([ 0.00913167]), array([-0.02848167]), array([-0.00437767]), array([-0.006009]), array([ 0.01961889]), array([ 0.01541567]), array([ 0.02935133]), array([ 0.01958833]), array([ 0.00681233]), array([ 0.00853167]), array([-0.01162967]), array([ 0.00553167]), array([ 0.03576267]), array([ 0.01277211]), array([-0.01859567]), array([-0.018913]), array([ 0.010055]), array([ 0.03760733]), array([ 0.01434433])]</t>
+  </si>
+  <si>
+    <t>[ 0.33333333  1.          1.          0.22222222  1.          1.          1.
+  0.44444444  1.          0.33333333  1.          1.          0.55555556
+  1.          0.66666667  1.          1.          0.          0.66666667
+  1.          0.55555556  0.22222222  0.44444444  0.88888889  0.66666667
+  0.88888889  1.          0.33333333  1.          0.          1.          1.
+  0.66666667  1.          1.          1.          1.          0.88888889
+  0.88888889  0.77777778  1.          0.77777778  1.          1.
+  0.88888889  1.          0.88888889  1.          1.          0.66666667
+  0.77777778  0.66666667  1.          0.55555556  1.          0.66666667
+  0.66666667  1.          0.55555556]</t>
+  </si>
+  <si>
+    <t>[array([ 0.05154067]), array([-0.05430467]), array([-0.02053922]), array([ 0.00145889]), array([ 0.00938333]), array([ 0.04580922]), array([ 0.06257933]), array([ 0.01131889]), array([-0.03144]), array([ 0.02417433]), array([-0.00989533]), array([ 0.05955233]), array([ 0.00814067]), array([ 0.044739]), array([ 0.00485067]), array([ 0.01165]), array([-0.00901867]), array([-0.02501533]), array([ 0.013218]), array([ 0.02051967]), array([-0.03877433]), array([ 0.01914367]), array([ 0.00587267]), array([ 0.01633833]), array([ 0.046482]), array([ 0.03027567]), array([-0.01051833]), array([ 0.009489]), array([-0.00514433]), array([ 0.01303233]), array([ 0.03558933]), array([ 0.009058]), array([ 0.02118]), array([ 0.00560667]), array([-0.01240222]), array([-0.01183467]), array([ 0.03709567]), array([ 0.00021433]), array([ 0.02240167]), array([-0.00538767]), array([ 0.00408933]), array([ 0.00754756]), array([-0.00574333]), array([-0.00422856]), array([-0.006009]), array([ 0.01961889]), array([ 0.01414033]), array([-0.00011]), array([ 0.00445733]), array([-0.01153167]), array([-0.00043144]), array([-0.01818567]), array([ 0.00553167]), array([ 0.03576267]), array([ 0.03499033]), array([-0.00304267]), array([-0.03577467]), array([ 0.00941367]), array([ 0.01323733])]</t>
+  </si>
+  <si>
+    <t>[ 0.88888889  1.          0.77777778  0.44444444  1.          0.55555556
+  1.          0.77777778  0.          1.          1.          1.
+  0.55555556  1.          0.          0.          0.88888889  1.          1.
+  1.          1.          0.          0.33333333  1.          1.
+  0.88888889  0.33333333  0.66666667  0.          0.          1.          1.
+  0.66666667  0.33333333  0.11111111  0.          1.          1.
+  0.66666667  0.22222222  0.55555556  0.88888889  0.          0.88888889
+  1.          0.88888889  0.88888889  0.          0.          0.
+  0.22222222  1.          0.66666667  1.          1.          0.          1.
+  0.77777778  0.33333333]</t>
+  </si>
+  <si>
+    <t>[array([ 0.07360633]), array([ 0.060246]), array([-0.05430467]), array([-0.024367]), array([-0.00923544]), array([ 0.00938333]), array([ 0.08182033]), array([ 0.06257933]), array([ 0.01556933]), array([ 0.022362]), array([ 0.02417433]), array([-0.00989533]), array([ 0.05955233]), array([ 0.015818]), array([ 0.044739]), array([ 0.02231767]), array([ 0.014683]), array([-0.01145733]), array([-0.02501533]), array([ 0.01110744]), array([ 0.02051967]), array([-0.03877433]), array([ 0.00148067]), array([ 0.019172]), array([ 0.01633833]), array([ 0.046482]), array([ 0.033352]), array([-0.02849367]), array([ 0.02056433]), array([-0.01923133]), array([-0.02750167]), array([ 0.03558933]), array([ 0.006738]), array([ 0.04064167]), array([-0.00881267]), array([ 0.007756]), array([-0.02396867]), array([ 0.03709567]), array([ 0.00021433]), array([ 0.03649967]), array([-0.00533167]), array([ 0.01529467]), array([ 0.00913167]), array([-0.021985]), array([-0.00437767]), array([-0.006009]), array([ 0.02091467]), array([ 0.01541567]), array([ 0.033034]), array([ 0.01958833]), array([ 0.00681233]), array([ 0.015254]), array([-0.01818567]), array([ 0.00882933]), array([ 0.03576267]), array([ 0.03499033]), array([-0.01859567]), array([-0.03577467]), array([ 0.008131])]</t>
+  </si>
+  <si>
+    <t>[ 1.          1.          1.          1.          0.77777778  1.          1.
+  1.          1.          1.          1.          1.          1.          1.
+  1.          1.          1.          1.          1.          0.88888889
+  1.          1.          1.          1.          1.          1.          1.
+  1.          1.          1.          1.          1.          0.66666667
+  1.          1.          1.          1.          1.          1.          1.
+  1.          1.          1.          0.55555556  1.          1.          1.
+  1.          1.          1.          1.          1.          1.          1.
+  1.          1.          1.          1.          1.        ]</t>
+  </si>
+  <si>
+    <t>[array([ 0.02884767]), array([-0.00479467]), array([-0.018102]), array([ 0.02705633]), array([-0.007142]), array([ 0.015718]), array([-0.00092167]), array([ 0.00079533]), array([ 0.02432333]), array([-0.00143244]), array([-0.025462]), array([ 0.00271544]), array([ 0.03263767]), array([-0.01535967]), array([-0.001456]), array([ 0.02111033]), array([ 0.01261378]), array([ 0.01165]), array([ 0.00317467]), array([-0.03033589]), array([-0.005777]), array([ 0.02051967]), array([-0.00356511]), array([ 0.01914367]), array([-0.000777]), array([ 0.00665478]), array([-0.016568]), array([ 0.005665]), array([-0.00153067]), array([-0.01266167]), array([-0.00827478]), array([ 0.01303233]), array([ 0.00778733]), array([ 0.002098]), array([-0.01774333]), array([ 0.01281633]), array([-0.014922]), array([-0.01183467]), array([ 0.00108067]), array([ 0.00256433]), array([-0.00579433]), array([-0.00540367]), array([-0.00991733]), array([-0.00512533]), array([-0.00574333]), array([-0.00303567]), array([ 0.009011]), array([ 0.00925267]), array([ 0.00393767]), array([ 0.00725533]), array([ 0.00445733]), array([-0.01153167]), array([-0.004913]), array([ 0.01131633]), array([  3.55552222e-05]), array([ 0.00032867]), array([-0.01500067]), array([-0.00304267]), array([ 0.01481033])]</t>
+  </si>
+  <si>
+    <t>[ 0.          0.          0.          0.          0.          0.          0.
+  0.          0.          0.11111111  0.11111111  0.22222222  0.          0.
+  0.          0.33333333  0.44444444  0.          0.33333333  0.44444444
+  0.          1.          0.22222222  0.          0.          0.11111111
+  0.          0.          0.          0.          0.22222222  0.          0.
+  0.          0.          0.          0.          0.          0.          0.
+  0.          0.          0.          0.          0.          0.          0.
+  0.          0.          0.22222222  0.          0.          0.          0.
+  0.11111111  0.          0.          0.          0.        ]</t>
+  </si>
+  <si>
+    <t>[array([ 0.006629]), array([-0.10127833]), array([ 0.04747267]), array([ 0.060246]), array([-0.05430467]), array([-0.02245311]), array([ 0.01215322]), array([ 0.00594833]), array([ 0.07281756]), array([ 0.06257933]), array([ 0.01556933]), array([ 0.022362]), array([ 0.02417433]), array([-0.00989533]), array([ 0.05955233]), array([ 0.015818]), array([ 0.044739]), array([ 0.02231767]), array([ 0.014683]), array([-0.01145733]), array([-0.02501533]), array([ 0.013218]), array([ 0.02051967]), array([-0.03877433]), array([ 0.00148067]), array([ 0.019172]), array([ 0.01633833]), array([ 0.046482]), array([ 0.03027567]), array([-0.02849367]), array([ 0.02056433]), array([-0.01453567]), array([-0.02750167]), array([ 0.02941111]), array([ 0.009058]), array([ 0.04064167]), array([-0.00881267]), array([ 0.007756]), array([-0.02396867]), array([ 0.03709567]), array([ 0.00021433]), array([ 0.03649967]), array([-0.00533167]), array([ 0.01529467]), array([ 0.00913167]), array([-0.03497833]), array([-0.00393033]), array([-0.006009]), array([ 0.02091467]), array([ 0.01541567]), array([ 0.033034]), array([ 0.01958833]), array([-0.00949344]), array([ 0.015254]), array([-0.01818567]), array([ 0.00882933]), array([ 0.03576267]), array([ 0.02943578]), array([-0.01859567])]</t>
+  </si>
+  <si>
+    <t>[ 1.          1.          0.66666667  1.          1.          0.88888889
+  0.11111111  0.66666667  0.88888889  1.          1.          1.          1.
+  1.          1.          1.          1.          1.          1.          1.
+  1.          1.          1.          1.          1.          1.          1.
+  1.          0.88888889  1.          1.          0.66666667  1.
+  0.77777778  1.          1.          1.          1.          1.          1.
+  1.          1.          1.          1.          1.          1.
+  0.66666667  1.          1.          1.          1.          1.
+  0.11111111  1.          1.          1.          1.          0.88888889
+  1.        ]</t>
+  </si>
+  <si>
+    <t>[array([ 0.026637]), array([ 0.015475]), array([ 0.02884767]), array([-0.00479467]), array([-0.018102]), array([ 0.02705633]), array([-0.01096978]), array([ 0.015718]), array([-0.00092167]), array([ 0.07281756]), array([ 0.04982733]), array([ 0.002818]), array([-0.025462]), array([-0.00341567]), array([ 0.00900822]), array([-0.01535967]), array([ 0.00814067]), array([ 0.01323411]), array([ 0.00485067]), array([ 0.014346]), array([ 0.00317467]), array([-0.02501533]), array([ 0.00055467]), array([ 0.01518367]), array([ 0.00649467]), array([ 0.01914367]), array([-0.000777]), array([ 0.00665478]), array([ 0.03247089]), array([ 0.01797033]), array([-0.00153067]), array([-0.01266167]), array([-0.00514433]), array([-0.00498278]), array([ 0.00778733]), array([ 0.00364467]), array([-0.01774333]), array([ 0.01281633]), array([-0.014922]), array([-0.01183467]), array([ 0.021089]), array([ 0.00256433]), array([-0.00579433]), array([-0.00534767]), array([-0.00431467]), array([ 0.00437933]), array([-0.03173]), array([-0.00437767]), array([ 0.009011]), array([ 0.01443578]), array([ 0.01031433]), array([-0.00011]), array([ 0.01958833]), array([-0.01153167]), array([-0.004913]), array([ 0.01131633]), array([-0.00106367]), array([ 0.00820289]), array([-0.01500067])]</t>
+  </si>
+  <si>
+    <t>[ 0.          0.          0.          0.          0.          0.
+  0.22222222  0.          0.          0.88888889  0.66666667  0.33333333
+  0.11111111  0.          0.55555556  0.          0.55555556  0.11111111
+  0.          0.88888889  0.33333333  1.          0.33333333  0.66666667
+  0.          0.          0.          0.11111111  0.77777778  0.44444444
+  0.          0.          0.          0.44444444  0.          0.22222222
+  0.          0.          0.          0.          0.55555556  0.          0.
+  0.77777778  0.22222222  0.66666667  0.88888889  1.          0.
+  0.44444444  0.55555556  0.          1.          0.          0.          0.
+  0.          0.22222222  0.        ]</t>
+  </si>
+  <si>
+    <t>[array([-0.013945]), array([ 0.026637]), array([ 0.015475]), array([ 0.02884767]), array([ 0.01262778]), array([-0.018102]), array([ 0.02705633]), array([-0.007142]), array([ 0.015718]), array([-0.00092167]), array([ 0.02780367]), array([ 0.02432333]), array([-0.00355767]), array([-0.03144]), array([-0.00341567]), array([ 0.02791178]), array([-0.01535967]), array([-0.001456]), array([ 0.009296]), array([ 0.00485067]), array([ 0.01165]), array([ 0.01049067]), array([-0.03459233]), array([-0.005777]), array([ 0.00451167]), array([ 0.00649467]), array([ 0.01718111]), array([-0.000777]), array([ 0.00544433]), array([-0.016568]), array([ 0.02104667]), array([-0.00153067]), array([-0.01266167]), array([-0.00514433]), array([ 0.01303233]), array([ 0.01705467]), array([ 0.004418]), array([-0.01774333]), array([ 0.01281633]), array([-0.014922]), array([-0.01183467]), array([ 0.00508233]), array([ 0.00256433]), array([-0.00579433]), array([-0.00540367]), array([-0.00991733]), array([-0.00512533]), array([-0.00574333]), array([-0.00303567]), array([ 0.009011]), array([ 0.00925267]), array([ 0.00393767]), array([-0.00011]), array([ 0.00781978]), array([-0.01153167]), array([-0.004913]), array([ 0.01131633]), array([-0.00106367]), array([ 0.00032867])]</t>
+  </si>
+  <si>
+    <t>[ 0.33333333  0.          0.          0.          0.22222222  0.          0.
+  0.          0.          0.          0.33333333  0.          0.          0.
+  0.          0.11111111  0.          0.          0.          0.          0.
+  0.          0.          0.          0.          0.          0.11111111
+  0.          0.          0.          0.55555556  0.          0.          0.
+  0.          0.33333333  0.33333333  0.          0.          0.          0.
+  0.11111111  0.          0.          0.          0.          0.          0.
+  0.          0.          0.          0.          0.          0.22222222
+  0.          0.          0.          0.          0.        ]</t>
+  </si>
+  <si>
+    <t>[array([-0.01196467]), array([ 0.01491533]), array([-0.05828622]), array([ 0.01154344]), array([-0.02898611]), array([ 0.06489511]), array([ 0.008014]), array([-0.02718433]), array([-0.01862533]), array([ 0.00502367]), array([ 0.00594833]), array([ 0.03680644]), array([ 0.03282467]), array([ 0.01556933]), array([ 0.010406]), array([ 0.02417433]), array([-0.00044356]), array([ 0.03458167]), array([ 0.015818]), array([ 0.01717222]), array([ 0.00485067]), array([ 0.014683]), array([-0.00414133]), array([-0.02501533]), array([ 0.013218]), array([ 0.01696233]), array([-0.00356511]), array([ 0.00344322]), array([ 0.00808922]), array([ 0.01512789]), array([ 0.01145422]), array([ 0.014894]), array([-0.02849367]), array([ 0.00579722]), array([-0.01610089]), array([-0.000479]), array([ 0.03558933]), array([ 0.002098]), array([ 0.00171833]), array([ 0.00560667]), array([ 0.007756]), array([-0.02396867]), array([ 0.02909233]), array([ 0.00021433]), array([ 0.03180033]), array([-0.00537967]), array([ 0.01529467]), array([ 0.00913167]), array([-0.02523333]), array([-0.00437767]), array([ 0.00400433]), array([ 0.02091467]), array([ 0.01158967]), array([ 0.033034]), array([ 0.01958833]), array([ 0.00681233]), array([-0.00267222]), array([-0.01490767]), array([ 0.00882933])]</t>
+  </si>
+  <si>
+    <t>[ 1.          0.          0.77777778  0.44444444  0.44444444  0.88888889
+  0.33333333  0.66666667  0.66666667  0.33333333  0.66666667  0.44444444
+  0.22222222  1.          0.77777778  1.          0.77777778  0.66666667
+  1.          0.22222222  0.          1.          0.66666667  1.          1.
+  0.77777778  0.22222222  0.88888889  0.44444444  0.88888889  0.44444444
+  0.33333333  1.          0.55555556  0.77777778  0.33333333  1.          0.
+  0.33333333  0.33333333  1.          1.          0.77777778  1.
+  0.88888889  0.33333333  1.          1.          0.66666667  1.
+  0.33333333  1.          0.66666667  1.          1.          1.
+  0.11111111  0.88888889  1.        ]</t>
+  </si>
+  <si>
+    <t>[array([ 0.02228967]), array([-0.00246689]), array([-0.00432489]), array([ 0.026637]), array([ 0.015475]), array([-0.01452767]), array([ 0.01262778]), array([ 0.03413]), array([-0.01814422]), array([-0.007142]), array([ 0.00502367]), array([-0.00092167]), array([ 0.00079533]), array([ 0.03282467]), array([-0.00143244]), array([-0.007528]), array([ 0.01497767]), array([ 0.03263767]), array([ 0.00128744]), array([ 0.01197933]), array([ 0.044739]), array([ 0.01843611]), array([ 0.01165]), array([-0.00170267]), array([-0.03459233]), array([-0.005777]), array([ 0.01162633]), array([ 0.00649467]), array([ 0.01129344]), array([ 0.00365611]), array([ 0.01149656]), array([-0.00956244]), array([ 0.005665]), array([-0.01351422]), array([ 0.01687256]), array([-0.01297044]), array([-0.02750167]), array([ 0.00778733]), array([ 0.002098]), array([ 0.02118]), array([ 0.01041311]), array([-0.00484289]), array([-0.01587933]), array([ 0.00108067]), array([ 0.00021433]), array([ 0.01770233]), array([-0.00535567]), array([-0.00151333]), array([ 0.00121111]), array([-0.00574333]), array([-0.00378122]), array([-0.00267122]), array([ 0.01573156]), array([ 0.00393767]), array([ 0.033034]), array([ 0.00445733]), array([-0.01153167]), array([-0.004913]), array([ 0.01131633])]</t>
+  </si>
+  <si>
+    <t>[ 0.          0.55555556  0.22222222  0.          0.          0.33333333
+  0.22222222  0.66666667  0.55555556  0.          0.33333333  0.          0.
+  0.22222222  0.11111111  0.44444444  0.66666667  0.          0.22222222
+  0.77777778  1.          0.77777778  0.          0.55555556  0.          0.
+  0.44444444  0.          0.44444444  0.22222222  0.55555556  0.11111111
+  0.          0.44444444  0.88888889  0.55555556  1.          0.          0.
+  0.66666667  0.11111111  0.44444444  0.33333333  0.          1.
+  0.55555556  0.66666667  0.33333333  0.44444444  0.          0.55555556
+  0.77777778  0.55555556  0.          1.          0.          0.          0.
+  0.        ]</t>
+  </si>
+  <si>
+    <t>[array([-0.02474467]), array([ 0.02228967]), array([ 0.00940533]), array([ 0.01491533]), array([ 0.026637]), array([ 0.015475]), array([ 0.02884767]), array([-0.00479467]), array([-0.018102]), array([ 0.02705633]), array([-0.007142]), array([ 0.015718]), array([-0.00092167]), array([ 0.00079533]), array([ 0.03707533]), array([-0.00355767]), array([-0.03144]), array([-0.00341567]), array([ 0.03263767]), array([-0.01535967]), array([ 0.00238267]), array([ 0.009296]), array([ 0.00485067]), array([ 0.01165]), array([ 0.00561333]), array([-0.03459233]), array([-0.005777]), array([ 0.00451167]), array([ 0.00649467]), array([ 0.01914367]), array([-0.000777]), array([ 0.00544433]), array([-0.016568]), array([ 0.005665]), array([-0.00153067]), array([-0.01266167]), array([-0.00514433]), array([ 0.01303233]), array([ 0.00778733]), array([ 0.002098]), array([-0.01774333]), array([ 0.00080022]), array([-0.014922]), array([-0.01183467]), array([ 0.00108067]), array([ 0.00256433]), array([-0.00579433]), array([-0.00540367]), array([-0.00991733]), array([-0.00354122]), array([-0.00574333]), array([-0.00303567]), array([ 0.009011]), array([ 0.00925267]), array([ 0.00393767]), array([-0.00011]), array([ 0.00445733]), array([-0.01153167]), array([-0.004913])]</t>
+  </si>
+  <si>
+    <t>[ 0.          0.          0.          0.          0.          0.          0.
+  0.          0.          0.          0.          0.          0.          0.
+  0.33333333  0.          0.          0.          0.          0.
+  0.22222222  0.          0.          0.          0.22222222  0.          0.
+  0.          0.          0.          0.          0.          0.          0.
+  0.          0.          0.          0.          0.          0.          0.
+  0.55555556  0.          0.          0.          0.          0.          0.
+  0.          0.11111111  0.          0.          0.          0.          0.
+  0.          0.          0.          0.        ]</t>
+  </si>
+  <si>
+    <t>[array([ 0.01022333]), array([ 0.012997]), array([ 0.02228967]), array([ 0.00940533]), array([-0.05242544]), array([-0.08255]), array([ 0.01350922]), array([ 0.01438922]), array([ 0.00391656]), array([-0.018102]), array([ 0.01801622]), array([-0.007142]), array([ 0.015718]), array([ 0.00938333]), array([ 0.054812]), array([ 0.02432333]), array([ 0.00919367]), array([-0.03144]), array([ 0.00271544]), array([-0.00989533]), array([-0.01535967]), array([ 0.015818]), array([ 0.009296]), array([ 0.00485067]), array([ 0.011987]), array([ 0.01049067]), array([-0.03352822]), array([-0.005777]), array([ 0.00451167]), array([-0.00356511]), array([ 0.01914367]), array([-0.000777]), array([ 0.00665478]), array([-0.016568]), array([ 0.033352]), array([-0.00452656]), array([-0.01266167]), array([-0.00514433]), array([ 0.01303233]), array([ 0.02323289]), array([ 0.002098]), array([ 0.02118]), array([ 0.01281633]), array([-0.00736267]), array([-0.02396867]), array([ 0.009084]), array([ 0.00021433]), array([ 0.03649967]), array([-0.00540367]), array([-0.00991733]), array([-0.00195711]), array([-0.00574333]), array([-0.00422856]), array([ 0.00400433]), array([ 0.01832311]), array([ 0.01541567]), array([ 0.00357267]), array([ 0.00445733]), array([-0.00745522])]</t>
+  </si>
+  <si>
+    <t>[ 0.          0.55555556  0.          0.          0.77777778  1.
+  0.22222222  0.11111111  0.11111111  0.          0.11111111  0.          0.
+  1.          0.66666667  0.          0.66666667  0.          0.22222222
+  1.          0.          1.          0.          0.          0.11111111
+  0.          0.11111111  0.          0.          0.22222222  0.          0.
+  0.11111111  0.          1.          0.11111111  0.          0.          0.
+  0.55555556  0.          0.66666667  0.          0.33333333  1.
+  0.22222222  1.          1.          0.          0.          0.22222222
+  0.          0.88888889  0.33333333  0.77777778  1.          0.11111111
+  0.          0.22222222]</t>
+  </si>
+  <si>
+    <t>[array([ 0.002548]), array([ 0.01022333]), array([-0.02474467]), array([ 0.02228967]), array([ -9.24447778e-05]), array([ 0.01491533]), array([ 0.026637]), array([ 0.01350922]), array([-0.01452767]), array([ 0.06489511]), array([-0.018102]), array([ 0.02705633]), array([-0.02053922]), array([ 0.00145889]), array([-0.00092167]), array([ 0.00079533]), array([ 0.06257933]), array([-0.00355767]), array([-0.00155]), array([-0.00341567]), array([ 0.02791178]), array([-0.01535967]), array([-0.001456]), array([ 0.03292467]), array([ 0.010673]), array([ 0.01165]), array([ 0.01049067]), array([-0.03459233]), array([-0.005777]), array([ 0.00451167]), array([ 0.00649467]), array([ 0.00540578]), array([-0.000777]), array([ 0.00544433]), array([-0.00956244]), array([ 0.005665]), array([-0.01351422]), array([-0.00527811]), array([-0.00514433]), array([ 0.01303233]), array([ 0.02323289]), array([ 0.002098]), array([-0.00476889]), array([ 0.01281633]), array([-0.014922]), array([-0.01183467]), array([ 0.03709567]), array([ 0.00256433]), array([ 0.01770233]), array([-0.00533167]), array([-0.00991733]), array([-0.00354122]), array([-0.01548833]), array([-0.00303567]), array([ 0.009011]), array([ 0.00925267]), array([ 0.01541567]), array([ 0.033034]), array([ 0.00613856])]</t>
+  </si>
+  <si>
+    <t>[ 0.          0.          0.          0.          0.44444444  0.          0.
+  0.22222222  0.33333333  0.88888889  0.          0.          0.77777778
+  0.44444444  0.          0.          1.          0.          0.55555556
+  0.          0.11111111  0.          0.          0.66666667  0.33333333
+  0.          0.          0.          0.          0.          0.
+  0.77777778  0.          0.          0.11111111  0.          0.44444444
+  0.22222222  0.          0.          0.55555556  0.          0.22222222
+  0.          0.          0.          1.          0.          0.55555556
+  1.          0.          0.11111111  0.33333333  0.          0.          0.
+  1.          1.          0.11111111]</t>
+  </si>
+  <si>
+    <t>[array([-0.01043533]), array([-0.00850756]), array([ 0.00651667]), array([ 0.02809367]), array([-0.05105033]), array([ 0.002282]), array([-0.00432489]), array([-0.03402244]), array([ 0.01449211]), array([-0.04344456]), array([ 0.00391656]), array([ 0.03413]), array([ 0.00897611]), array([-0.007142]), array([ 0.015718]), array([ 0.00136833]), array([ 0.00979811]), array([ 0.041326]), array([-0.00355767]), array([-0.025462]), array([ 0.01804322]), array([ 0.01373411]), array([-0.01535967]), array([ 0.01006]), array([ 0.01717222]), array([ 0.02231767]), array([ 0.01165]), array([ 0.00561333]), array([-0.02714356]), array([ 0.013218]), array([ 0.00451167]), array([-0.03877433]), array([ 0.00540578]), array([ 0.00587267]), array([ 0.012707]), array([ 0.03947644]), array([ 0.02719933]), array([-0.01351422]), array([-0.01266167]), array([-0.01453567]), array([-0.000479]), array([ 0.02014378]), array([ 0.002098]), array([ 0.00820556]), array([ 0.01041311]), array([-0.00736267]), array([-0.02396867]), array([ 0.02509067]), array([ 0.00256433]), array([-0.00579433]), array([-0.00534767]), array([-0.00151333]), array([ 0.00754756]), array([-0.02848167]), array([-0.00378122]), array([-0.00267122]), array([ 0.00925267]), array([ 0.01541567]), array([ 0.033034])]</t>
+  </si>
+  <si>
+    <t>[ 0.          0.55555556  0.11111111  0.77777778  1.          0.33333333
+  0.22222222  0.55555556  0.11111111  0.55555556  0.11111111  0.66666667
+  0.22222222  0.          0.          0.22222222  0.11111111  0.44444444
+  0.          0.11111111  0.77777778  0.44444444  0.          0.66666667
+  0.22222222  1.          0.          0.22222222  0.77777778  1.          0.
+  1.          0.77777778  0.33333333  0.66666667  0.88888889  0.77777778
+  0.44444444  0.          0.66666667  0.33333333  0.44444444  0.
+  0.44444444  0.11111111  0.33333333  1.          0.66666667  0.          0.
+  0.77777778  0.33333333  0.88888889  0.77777778  0.55555556  0.77777778
+  0.          1.          1.        ]</t>
+  </si>
+  <si>
+    <t>[array([ 0.07722167]), array([ 0.01643967]), array([-0.017352]), array([-0.02313667]), array([ 0.012997]), array([-0.05105033]), array([ 0.00703089]), array([-0.07166567]), array([-0.08255]), array([ 0.006629]), array([-0.10127833]), array([ 0.07360633]), array([ 0.060246]), array([-0.05430467]), array([-0.024367]), array([-0.016365]), array([ 0.00938333]), array([ 0.03680644]), array([ 0.041326]), array([ 0.00706844]), array([-0.007528]), array([ 0.00884656]), array([-0.00989533]), array([ 0.05955233]), array([ 0.01006]), array([ 0.04080089]), array([ 0.02231767]), array([ 0.014683]), array([-0.01145733]), array([-0.02714356]), array([ 0.00688633]), array([ 0.02051967]), array([-0.03877433]), array([ 0.00148067]), array([ 0.019172]), array([ 0.01633833]), array([ 0.046482]), array([ 0.02719933]), array([-0.02250189]), array([ 0.02056433]), array([-0.01923133]), array([-0.02750167]), array([ 0.03558933]), array([ 0.009058]), array([ 0.04064167]), array([-0.00881267]), array([ 0.00271644]), array([-0.02396867]), array([ 0.03709567]), array([ 0.00021433]), array([ 0.03649967]), array([-0.00533167]), array([ 0.01529467]), array([ 0.00913167]), array([-0.01224]), array([-0.00437767]), array([-0.006009]), array([ 0.02091467]), array([ 0.01158967])]</t>
+  </si>
+  <si>
+    <t>[ 1.          1.          1.          1.          0.55555556  1.
+  0.11111111  1.          1.          1.          1.          1.          1.
+  1.          1.          1.          1.          0.44444444  0.44444444
+  0.55555556  0.44444444  0.44444444  1.          1.          0.66666667
+  0.88888889  1.          1.          1.          0.77777778  0.66666667
+  1.          1.          1.          1.          1.          1.
+  0.77777778  0.77777778  1.          1.          1.          1.          1.
+  1.          1.          0.77777778  1.          1.          1.          1.
+  1.          1.          1.          0.22222222  1.          1.          1.
+  0.66666667]</t>
+  </si>
+  <si>
+    <t>[array([ 0.026033]), array([ 0.07722167]), array([ 0.01643967]), array([-0.017352]), array([-0.02313667]), array([ 0.04319033]), array([-0.05105033]), array([-0.01196467]), array([-0.07166567]), array([-0.08255]), array([ 0.006629]), array([-0.10127833]), array([ 0.07360633]), array([ 0.060246]), array([-0.05430467]), array([-0.024367]), array([-0.016365]), array([ 0.00938333]), array([ 0.08182033]), array([ 0.06257933]), array([ 0.01556933]), array([ 0.022362]), array([ 0.02417433]), array([-0.00989533]), array([ 0.05955233]), array([ 0.015818]), array([ 0.044739]), array([ 0.02231767]), array([ 0.014683]), array([-0.01145733]), array([-0.02501533]), array([ 0.013218]), array([ 0.02051967]), array([-0.03877433]), array([ 0.00148067]), array([ 0.019172]), array([ 0.01633833]), array([ 0.046482]), array([ 0.033352]), array([-0.02849367]), array([ 0.02056433]), array([-0.01923133]), array([-0.02750167]), array([ 0.03558933]), array([ 0.009058]), array([ 0.04064167]), array([-0.00881267]), array([ 0.007756]), array([-0.02396867]), array([ 0.03709567]), array([ 0.00021433]), array([ 0.03649967]), array([-0.00533167]), array([ 0.01529467]), array([ 0.00913167]), array([-0.03497833]), array([-0.00437767]), array([-0.006009]), array([ 0.02091467])]</t>
+  </si>
+  <si>
+    <t>[array([ 0.021623]), array([ 0.018908]), array([-0.01985733]), array([-0.01043533]), array([ 0.002548]), array([ 0.01022333]), array([-0.02474467]), array([ 0.02228967]), array([ 0.00940533]), array([ 0.01491533]), array([ 0.026637]), array([ 0.015475]), array([ 0.02884767]), array([-0.00479467]), array([-0.00939667]), array([ 0.02705633]), array([-0.007142]), array([ 0.015718]), array([-0.00092167]), array([ 0.00079533]), array([ 0.02432333]), array([-0.00355767]), array([ 0.004428]), array([-0.00341567]), array([ 0.03263767]), array([-0.01535967]), array([-0.001456]), array([ 0.009296]), array([ 0.00485067]), array([ 0.01165]), array([ 0.01049067]), array([-0.03459233]), array([-0.005777]), array([ 0.00451167]), array([ 0.00649467]), array([ 0.01914367]), array([ 0.00365611]), array([ 0.00544433]), array([-0.016568]), array([ 0.005665]), array([-0.00153067]), array([-0.01266167]), array([-0.00514433]), array([ 0.01303233]), array([ 0.00778733]), array([ 0.002098]), array([-0.01774333]), array([ 0.01281633]), array([-0.014922]), array([-0.01183467]), array([ 0.00108067]), array([ 0.00256433]), array([-0.00579433]), array([-0.00540367]), array([-0.00991733]), array([-0.00512533]), array([-0.01548833]), array([-0.00303567]), array([ 0.009011])]</t>
+  </si>
+  <si>
+    <t>[ 0.          0.          0.          0.          0.          0.          0.
+  0.          0.          0.          0.          0.          0.          0.
+  0.11111111  0.          0.          0.          0.          0.          0.
+  0.          0.66666667  0.          0.          0.          0.          0.
+  0.          0.          0.          0.          0.          0.          0.
+  0.          0.22222222  0.          0.          0.          0.          0.
+  0.          0.          0.          0.          0.          0.          0.
+  0.          0.          0.          0.          0.          0.          0.
+  0.33333333  0.          0.        ]</t>
+  </si>
+  <si>
+    <t>[array([-0.014476]), array([ 0.021623]), array([ 0.018908]), array([-0.01985733]), array([-0.01043533]), array([ 0.002548]), array([ 0.01022333]), array([-0.02474467]), array([ 0.02228967]), array([ 0.00940533]), array([-0.06204556]), array([ 0.026637]), array([ 0.015475]), array([ 0.02884767]), array([-0.00479467]), array([-0.018102]), array([ 0.02705633]), array([-0.007142]), array([ 0.015718]), array([-0.00092167]), array([ 0.00079533]), array([ 0.02432333]), array([-0.00143244]), array([-0.03144]), array([ 0.00884656]), array([ 0.03263767]), array([-0.01535967]), array([-0.001456]), array([ 0.02504844]), array([ 0.02037689]), array([ 0.01165]), array([ 0.01049067]), array([-0.03459233]), array([-0.005777]), array([ 0.01162633]), array([ 0.00649467]), array([ 0.01914367]), array([-0.000777]), array([ 0.00544433]), array([ 0.03247089]), array([ 0.024123]), array([-0.00153067]), array([-0.01266167]), array([-0.00670956]), array([ 0.01303233]), array([ 0.00778733]), array([ 0.002098]), array([-0.01774333]), array([ 0.01281633]), array([-0.014922]), array([-0.01183467]), array([ 0.00508233]), array([ 0.00256433]), array([-0.00579433]), array([-0.00540367]), array([-0.00991733]), array([-0.00195711]), array([-0.00574333]), array([-0.00303567])]</t>
+  </si>
+  <si>
+    <t>[ 0.33333333  0.          0.          0.          0.          0.          0.
+  0.          0.          0.          0.88888889  0.          0.          0.
+  0.          0.          0.          0.          0.          0.          0.
+  0.          0.11111111  0.          0.44444444  0.          0.          0.
+  0.44444444  0.88888889  0.          0.          0.          0.
+  0.44444444  0.          0.          0.          0.          0.77777778
+  0.66666667  0.          0.          0.11111111  0.          0.          0.
+  0.          0.          0.          0.          0.11111111  0.          0.
+  0.          0.          0.22222222  0.          0.        ]</t>
+  </si>
+  <si>
+    <t>[array([-0.021219]), array([-0.06178]), array([-0.093688]), array([ 0.026033]), array([ 0.07722167]), array([ 0.01643967]), array([-0.017352]), array([-0.02313667]), array([ 0.04319033]), array([-0.05105033]), array([-0.01196467]), array([-0.07166567]), array([-0.08255]), array([ 0.006629]), array([-0.10127833]), array([ 0.07360633]), array([ 0.060246]), array([-0.05430467]), array([-0.024367]), array([-0.016365]), array([ 0.00938333]), array([ 0.08182033]), array([ 0.06257933]), array([ 0.00706844]), array([ 0.022362]), array([ 0.01497767]), array([-0.00989533]), array([ 0.05955233]), array([ 0.015818]), array([ 0.044739]), array([ 0.02231767]), array([ 0.014683]), array([-0.01145733]), array([-0.03033589]), array([ 0.013218]), array([ 0.02051967]), array([-0.03877433]), array([ 0.00148067]), array([ 0.019172]), array([ 0.01633833]), array([ 0.046482]), array([ 0.033352]), array([-0.01051833]), array([ 0.01687256]), array([-0.01766611]), array([-0.02750167]), array([ 0.03558933]), array([ 0.009058]), array([-0.01125611]), array([-0.00881267]), array([ 0.007756]), array([-0.02396867]), array([ 0.03709567]), array([ 0.00073656]), array([ 0.03649967]), array([-0.00533167]), array([ 0.01529467]), array([ 0.00913167]), array([-0.03497833])]</t>
+  </si>
+  <si>
+    <t>[ 1.          1.          1.          1.          1.          1.          1.
+  1.          1.          1.          1.          1.          1.          1.
+  1.          1.          1.          1.          1.          1.          1.
+  1.          1.          0.55555556  1.          0.66666667  1.          1.
+  1.          1.          1.          1.          1.          0.44444444
+  1.          1.          1.          1.          1.          1.          1.
+  1.          0.33333333  0.88888889  0.88888889  1.          1.          1.
+  0.11111111  1.          1.          1.          1.          0.77777778
+  1.          1.          1.          1.          1.        ]</t>
+  </si>
+  <si>
+    <t>[array([-0.00067833]), array([ 0.019481]), array([ 0.009176]), array([-0.02962633]), array([ 0.026033]), array([-0.01985733]), array([-0.001477]), array([-0.00408533]), array([ 0.01022333]), array([ 0.04319033]), array([ 0.02228967]), array([ 0.00940533]), array([ 0.00529522]), array([-0.03402244]), array([ 0.015475]), array([ 0.02884767]), array([-0.00479467]), array([-0.00939667]), array([-0.00910411]), array([-0.024367]), array([ 0.015718]), array([-0.00092167]), array([ 0.00079533]), array([ 0.02432333]), array([ 0.00069278]), array([-0.03144]), array([-0.00341567]), array([ 0.00428233]), array([ 0.03458167]), array([ 0.00622133]), array([ 0.009296]), array([ 0.00485067]), array([ 0.01165]), array([ 0.01049067]), array([-0.03459233]), array([ 0.00266522]), array([ 0.00451167]), array([-0.01362489]), array([ 0.01914367]), array([-0.000777]), array([ 0.00544433]), array([ 0.00444867]), array([ 0.005665]), array([-0.01351422]), array([-0.01266167]), array([-0.00514433]), array([ 0.01303233]), array([ 0.00778733]), array([ 0.002098]), array([-0.01774333]), array([ 0.01281633]), array([-0.014922]), array([-0.01453111]), array([ 0.021089]), array([ 0.00256433]), array([ 0.02240167]), array([-0.00537967]), array([ 0.009692]), array([-0.00512533])]</t>
+  </si>
+  <si>
+    <t>[ 0.          0.          0.          0.44444444  1.          0.
+  0.33333333  0.33333333  0.          1.          0.          0.
+  0.11111111  0.55555556  0.          0.          0.          0.11111111
+  0.44444444  1.          0.          0.          0.          0.
+  0.22222222  0.          0.          0.66666667  0.66666667  0.44444444
+  0.          0.          0.          0.          0.          0.44444444
+  0.          0.44444444  0.          0.          0.          0.33333333
+  0.          0.44444444  0.          0.          0.          0.          0.
+  0.          0.          0.          0.22222222  0.55555556  0.
+  0.66666667  0.33333333  0.77777778  0.        ]</t>
+  </si>
+  <si>
+    <t>[array([ 0.00744133]), array([-0.00067833]), array([ 0.00591433]), array([-0.038128]), array([-0.00400167]), array([ 0.02524133]), array([ 0.02328889]), array([-0.00446311]), array([ 0.002548]), array([-0.01572333]), array([-0.009648]), array([ 0.02228967]), array([ 0.00465644]), array([-0.07166567]), array([ 0.026637]), array([ 0.00957767]), array([ 0.01438922]), array([ 0.01262778]), array([ 0.01671933]), array([ 0.02705633]), array([-0.007142]), array([ 0.01215322]), array([ 0.00709333]), array([ 0.00979811]), array([ 0.03282467]), array([ 0.00706844]), array([-0.007528]), array([ 0.005781]), array([ 0.02791178]), array([ 0.05122878]), array([-0.001456]), array([ 0.02898656]), array([ 0.00485067]), array([ 0.012998]), array([-0.01145733]), array([-0.03459233]), array([ 0.00899689]), array([ 0.02051967]), array([ 0.00649467]), array([ 0.01129344]), array([ 0.01030578]), array([ 0.00544433]), array([ 0.02546533]), array([ 0.00874133]), array([-0.00153067]), array([-0.01266167]), array([-0.00827478]), array([-0.00948656]), array([ 0.026322]), array([ 0.002098]), array([ 0.00820556]), array([ 0.00800989]), array([-0.00484289]), array([-0.01857578]), array([ 0.03709567]), array([ 0.00230322]), array([ 0.013003]), array([-0.00540367]), array([-0.00991733])]</t>
+  </si>
+  <si>
+    <t>[ 1.          0.          0.33333333  0.66666667  0.22222222  0.88888889
+  0.44444444  0.22222222  0.          0.77777778  0.22222222  0.
+  0.22222222  1.          0.          0.66666667  0.11111111  0.22222222
+  0.44444444  0.          0.          0.11111111  0.77777778  0.11111111
+  0.22222222  0.55555556  0.44444444  0.33333333  0.11111111  0.88888889
+  0.          0.55555556  0.          0.44444444  1.          0.
+  0.77777778  1.          0.          0.44444444  0.55555556  0.
+  0.66666667  0.11111111  0.          0.          0.22222222  0.55555556
+  0.66666667  0.          0.44444444  0.22222222  0.44444444  0.55555556
+  1.          0.11111111  0.44444444  0.          0.        ]</t>
+  </si>
+  <si>
+    <t>[array([ 0.080606]), array([ 0.00368711]), array([-0.02046233]), array([-0.00765233]), array([-0.06178]), array([-0.093688]), array([ 0.026033]), array([ 0.07722167]), array([ 0.01643967]), array([-0.00408533]), array([-0.02313667]), array([ 0.035642]), array([-0.02660367]), array([-0.01196467]), array([-0.04280533]), array([-0.08255]), array([ 0.006629]), array([-0.10127833]), array([ 0.07360633]), array([ 0.060246]), array([-0.05430467]), array([-0.00905589]), array([-0.016365]), array([ 0.00938333]), array([ 0.08182033]), array([ 0.06257933]), array([ 0.01556933]), array([-0.013506]), array([ 0.02417433]), array([-0.00989533]), array([ 0.05955233]), array([ 0.015818]), array([ 0.04080089]), array([ 0.02231767]), array([ 0.014683]), array([-0.01145733]), array([-0.02501533]), array([ 0.013218]), array([ 0.02051967]), array([-0.02368467]), array([ 0.00148067]), array([ 0.019172]), array([ 0.01633833]), array([ 0.046482]), array([ 0.033352]), array([-0.02849367]), array([ 0.02056433]), array([-0.01923133]), array([-0.02750167]), array([ 0.03558933]), array([ 0.009058]), array([ 0.04064167]), array([-0.00881267]), array([ 0.007756]), array([-0.02396867]), array([ 0.03709567]), array([ 0.00021433]), array([ 0.03649967]), array([-0.00533167])]</t>
+  </si>
+  <si>
+    <t>[ 1.          0.55555556  1.          0.66666667  1.          1.          1.
+  1.          1.          0.33333333  1.          0.88888889  0.66666667
+  1.          0.66666667  1.          1.          1.          1.          1.
+  1.          0.11111111  1.          1.          1.          1.          1.
+  0.33333333  1.          1.          1.          1.          0.88888889
+  1.          1.          1.          1.          1.          1.
+  0.66666667  1.          1.          1.          1.          1.          1.
+  1.          1.          1.          1.          1.          1.          1.
+  1.          1.          1.          1.          1.          1.        ]</t>
+  </si>
+  <si>
+    <t>[array([ 0.00457567]), array([-0.00123222]), array([-0.00100567]), array([-0.00067833]), array([ 0.019481]), array([-0.014476]), array([ 0.021623]), array([ 0.018908]), array([-0.01985733]), array([-0.01043533]), array([ 0.002548]), array([ 0.01022333]), array([-0.02474467]), array([ 0.02228967]), array([ 0.00940533]), array([ 0.01491533]), array([ 0.026637]), array([ 0.015475]), array([ 0.02884767]), array([-0.00479467]), array([-0.018102]), array([ 0.02705633]), array([-0.007142]), array([ 0.015718]), array([-0.00092167]), array([ 0.00079533]), array([ 0.02432333]), array([-0.00355767]), array([-0.03144]), array([-0.00341567]), array([ 0.03263767]), array([-0.01535967]), array([ 0.00238267]), array([ 0.009296]), array([ 0.00485067]), array([ 0.01165]), array([ 0.01049067]), array([-0.03459233]), array([-0.005777]), array([ 0.00451167]), array([ 0.00649467]), array([ 0.01914367]), array([-0.000777]), array([ 0.00544433]), array([-0.016568]), array([ 0.005665]), array([-0.00153067]), array([-0.01266167]), array([-0.00514433]), array([ 0.01303233]), array([ 0.00778733]), array([ 0.002098]), array([-0.01774333]), array([ 0.01281633]), array([-0.014922]), array([-0.01183467]), array([ 0.00108067]), array([ 0.00256433]), array([-0.00579433])]</t>
+  </si>
+  <si>
+    <t>[ 0.          0.11111111  0.          0.          0.          0.33333333
+  0.          0.          0.          0.          0.          0.          0.
+  0.          0.          0.          0.          0.          0.          0.
+  0.          0.          0.          0.          0.          0.          0.
+  0.          0.          0.          0.          0.          0.22222222
+  0.          0.          0.          0.          0.          0.          0.
+  0.          0.          0.          0.          0.          0.          0.
+  0.          0.          0.          0.          0.          0.          0.
+  0.          0.          0.          0.          0.        ]</t>
+  </si>
+  <si>
+    <t>[array([ 0.00724333]), array([ 0.00457567]), array([-0.011462]), array([-0.00100567]), array([-0.00067833]), array([ 0.019481]), array([ 0.009176]), array([ 0.021623]), array([ 0.018908]), array([-0.01985733]), array([-0.01043533]), array([ 0.002548]), array([ 0.01022333]), array([-0.02474467]), array([ 0.02228967]), array([ 0.00940533]), array([ 0.01491533]), array([ 0.026637]), array([ 0.015475]), array([ 0.02884767]), array([-0.00479467]), array([-0.018102]), array([ 0.02705633]), array([-0.007142]), array([ 0.015718]), array([-0.00092167]), array([ 0.00079533]), array([ 0.02432333]), array([-0.00355767]), array([-0.03144]), array([-0.00341567]), array([ 0.03263767]), array([-0.01535967]), array([-0.001456]), array([ 0.009296]), array([ 0.00485067]), array([ 0.01165]), array([ 0.01049067]), array([-0.03459233]), array([-0.005777]), array([ 0.00451167]), array([ 0.00649467]), array([ 0.01914367]), array([-0.000777]), array([ 0.00544433]), array([-0.016568]), array([ 0.005665]), array([-0.00153067]), array([-0.01266167]), array([-0.00514433]), array([ 0.01303233]), array([ 0.00778733]), array([ 0.002098]), array([-0.01774333]), array([ 0.01281633]), array([-0.014922]), array([-0.01183467]), array([ 0.00108067]), array([ 0.00256433])]</t>
+  </si>
+  <si>
+    <t>[array([ 0.03530733]), array([-0.10316567]), array([-0.07407333]), array([ 0.080606]), array([ 0.00744133]), array([-0.02046233]), array([-0.021219]), array([-0.06178]), array([-0.093688]), array([ 0.026033]), array([ 0.06643511]), array([ 0.01643967]), array([-0.00629644]), array([-0.02313667]), array([ 0.04319033]), array([-0.05105033]), array([-0.01196467]), array([-0.07166567]), array([-0.08255]), array([ 0.00761189]), array([-0.10127833]), array([ 0.07360633]), array([ 0.060246]), array([-0.05430467]), array([-0.024367]), array([-0.016365]), array([ 0.00938333]), array([ 0.08182033]), array([ 0.06257933]), array([ 0.01556933]), array([ 0.022362]), array([ 0.02417433]), array([ 0.00900822]), array([ 0.05955233]), array([ 0.015818]), array([ 0.044739]), array([ 0.02231767]), array([ 0.014683]), array([-0.01145733]), array([-0.02501533]), array([ 0.00899689]), array([ 0.02051967]), array([-0.03877433]), array([ 0.00148067]), array([ 0.019172]), array([ 0.01633833]), array([ 0.046482]), array([ 0.033352]), array([-0.02849367]), array([ 0.02056433]), array([-0.01923133]), array([-0.02750167]), array([ 0.03558933]), array([ 0.009058]), array([ 0.04064167]), array([-0.00881267]), array([ 0.007756]), array([-0.02396867]), array([ 0.03709567])]</t>
+  </si>
+  <si>
+    <t>[ 1.          1.          1.          1.          1.          1.          1.
+  1.          1.          1.          0.88888889  1.          0.44444444
+  1.          1.          1.          1.          1.          1.
+  0.88888889  1.          1.          1.          1.          1.          1.
+  1.          1.          1.          1.          1.          1.
+  0.55555556  1.          1.          1.          1.          1.          1.
+  1.          0.77777778  1.          1.          1.          1.          1.
+  1.          1.          1.          1.          1.          1.          1.
+  1.          1.          1.          1.          1.          1.        ]</t>
+  </si>
+  <si>
+    <t>[array([ 0.01561767]), array([ 0.03530733]), array([-0.10316567]), array([-0.07407333]), array([ 0.080606]), array([ 0.00744133]), array([-0.02046233]), array([-0.021219]), array([-0.06178]), array([-0.093688]), array([ 0.026033]), array([ 0.07722167]), array([ 0.01643967]), array([-0.017352]), array([-0.02313667]), array([ 0.04319033]), array([-0.05105033]), array([-0.01196467]), array([-0.07166567]), array([-0.08255]), array([ 0.006629]), array([-0.10127833]), array([ 0.07360633]), array([ 0.060246]), array([-0.05430467]), array([-0.024367]), array([-0.016365]), array([ 0.00938333]), array([ 0.08182033]), array([ 0.06257933]), array([ 0.01556933]), array([ 0.022362]), array([ 0.02417433]), array([-0.00989533]), array([ 0.05955233]), array([ 0.015818]), array([ 0.044739]), array([ 0.02231767]), array([ 0.014683]), array([-0.01145733]), array([-0.02501533]), array([ 0.013218]), array([ 0.02051967]), array([-0.03877433]), array([ 0.00148067]), array([ 0.019172]), array([ 0.01633833]), array([ 0.046482]), array([ 0.033352]), array([-0.02849367]), array([ 0.02056433]), array([-0.01923133]), array([-0.02750167]), array([ 0.03558933]), array([ 0.009058]), array([ 0.04064167]), array([-0.00881267]), array([ 0.007756]), array([-0.02396867])]</t>
+  </si>
+  <si>
+    <t>[ 1.          0.33333333  0.88888889  1.          1.          0.88888889
+  1.          0.77777778  1.          1.          1.          1.
+  0.44444444  0.22222222  0.66666667  1.          1.          0.44444444
+  0.44444444  0.55555556  1.          0.          0.77777778  0.55555556
+  1.          0.33333333  0.44444444  0.33333333  0.66666667  1.          1.
+  0.55555556  0.11111111  0.33333333  0.55555556  1.          0.          1.
+  1.          0.66666667  1.          1.          0.22222222  1.
+  0.55555556  0.55555556  0.          1.          1.          0.77777778
+  1.          0.77777778  0.55555556  0.77777778  1.          1.          1.
+  0.44444444  0.66666667]</t>
+  </si>
+  <si>
+    <t>[array([ 0.015818]), array([ 0.02111033]), array([ 0.02037689]), array([ 0.014683]), array([-0.01145733]), array([-0.02607944]), array([ 0.013218]), array([ 0.01696233]), array([-0.03877433]), array([ 0.00148067]), array([ 0.019172]), array([ 0.01633833]), array([ 0.01145422]), array([ 0.01181767]), array([-0.019506]), array([ 0.02056433]), array([-0.01923133]), array([-0.00498278]), array([ 0.02014378]), array([ 0.00596467]), array([ 0.04064167]), array([ 0.01281633]), array([ 0.00271644]), array([-0.01857578]), array([ 0.03709567]), array([ 0.001781]), array([ 0.013003]), array([-0.00537967]), array([ 0.00689067]), array([ 0.00913167]), array([-0.03497833]), array([-0.00378122]), array([ 0.00734211]), array([ 0.01314]), array([ 0.01031433]), array([ 0.033034]), array([ 0.00445733]), array([ 0.00681233]), array([ 0.015254]), array([-0.00835167]), array([ 0.00882933]), array([ 0.03576267]), array([-0.00389156]), array([-0.01859567]), array([-0.01329244]), array([ 0.01069633]), array([ 0.00105233]), array([ 0.022583]), array([-0.052052]), array([-0.00579467]), array([-0.06443867]), array([-0.01531844]), array([-0.00482867]), array([ 0.03336256]), array([ 0.02239933]), array([-0.079983]), array([-0.01468633]), array([ 0.00818578]), array([-0.06321333])]</t>
+  </si>
+  <si>
+    <t>[ 1.          1.          1.          1.          1.          1.          1.
+  1.          1.          1.          1.          1.          1.          1.
+  1.          1.          1.          1.          1.          1.          1.
+  1.          1.          1.          1.          1.          1.          1.
+  1.          1.          1.          1.          1.          1.          1.
+  1.          1.          1.          1.          1.          1.          1.
+  1.          1.          1.          1.          1.          1.          1.
+  1.          1.          1.          1.          1.          1.          1.
+  1.          0.77777778  1.        ]</t>
+  </si>
+  <si>
+    <t>[array([ 0.044739]), array([ 0.02231767]), array([ 0.014683]), array([-0.01145733]), array([-0.02501533]), array([ 0.013218]), array([ 0.02051967]), array([-0.03877433]), array([ 0.00148067]), array([ 0.019172]), array([ 0.01633833]), array([ 0.046482]), array([ 0.033352]), array([-0.02849367]), array([ 0.02056433]), array([-0.01923133]), array([-0.02750167]), array([ 0.03558933]), array([ 0.009058]), array([ 0.04064167]), array([-0.00881267]), array([ 0.007756]), array([-0.02396867]), array([ 0.03709567]), array([ 0.00021433]), array([ 0.03649967]), array([-0.00533167]), array([ 0.01529467]), array([ 0.00913167]), array([-0.03497833]), array([-0.00437767]), array([-0.006009]), array([ 0.02091467]), array([ 0.01541567]), array([ 0.033034]), array([ 0.01958833]), array([ 0.00681233]), array([ 0.015254]), array([-0.01818567]), array([ 0.00882933]), array([ 0.03576267]), array([ 0.03499033]), array([-0.01859567]), array([-0.03577467]), array([ 0.008131]), array([ 0.03760733]), array([ 0.022583]), array([-0.052052]), array([-0.006928]), array([-0.06443867]), array([-0.02343067]), array([-0.01147]), array([ 0.050031]), array([ 0.02239933]), array([-0.079983]), array([-0.01468633]), array([ 0.00912967]), array([-0.07512511]), array([-0.18517933])]</t>
+  </si>
+  <si>
+    <t>[ 1.          0.          1.          1.          1.          1.          1.
+  1.          0.44444444  0.22222222  0.77777778  0.66666667  1.          1.
+  1.          1.          0.77777778  0.22222222  1.          1.          1.
+  1.          0.88888889  1.          1.          1.          1.
+  0.33333333  0.44444444  0.66666667  0.33333333  1.          0.22222222
+  0.88888889  0.11111111  0.55555556  0.88888889  1.          0.88888889
+  1.          0.33333333  1.          1.          1.          1.          1.
+  1.          1.          1.          0.77777778  0.88888889  0.77777778
+  0.55555556  0.88888889  0.77777778  0.88888889  1.          0.55555556
+  0.77777778]</t>
+  </si>
+  <si>
+    <t>[array([ 0.02231767]), array([ 0.01165]), array([-0.01145733]), array([-0.02501533]), array([ 0.013218]), array([ 0.02051967]), array([-0.03877433]), array([ 0.00148067]), array([ 0.00808922]), array([ 0.00786522]), array([ 0.03247089]), array([ 0.024123]), array([-0.02849367]), array([ 0.02056433]), array([-0.01923133]), array([-0.02750167]), array([ 0.02941111]), array([ 0.00364467]), array([ 0.04064167]), array([-0.00881267]), array([ 0.007756]), array([-0.02396867]), array([ 0.033094]), array([ 0.00021433]), array([ 0.03649967]), array([-0.00533167]), array([ 0.01529467]), array([-0.000373]), array([-0.01873667]), array([-0.00393033]), array([ 0.00400433]), array([ 0.02091467]), array([ 0.00648833]), array([ 0.02935133]), array([ 0.00613856]), array([-0.00134056]), array([ 0.01301322]), array([-0.01818567]), array([ 0.00773011]), array([ 0.03576267]), array([ 0.001663]), array([-0.01859567]), array([-0.03577467]), array([ 0.008131]), array([ 0.03760733]), array([ 0.022583]), array([-0.052052]), array([-0.006928]), array([-0.06443867]), array([-0.01531844]), array([-0.00980967]), array([ 0.03336256]), array([ 0.00503044]), array([-0.07048733]), array([-0.01011367]), array([ 0.00894089]), array([-0.09894867]), array([-0.098306]), array([-0.05591822])]</t>
+  </si>
+  <si>
+    <t>[ 1.          1.          1.          1.          1.          1.          1.
+  0.55555556  0.55555556  0.55555556  1.          1.          1.
+  0.55555556  1.          0.77777778  1.          1.          1.          1.
+  0.33333333  1.          1.          1.          1.          1.
+  0.44444444  1.          1.          0.55555556  0.88888889  1.
+  0.22222222  1.          0.77777778  1.          1.          1.          1.
+  0.          1.          1.          0.88888889  1.          1.
+  0.88888889  1.          1.          1.          1.          1.          1.
+  1.          1.          1.          1.          1.          1.          1.        ]</t>
+  </si>
+  <si>
+    <t>[array([ 0.014683]), array([-0.01145733]), array([-0.02501533]), array([ 0.013218]), array([ 0.02051967]), array([-0.03877433]), array([ 0.00148067]), array([ 0.01030578]), array([ 0.01149656]), array([ 0.01845978]), array([ 0.033352]), array([-0.02849367]), array([ 0.02056433]), array([-0.01297044]), array([-0.02750167]), array([ 0.02941111]), array([ 0.009058]), array([ 0.04064167]), array([-0.00881267]), array([ 0.007756]), array([-0.01587933]), array([ 0.03709567]), array([ 0.00021433]), array([ 0.03649967]), array([-0.00533167]), array([ 0.01529467]), array([ 0.00121111]), array([-0.03497833]), array([-0.00437767]), array([ 0.00066656]), array([ 0.01961889]), array([ 0.01541567]), array([ 0.00725533]), array([ 0.01958833]), array([ 0.00273589]), array([ 0.015254]), array([-0.01818567]), array([ 0.00882933]), array([ 0.03576267]), array([-0.01500067]), array([-0.01859567]), array([-0.03577467]), array([ 0.00877233]), array([ 0.03760733]), array([ 0.022583]), array([-0.04240644]), array([-0.006928]), array([-0.06443867]), array([-0.02343067]), array([-0.01147]), array([ 0.050031]), array([ 0.02239933]), array([-0.079983]), array([-0.01468633]), array([ 0.00912967]), array([-0.09894867]), array([-0.18517933]), array([-0.08477333]), array([ 0.022123])]</t>
+  </si>
+  <si>
+    <t>[ 0.          0.66666667  0.          0.22222222  0.66666667  0.          0.
+  0.44444444  0.77777778  1.          0.44444444  0.77777778  1.
+  0.11111111  0.          0.22222222  0.          0.          0.33333333
+  0.44444444  0.55555556  0.          0.11111111  0.66666667  0.33333333
+  0.          0.22222222  0.66666667  0.11111111  0.          0.          1.
+  0.          1.          0.11111111  0.22222222  0.44444444  0.55555556
+  0.          0.77777778  1.          0.22222222  0.          0.          0.
+  0.22222222  0.11111111  0.33333333  0.55555556  0.22222222  0.22222222
+  0.55555556  0.11111111  0.22222222  1.          0.77777778  0.44444444
+  0.11111111  0.88888889]</t>
+  </si>
+  <si>
+    <t>[array([ 0.01049067]), array([-0.02820767]), array([-0.005777]), array([ 0.008069]), array([-0.02368467]), array([ 0.01914367]), array([-0.000777]), array([ 0.01028611]), array([ 0.03247089]), array([ 0.033352]), array([-0.01351422]), array([ 0.01318078]), array([-0.01923133]), array([ 0.00852856]), array([ 0.00778733]), array([ 0.00364467]), array([-0.01774333]), array([ 0.01281633]), array([-0.00736267]), array([-0.01722756]), array([ 0.021089]), array([ 0.00256433]), array([-0.001095]), array([-0.00535567]), array([-0.00151333]), array([-0.00512533]), array([-0.01224]), array([-0.00393033]), array([ 0.00734211]), array([ 0.00925267]), array([ 0.00393767]), array([ 0.033034]), array([ 0.00445733]), array([ 0.00681233]), array([-0.00267222]), array([ 0.00476033]), array([ 0.00333322]), array([ 0.02001422]), array([-0.01500067]), array([-0.01513944]), array([-0.03577467]), array([ 0.01262033]), array([ 0.00105233]), array([ 0.004046]), array([ 0.034758]), array([-0.00296133]), array([ 0.02098178]), array([ 0.000906]), array([-0.00482867]), array([-0.00830856]), array([-0.00799622]), array([-0.04200033]), array([ 0.00360433]), array([ 0.00780822]), array([-0.09894867]), array([-0.14174267]), array([-0.01263556]), array([ 0.022915]), array([-0.07071756])]</t>
+  </si>
+  <si>
+    <t>[array([-0.03459233]), array([-0.005777]), array([ 0.00451167]), array([ 0.00649467]), array([ 0.01914367]), array([-0.000777]), array([ 0.00544433]), array([-0.016568]), array([ 0.005665]), array([-0.00153067]), array([-0.01266167]), array([-0.00514433]), array([ 0.01303233]), array([ 0.00778733]), array([ 0.002098]), array([-0.01774333]), array([ 0.01281633]), array([-0.014922]), array([-0.01183467]), array([ 0.00108067]), array([ 0.00256433]), array([-0.00579433]), array([-0.00540367]), array([-0.00991733]), array([-0.00512533]), array([-0.00574333]), array([-0.00303567]), array([ 0.009011]), array([ 0.00925267]), array([ 0.00393767]), array([-0.00011]), array([ 0.00445733]), array([-0.01153167]), array([-0.004913]), array([ 0.01131633]), array([-0.00106367]), array([ 0.00032867]), array([-0.01500067]), array([-0.00304267]), array([ 0.01481033]), array([ 0.013903]), array([ 0.00105233]), array([ 0.004046]), array([ 0.034758]), array([-0.001828]), array([ 0.03165933]), array([ 0.01307433]), array([ 0.003473]), array([-0.024977]), array([-0.01668067]), array([ 0.005478]), array([ 0.00589067]), array([ 0.00743067]), array([ 0.00825733]), array([ 0.01028567]), array([ 0.04507467]), array([ 0.023014]), array([-0.01699933]), array([-0.005286])]</t>
+  </si>
+  <si>
+    <t>[ 0.          0.33333333  0.11111111  0.          0.          0.55555556
+  0.          0.55555556  0.          0.          0.          0.44444444
+  0.88888889  0.          0.11111111  0.88888889  0.44444444  0.
+  0.11111111  0.55555556  0.          0.66666667  0.          0.
+  0.44444444  0.88888889  0.          0.          0.66666667  0.77777778
+  0.          0.          0.11111111  0.33333333  0.33333333  0.11111111
+  1.          0.          0.          0.66666667  0.33333333  0.33333333
+  0.          0.          0.          0.77777778  0.66666667  0.11111111
+  0.11111111  0.11111111  0.          0.          0.77777778  0.          0.
+  1.          0.77777778  0.44444444  0.        ]</t>
+  </si>
+  <si>
+    <t>[array([-0.005777]), array([ 0.00984767]), array([ 0.00146478]), array([ 0.01914367]), array([-0.000777]), array([ 0.01149656]), array([-0.016568]), array([ 0.02104667]), array([-0.00153067]), array([-0.01266167]), array([-0.00514433]), array([-0.00498278]), array([ 0.03250022]), array([ 0.002098]), array([-0.01125611]), array([-0.00640944]), array([-0.00484289]), array([-0.01183467]), array([ 0.00508233]), array([ 0.00125878]), array([-0.00579433]), array([-0.00535567]), array([-0.00991733]), array([-0.00512533]), array([-0.01873667]), array([-0.00422856]), array([ 0.009011]), array([ 0.00925267]), array([ 0.01158967]), array([ 0.02566867]), array([ 0.00445733]), array([-0.01153167]), array([-0.00267222]), array([ 0.00148233]), array([ 0.002234]), array([ 0.00426578]), array([ 0.03499033]), array([-0.00304267]), array([ 0.01481033]), array([ 0.010055]), array([ 0.01323733]), array([ 0.010225]), array([ 0.034758]), array([-0.001828]), array([ 0.03165933]), array([-0.01531844]), array([-0.006489]), array([-0.01664278]), array([-0.01233844]), array([-0.00401767]), array([ 0.00589067]), array([ 0.00743067]), array([-0.07512511]), array([ 0.01028567]), array([ 0.04507467]), array([ 0.022123]), array([-0.06400278]), array([-0.04758644]), array([ 0.018549])]</t>
+  </si>
+  <si>
+    <t>[ 0.55555556  1.          0.77777778  0.44444444  1.          1.
+  0.11111111  1.          0.33333333  0.66666667  1.          1.          1.
+  0.77777778  1.          1.          1.          0.33333333  1.          0.
+  1.          1.          1.          1.          0.77777778  1.          1.
+  1.          1.          1.          1.          1.          0.55555556
+  1.          1.          0.44444444  1.          1.          0.44444444
+  0.77777778  0.22222222  0.66666667  0.88888889  1.          0.88888889
+  0.33333333  1.          1.          1.          0.          1.          1.
+  0.          1.          1.          1.          1.          1.
+  0.77777778]</t>
+  </si>
+  <si>
+    <t>[array([ 0.013405]), array([-0.03877433]), array([ 0.00540578]), array([ 0.00808922]), array([ 0.01633833]), array([ 0.046482]), array([ 0.00874133]), array([-0.02849367]), array([-0.00158633]), array([-0.01453567]), array([-0.02750167]), array([ 0.03558933]), array([ 0.009058]), array([ 0.02766722]), array([-0.00881267]), array([ 0.007756]), array([-0.02396867]), array([ 0.01308567]), array([ 0.00021433]), array([-0.00579433]), array([-0.00533167]), array([ 0.01529467]), array([ 0.00913167]), array([-0.03497833]), array([-0.00407944]), array([-0.006009]), array([ 0.02091467]), array([ 0.01541567]), array([ 0.033034]), array([ 0.01958833]), array([ 0.00681233]), array([ 0.015254]), array([-0.00507367]), array([ 0.00882933]), array([ 0.03576267]), array([ 0.00721756]), array([-0.01859567]), array([-0.03577467]), array([ 0.01133767]), array([ 0.029484]), array([ 0.00816533]), array([-0.02311533]), array([-0.00636133]), array([-0.06443867]), array([-0.01937456]), array([-0.001508]), array([ 0.050031]), array([ 0.02239933]), array([-0.079983]), array([ 0.00589067]), array([ 0.00912967]), array([-0.09894867]), array([ 0.01028567]), array([-0.08477333]), array([ 0.022123]), array([-0.07743233]), array([-0.100462]), array([ 0.086515]), array([ 0.08120144])]</t>
+  </si>
+  <si>
+    <t>[ 0.          0.88888889  0.          0.66666667  0.          0.          0.
+  0.11111111  0.11111111  0.          0.77777778  0.          0.          0.
+  0.          0.22222222  0.66666667  1.          1.          0.
+  0.22222222  1.          0.33333333  0.          0.66666667  0.77777778
+  1.          0.22222222  0.          0.11111111  0.11111111  0.22222222
+  0.          0.22222222  0.          0.55555556  0.          0.55555556
+  0.          0.          0.55555556  0.77777778  0.          0.33333333
+  0.77777778  0.55555556  0.          0.22222222  0.22222222  0.33333333
+  0.          0.          0.          0.          0.          0.          0.
+  0.          0.        ]</t>
+  </si>
+  <si>
+    <t>[array([ 0.00649467]), array([ 0.00344322]), array([-0.000777]), array([ 0.012707]), array([-0.016568]), array([ 0.005665]), array([-0.00153067]), array([-0.00896989]), array([-0.00670956]), array([ 0.01303233]), array([ 0.02941111]), array([ 0.002098]), array([-0.01774333]), array([ 0.01281633]), array([-0.014922]), array([-0.01453111]), array([ 0.02509067]), array([ 0.00021433]), array([ 0.03649967]), array([-0.00540367]), array([-0.00431467]), array([ 0.00913167]), array([-0.01548833]), array([-0.00303567]), array([-0.00100233]), array([ 0.01832311]), array([ 0.01541567]), array([ 0.00725533]), array([ 0.00445733]), array([-0.00949344]), array([-0.00267222]), array([ 0.00476033]), array([-0.00106367]), array([ 0.00820289]), array([-0.01500067]), array([-0.01168322]), array([ 0.01481033]), array([ 0.01069633]), array([ 0.00105233]), array([ 0.004046]), array([-0.01346978]), array([-0.00579467]), array([ 0.03165933]), array([ 0.000906]), array([-0.00814933]), array([ 0.01669411]), array([-0.01668067]), array([-0.01351333]), array([ 0.001318]), array([ 0.007997]), array([ 0.00825733]), array([ 0.01028567]), array([ 0.04507467]), array([ 0.023014]), array([-0.01699933]), array([-0.005286]), array([ 0.018549]), array([-0.01688333]), array([-0.013398])]</t>
+  </si>
+  <si>
+    <t>[ 1.          1.          1.          1.          1.          1.          1.
+  1.          1.          1.          1.          1.          1.          1.
+  1.          1.          1.          0.          1.          1.          1.
+  1.          1.          1.          1.          1.          0.77777778
+  1.          1.          0.66666667  0.          1.          1.          1.
+  1.          1.          1.          1.          1.          1.          1.
+  1.          1.          1.          1.          1.          1.          1.
+  1.          1.          1.          1.          1.          1.          1.
+  1.          1.          0.88888889  1.        ]</t>
+  </si>
+  <si>
+    <t>[array([ 0.00148067]), array([ 0.019172]), array([ 0.01633833]), array([ 0.046482]), array([ 0.033352]), array([-0.02849367]), array([ 0.02056433]), array([-0.01923133]), array([-0.02750167]), array([ 0.03558933]), array([ 0.009058]), array([ 0.04064167]), array([-0.00881267]), array([ 0.007756]), array([-0.02396867]), array([ 0.03709567]), array([ 0.00021433]), array([-0.00579433]), array([-0.00533167]), array([ 0.01529467]), array([ 0.00913167]), array([-0.03497833]), array([-0.00437767]), array([-0.006009]), array([ 0.02091467]), array([ 0.01541567]), array([ 0.02566867]), array([ 0.01958833]), array([ 0.00681233]), array([ 0.00853167]), array([ 0.01131633]), array([ 0.00882933]), array([ 0.03576267]), array([ 0.03499033]), array([-0.01859567]), array([-0.03577467]), array([ 0.008131]), array([ 0.03760733]), array([ 0.022583]), array([-0.052052]), array([-0.006928]), array([-0.06443867]), array([-0.02343067]), array([-0.01147]), array([ 0.050031]), array([ 0.02239933]), array([-0.079983]), array([-0.01468633]), array([ 0.00912967]), array([-0.09894867]), array([-0.18517933]), array([-0.08477333]), array([ 0.022123]), array([-0.07743233]), array([-0.100462]), array([ 0.086515]), array([ 0.10922567]), array([ 0.058634]), array([-0.003248])]</t>
+  </si>
+  <si>
+    <t>[ 0.11111111  1.          1.          0.22222222  1.          0.55555556
+  1.          0.44444444  0.44444444  0.          1.          0.33333333
+  0.33333333  0.66666667  1.          0.          0.33333333  0.22222222
+  0.22222222  1.          1.          1.          0.55555556  0.
+  0.66666667  0.33333333  1.          0.22222222  0.11111111  0.
+  0.33333333  0.          1.          1.          0.          0.66666667
+  1.          1.          0.77777778  1.          0.22222222  0.77777778
+  1.          0.88888889  0.55555556  0.77777778  1.          1.          1.
+  0.77777778  1.          1.          0.77777778  0.66666667  1.
+  0.88888889  0.          1.          0.        ]</t>
+  </si>
+  <si>
+    <t>[array([ 0.00143956]), array([ 0.01633833]), array([ 0.046482]), array([ 0.01181767]), array([-0.02849367]), array([ 0.00579722]), array([-0.01923133]), array([-0.00498278]), array([ 0.02014378]), array([ 0.002098]), array([ 0.04064167]), array([ 0.00560667]), array([-0.00736267]), array([-0.019924]), array([ 0.03709567]), array([ 0.00256433]), array([ 0.00830367]), array([-0.00538767]), array([-0.00431467]), array([ 0.00913167]), array([-0.03497833]), array([-0.00437767]), array([ 0.00066656]), array([ 0.00925267]), array([ 0.01158967]), array([ 0.010938]), array([ 0.01958833]), array([-0.00745522]), array([-0.00267222]), array([ 0.01131633]), array([ 0.002234]), array([ 0.00032867]), array([ 0.03499033]), array([-0.01859567]), array([ 0.01481033]), array([ 0.010055]), array([ 0.03760733]), array([ 0.022583]), array([-0.03276089]), array([-0.006928]), array([ 0.01030422]), array([-0.01531844]), array([-0.01147]), array([ 0.04169678]), array([ 0.00503044]), array([-0.06099167]), array([-0.01468633]), array([ 0.00912967]), array([-0.09894867]), array([-0.14174267]), array([-0.08477333]), array([ 0.022123]), array([-0.06400278]), array([-0.06873667]), array([ 0.086515]), array([ 0.09521356]), array([-0.013398]), array([-0.003248]), array([ 0.005885])]</t>
+  </si>
+  <si>
+    <t>[ 0.77777778  0.55555556  1.          0.44444444  0.          1.          1.
+  0.          1.          0.88888889  0.66666667  0.44444444  0.          1.
+  0.77777778  0.77777778  0.66666667  0.88888889  1.          0.33333333
+  0.44444444  1.          0.55555556  1.          1.          1.
+  0.22222222  0.77777778  1.          1.          1.          1.
+  0.88888889  1.          0.88888889  0.          0.77777778  1.          0.
+  0.44444444  0.          0.22222222  0.55555556  1.          0.22222222
+  0.88888889  0.44444444  1.          0.77777778  0.66666667  0.22222222
+  1.          1.          1.          1.          1.          1.
+  0.44444444  0.55555556]</t>
+  </si>
+  <si>
+    <t>[array([ 0.01391744]), array([ 0.01845978]), array([ 0.033352]), array([-0.01351422]), array([-0.01266167]), array([-0.01923133]), array([-0.02750167]), array([ 0.00778733]), array([ 0.009058]), array([ 0.03415444]), array([-0.001603]), array([-0.00484289]), array([-0.01183467]), array([ 0.03709567]), array([ 0.00073656]), array([ 0.027101]), array([-0.00535567]), array([ 0.01249333]), array([ 0.00913167]), array([-0.01548833]), array([-0.00363211]), array([-0.006009]), array([ 0.01573156]), array([ 0.01541567]), array([ 0.033034]), array([ 0.01958833]), array([-0.00745522]), array([ 0.01077244]), array([-0.01818567]), array([ 0.00882933]), array([ 0.03576267]), array([ 0.03499033]), array([-0.01686756]), array([-0.03577467]), array([ 0.00877233]), array([ 0.00105233]), array([ 0.01846367]), array([-0.052052]), array([-0.001828]), array([-0.01105089]), array([ 0.01307433]), array([ 0.00015233]), array([ 0.01669411]), array([ 0.02239933]), array([-0.01351333]), array([-0.0124]), array([ 0.00818578]), array([-0.09894867]), array([-0.14174267]), array([-0.04149067]), array([ 0.022816]), array([-0.07743233]), array([-0.100462]), array([ 0.086515]), array([ 0.10922567]), array([ 0.067638]), array([-0.003248]), array([ 0.03952233]), array([ 0.02156533])]</t>
+  </si>
+  <si>
+    <t>[ 0.44444444  0.22222222  0.          0.          0.          0.55555556
+  0.77777778  0.88888889  1.          0.11111111  0.33333333  0.66666667
+  0.33333333  0.          0.          0.11111111  1.          0.11111111
+  0.          0.22222222  0.          0.11111111  0.88888889  1.
+  0.55555556  1.          0.77777778  0.          1.          0.11111111
+  0.33333333  0.          0.          0.33333333  0.          0.          0.
+  1.          0.11111111  1.          1.          0.44444444  0.
+  0.44444444  0.66666667  0.33333333  0.11111111  0.77777778  0.          0.
+  0.11111111  1.          1.          0.66666667  1.          1.          0.
+  0.11111111  1.        ]</t>
+  </si>
+  <si>
+    <t>[array([ 0.01145422]), array([ 0.01181767]), array([-0.00153067]), array([-0.01266167]), array([-0.00514433]), array([-0.00948656]), array([ 0.02941111]), array([ 0.00828467]), array([ 0.04064167]), array([ 0.01041311]), array([-0.00736267]), array([-0.019924]), array([ 0.01308567]), array([ 0.00256433]), array([-0.00579433]), array([-0.00539567]), array([ 0.01529467]), array([-0.00354122]), array([-0.00574333]), array([-0.00333389]), array([ 0.009011]), array([ 0.01054844]), array([ 0.01414033]), array([ 0.033034]), array([ 0.01286344]), array([ 0.00681233]), array([ 0.01077244]), array([ 0.01131633]), array([ 0.00882933]), array([ 0.00426578]), array([ 0.001663]), array([-0.00304267]), array([ 0.01481033]), array([ 0.011979]), array([ 0.00105233]), array([ 0.004046]), array([ 0.034758]), array([-0.006928]), array([ 0.02098178]), array([-0.02343067]), array([-0.01147]), array([ 0.00835989]), array([-0.01668067]), array([-0.03250467]), array([-0.00782733]), array([ 0.007997]), array([-0.00365444]), array([-0.14174267]), array([ 0.04507467]), array([ 0.023014]), array([-0.02371411]), array([-0.100462]), array([ 0.086515]), array([ 0.06718933]), array([ 0.067638]), array([-0.003248]), array([ 0.005885]), array([ 0.01181333]), array([ 0.045122])]</t>
+  </si>
+  <si>
+    <t>[ 1.          1.          1.          1.          1.          1.          1.
+  1.          1.          1.          1.          1.          1.          1.
+  1.          1.          1.          1.          1.          1.          1.
+  1.          1.          1.          1.          1.          1.          1.
+  1.          1.          1.          1.          1.          1.          1.
+  1.          1.          1.          1.          0.33333333  1.          1.
+  1.          1.          1.          1.          1.          1.          1.
+  1.          1.          1.          1.          0.55555556  1.          1.
+  1.          1.          0.66666667]</t>
+  </si>
+  <si>
+    <t>[array([ 0.033352]), array([-0.02849367]), array([ 0.02056433]), array([-0.01923133]), array([-0.02750167]), array([ 0.03558933]), array([ 0.009058]), array([ 0.04064167]), array([-0.00881267]), array([ 0.007756]), array([-0.02396867]), array([ 0.03709567]), array([ 0.00021433]), array([ 0.03649967]), array([-0.00533167]), array([ 0.01529467]), array([ 0.00913167]), array([-0.03497833]), array([-0.00437767]), array([-0.006009]), array([ 0.02091467]), array([ 0.01541567]), array([ 0.033034]), array([ 0.01958833]), array([ 0.00681233]), array([ 0.015254]), array([-0.01818567]), array([ 0.00882933]), array([ 0.03576267]), array([ 0.03499033]), array([-0.01859567]), array([-0.03577467]), array([ 0.008131]), array([ 0.03760733]), array([ 0.022583]), array([-0.052052]), array([-0.006928]), array([-0.06443867]), array([-0.02343067]), array([-0.001508]), array([ 0.050031]), array([ 0.02239933]), array([-0.079983]), array([-0.01468633]), array([ 0.00912967]), array([-0.09894867]), array([-0.18517933]), array([-0.08477333]), array([ 0.022123]), array([-0.07743233]), array([-0.100462]), array([ 0.086515]), array([ 0.10922567]), array([ 0.031622]), array([-0.003248]), array([ 0.081569]), array([ 0.03131733]), array([ 0.045122]), array([-0.01751333])]</t>
+  </si>
+  <si>
+    <t>[ 0.22222222  0.          0.          0.          0.          0.
+  0.22222222  0.22222222  0.          0.          0.          0.
+  0.11111111  0.          0.          0.          0.          0.          0.
+  0.          0.33333333  0.          0.33333333  0.88888889  0.          0.
+  0.          0.          0.          0.          0.          0.          0.
+  0.          0.          0.          0.          0.          0.          0.
+  0.          0.          0.22222222  0.          0.          0.          0.
+  0.          0.          0.          0.          0.          0.          0.
+  0.          0.          0.          0.          0.        ]</t>
+  </si>
+  <si>
+    <t>[array([-0.00752244]), array([-0.01266167]), array([-0.00514433]), array([ 0.01303233]), array([ 0.00778733]), array([ 0.002098]), array([-0.00476889]), array([ 0.00800989]), array([-0.014922]), array([-0.01183467]), array([ 0.00108067]), array([ 0.00256433]), array([-0.001095]), array([-0.00540367]), array([-0.00991733]), array([-0.00512533]), array([-0.00574333]), array([-0.00303567]), array([ 0.009011]), array([ 0.00925267]), array([ 0.00776367]), array([-0.00011]), array([ 0.009501]), array([ 0.00477411]), array([-0.004913]), array([ 0.01131633]), array([-0.00106367]), array([ 0.00032867]), array([-0.01500067]), array([-0.00304267]), array([ 0.01481033]), array([ 0.013903]), array([ 0.00105233]), array([ 0.004046]), array([ 0.034758]), array([-0.001828]), array([ 0.03165933]), array([ 0.01307433]), array([ 0.003473]), array([-0.024977]), array([-0.01668067]), array([ 0.005478]), array([ 0.001318]), array([ 0.00743067]), array([ 0.00825733]), array([ 0.01028567]), array([ 0.04507467]), array([ 0.023014]), array([-0.01699933]), array([-0.005286]), array([ 0.018549]), array([-0.01688333]), array([-0.013398]), array([-0.007461]), array([ 0.005885]), array([ 0.00937533]), array([ 0.006363]), array([ 0.00356267]), array([ 0.01837933])]</t>
+  </si>
+  <si>
+    <t>[ 0.          0.11111111  0.          0.          0.          0.          0.
+  0.22222222  0.          0.          0.          0.          0.          0.
+  0.          0.44444444  0.          0.          0.          0.          0.
+  0.          0.11111111  0.33333333  0.          0.          0.          0.
+  0.          0.          0.          0.          1.          0.          0.
+  0.          0.          0.          0.11111111  0.          0.11111111
+  0.66666667  0.          0.22222222  0.          0.          0.
+  0.66666667  0.          1.          0.          0.66666667  0.88888889
+  0.22222222  0.33333333  0.55555556  1.          0.66666667  0.44444444]</t>
+  </si>
+  <si>
+    <t>[array([-0.01266167]), array([-0.00670956]), array([ 0.01303233]), array([ 0.00778733]), array([ 0.002098]), array([-0.01774333]), array([ 0.01281633]), array([-0.00988244]), array([-0.01183467]), array([ 0.00108067]), array([ 0.00256433]), array([-0.00579433]), array([-0.00540367]), array([-0.00991733]), array([-0.00512533]), array([-0.01873667]), array([-0.00303567]), array([ 0.009011]), array([ 0.00925267]), array([ 0.00393767]), array([-0.00011]), array([ 0.00445733]), array([-0.00949344]), array([ 0.00180933]), array([ 0.01131633]), array([-0.00106367]), array([ 0.00032867]), array([-0.01500067]), array([-0.00304267]), array([ 0.01481033]), array([ 0.013903]), array([ 0.00105233]), array([ 0.022583]), array([ 0.034758]), array([-0.001828]), array([ 0.03165933]), array([ 0.01307433]), array([ 0.003473]), array([-0.01664278]), array([-0.01668067]), array([-0.00401767]), array([-0.00782733]), array([ 0.00743067]), array([-0.01556622]), array([ 0.01028567]), array([ 0.04507467]), array([ 0.023014]), array([-0.057288]), array([-0.005286]), array([ 0.086515]), array([-0.01688333]), array([ 0.040626]), array([-0.00371611]), array([ 0.02270367]), array([ 0.01668933]), array([ 0.02789578]), array([-0.02805133]), array([ 0.044164]), array([-0.00267711])]</t>
+  </si>
+  <si>
+    <t>[ 0.          0.          0.          0.          0.          0.          0.
+  0.          1.          0.          0.          0.          0.          0.
+  0.          0.          0.          0.          0.          0.
+  0.11111111  0.          0.          0.          0.          0.          0.
+  0.          0.          0.22222222  0.          0.          0.          0.
+  0.          0.          0.          0.          0.          0.
+  0.44444444  0.          0.          0.33333333  0.          0.          0.
+  0.44444444  0.          0.          0.          0.          0.
+  0.11111111  0.          0.          0.          0.          0.        ]</t>
+  </si>
+  <si>
+    <t>[array([-0.00514433]), array([ 0.01303233]), array([ 0.00778733]), array([ 0.002098]), array([-0.01774333]), array([ 0.01281633]), array([-0.014922]), array([-0.01183467]), array([ 0.03709567]), array([ 0.00256433]), array([-0.00579433]), array([-0.00540367]), array([-0.00991733]), array([-0.00512533]), array([-0.00574333]), array([-0.00303567]), array([ 0.009011]), array([ 0.00925267]), array([ 0.00393767]), array([-0.00011]), array([ 0.00613856]), array([-0.01153167]), array([-0.004913]), array([ 0.01131633]), array([-0.00106367]), array([ 0.00032867]), array([-0.01500067]), array([-0.00304267]), array([ 0.01481033]), array([ 0.01262033]), array([ 0.00105233]), array([ 0.004046]), array([ 0.034758]), array([-0.001828]), array([ 0.03165933]), array([ 0.01307433]), array([ 0.003473]), array([-0.024977]), array([-0.01668067]), array([ 0.005478]), array([-0.00325467]), array([ 0.00743067]), array([ 0.00825733]), array([-0.05486933]), array([ 0.04507467]), array([ 0.023014]), array([-0.01699933]), array([-0.04758644]), array([ 0.018549]), array([-0.01688333]), array([-0.013398]), array([-0.007461]), array([ 0.005885]), array([ 0.01181333]), array([ 0.006363]), array([ 0.00356267]), array([ 0.01837933]), array([-0.02752067]), array([ 0.018514])]</t>
+  </si>
+  <si>
+    <t>[ 0.88888889  0.11111111  0.          0.          0.          0.55555556
+  0.66666667  0.          0.          0.44444444  0.11111111  0.55555556
+  0.          0.33333333  1.          0.          0.          0.33333333
+  0.          0.          0.44444444  0.          0.          0.
+  0.33333333  0.          0.77777778  0.33333333  0.11111111  0.11111111
+  0.88888889  0.66666667  0.          0.          0.          0.          0.
+  0.          1.          0.77777778  0.44444444  0.66666667  0.77777778
+  0.66666667  0.          0.55555556  0.11111111  0.          0.77777778
+  0.33333333  0.77777778  1.          0.55555556  0.77777778  0.          1.
+  1.          0.22222222  0.        ]</t>
+  </si>
+  <si>
+    <t>[array([-0.02299789]), array([ 0.01087644]), array([ 0.002098]), array([-0.01774333]), array([ 0.01281633]), array([-0.00232311]), array([-0.019924]), array([ 0.00108067]), array([ 0.00256433]), array([ 0.013003]), array([-0.00539567]), array([ 0.00408933]), array([-0.00512533]), array([-0.01548833]), array([-0.00437767]), array([ 0.009011]), array([ 0.00925267]), array([ 0.00776367]), array([-0.00011]), array([ 0.00445733]), array([-0.00337878]), array([-0.004913]), array([ 0.01131633]), array([-0.00106367]), array([ 0.01214]), array([-0.01500067]), array([-0.01513944]), array([-0.00205133]), array([ 0.01326167]), array([ 0.005114]), array([ 0.02052333]), array([-0.02311533]), array([-0.001828]), array([ 0.03165933]), array([ 0.01307433]), array([ 0.003473]), array([-0.024977]), array([-0.01668067]), array([-0.079983]), array([-0.01011367]), array([ 0.00818578]), array([-0.06321333]), array([-0.14174267]), array([-0.04149067]), array([ 0.023014]), array([-0.05057322]), array([-0.01586111]), array([ 0.018549]), array([ 0.08120144]), array([ 0.013614]), array([-0.00418422]), array([ 0.081569]), array([ 0.02156533]), array([ 0.03650889]), array([ 0.00356267]), array([ 0.05705633]), array([ 0.02837733]), array([ 0.00614511]), array([ 0.00440233])]</t>
+  </si>
+  <si>
+    <t>[ 1.          1.          1.          1.          1.          1.          1.
+  1.          1.          1.          1.          1.          0.66666667
+  1.          1.          1.          1.          1.          1.          1.
+  1.          1.          1.          1.          1.          1.
+  0.88888889  1.          1.          1.          1.          1.          1.
+  1.          1.          1.          1.          1.          1.          1.
+  1.          1.          1.          1.          1.          1.          1.
+  1.          1.          1.          1.          1.          1.          1.
+  1.          1.          1.          1.          1.        ]</t>
+  </si>
+  <si>
+    <t>[array([ 0.03558933]), array([ 0.009058]), array([ 0.04064167]), array([-0.00881267]), array([ 0.007756]), array([-0.02396867]), array([ 0.03709567]), array([ 0.00021433]), array([ 0.03649967]), array([-0.00533167]), array([ 0.01529467]), array([ 0.00913167]), array([-0.02523333]), array([-0.00437767]), array([-0.006009]), array([ 0.02091467]), array([ 0.01541567]), array([ 0.033034]), array([ 0.01958833]), array([ 0.00681233]), array([ 0.015254]), array([-0.01818567]), array([ 0.00882933]), array([ 0.03576267]), array([ 0.03499033]), array([-0.01859567]), array([-0.03015411]), array([ 0.008131]), array([ 0.03760733]), array([ 0.022583]), array([-0.052052]), array([-0.006928]), array([-0.06443867]), array([-0.02343067]), array([-0.01147]), array([ 0.050031]), array([ 0.02239933]), array([-0.079983]), array([-0.01468633]), array([ 0.00912967]), array([-0.09894867]), array([-0.18517933]), array([-0.08477333]), array([ 0.022123]), array([-0.07743233]), array([-0.100462]), array([ 0.086515]), array([ 0.10922567]), array([ 0.067638]), array([-0.003248]), array([ 0.081569]), array([ 0.03131733]), array([ 0.045122]), array([-0.02805133]), array([ 0.05705633]), array([ 0.02837733]), array([-0.037146]), array([ 0.03468333]), array([ 0.063481])]</t>
+  </si>
+  <si>
+    <t>[ 0.          1.          0.55555556  1.          1.          0.66666667
+  0.88888889  0.55555556  1.          0.66666667  0.22222222  0.88888889
+  1.          0.77777778  1.          0.44444444  1.          0.
+  0.11111111  1.          1.          1.          0.55555556  0.66666667
+  1.          0.88888889  0.66666667  1.          1.          1.          1.
+  1.          0.22222222  0.33333333  0.55555556  0.66666667  0.55555556
+  0.33333333  0.77777778  1.          0.88888889  1.          0.44444444
+  0.33333333  1.          1.          0.          0.11111111  0.88888889
+  1.          0.          0.88888889  0.22222222  0.88888889  1.          1.
+  1.          0.33333333  0.66666667]</t>
+  </si>
+  <si>
+    <t>[array([ 0.002098]), array([ 0.04064167]), array([ 0.00080022]), array([ 0.007756]), array([-0.02396867]), array([ 0.02509067]), array([ 0.00047544]), array([ 0.01770233]), array([-0.00533167]), array([ 0.00689067]), array([-0.00195711]), array([-0.03173]), array([-0.00437767]), array([-0.00267122]), array([ 0.02091467]), array([ 0.009039]), array([ 0.033034]), array([ 0.00445733]), array([-0.00949344]), array([ 0.015254]), array([-0.01818567]), array([ 0.00882933]), array([ 0.02001422]), array([ 0.01832667]), array([-0.01859567]), array([-0.03015411]), array([ 0.010055]), array([ 0.03760733]), array([ 0.022583]), array([-0.052052]), array([-0.006928]), array([-0.06443867]), array([ 0.00496211]), array([-0.001508]), array([ 0.01669411]), array([ 0.00937267]), array([-0.04200033]), array([-0.00096833]), array([ 0.00875211]), array([-0.09894867]), array([-0.163461]), array([-0.08477333]), array([ 0.022618]), array([-0.03714367]), array([-0.100462]), array([ 0.086515]), array([-0.01688333]), array([-0.004394]), array([-0.00371611]), array([ 0.081569]), array([ 0.00937533]), array([ 0.04081544]), array([-0.00346267]), array([ 0.05275889]), array([ 0.02837733]), array([-0.037146]), array([ 0.03468333]), array([ 0.01592567]), array([ 0.01625367])]</t>
+  </si>
+  <si>
+    <t>[ 0.          0.          0.          0.33333333  0.          0.66666667
+  0.          0.          0.          1.          0.77777778  0.33333333
+  0.77777778  0.          0.          0.66666667  0.22222222  0.77777778
+  0.11111111  0.          0.          0.11111111  1.          0.44444444
+  0.          0.33333333  0.          0.22222222  0.77777778  0.          0.
+  0.88888889  0.33333333  0.77777778  0.88888889  0.          0.11111111
+  0.77777778  0.          0.          0.77777778  1.          0.88888889
+  1.          0.33333333  0.88888889  1.          1.          1.
+  0.77777778  1.          0.          0.55555556  0.66666667  0.77777778
+  1.          0.55555556  1.          0.44444444]</t>
+  </si>
+  <si>
+    <t>[array([-0.01774333]), array([ 0.01281633]), array([-0.014922]), array([-0.01587933]), array([ 0.00108067]), array([ 0.00099767]), array([-0.00579433]), array([-0.00540367]), array([-0.00991733]), array([ 0.00913167]), array([-0.02848167]), array([-0.003483]), array([-0.00267122]), array([ 0.00925267]), array([ 0.00393767]), array([ 0.021986]), array([ 0.00781978]), array([ 0.00273589]), array([-0.00267222]), array([ 0.01131633]), array([-0.00106367]), array([ 0.00426578]), array([ 0.03499033]), array([-0.00995511]), array([ 0.01481033]), array([ 0.011979]), array([ 0.00105233]), array([ 0.00816533]), array([-0.03276089]), array([-0.001828]), array([ 0.03165933]), array([-0.01937456]), array([-0.001508]), array([ 0.03336256]), array([ 0.01805711]), array([ 0.005478]), array([ 0.00360433]), array([ 0.00875211]), array([ 0.00825733]), array([ 0.01028567]), array([-0.05591822]), array([ 0.022123]), array([-0.07071756]), array([-0.100462]), array([ 0.04120433]), array([ 0.09521356]), array([ 0.067638]), array([-0.003248]), array([ 0.081569]), array([ 0.02644133]), array([ 0.045122]), array([ 0.00356267]), array([ 0.03986656]), array([ 0.00974467]), array([-0.02477711]), array([ 0.03468333]), array([ 0.03177744]), array([ 0.01990967]), array([-0.02692811])]</t>
+  </si>
+  <si>
+    <t>[ 1.          1.          1.          1.          1.          1.          0.
+  0.33333333  0.44444444  0.55555556  0.77777778  0.77777778  0.          1.
+  1.          0.22222222  1.          0.88888889  0.11111111  0.55555556
+  0.77777778  0.88888889  1.          0.          0.44444444  0.55555556
+  0.66666667  0.44444444  0.          0.55555556  0.11111111  0.88888889
+  1.          0.          0.55555556  1.          0.55555556  0.66666667
+  0.22222222  1.          0.33333333  1.          0.55555556  0.33333333
+  0.88888889  1.          0.33333333  1.          1.          1.          1.
+  0.88888889  1.          1.          1.          0.77777778  0.55555556
+  1.          0.33333333]</t>
+  </si>
+  <si>
+    <t>[array([-0.00881267]), array([ 0.007756]), array([-0.02396867]), array([ 0.03709567]), array([ 0.00021433]), array([ 0.03649967]), array([-0.00540367]), array([-0.00151333]), array([ 0.00121111]), array([-0.021985]), array([-0.00407944]), array([-0.00267122]), array([ 0.00925267]), array([ 0.01541567]), array([ 0.033034]), array([ 0.00781978]), array([ 0.00681233]), array([ 0.01301322]), array([ 0.00803833]), array([ 0.00443244]), array([ 0.02788844]), array([ 0.02943578]), array([-0.01859567]), array([ 0.01481033]), array([ 0.01133767]), array([ 0.02136067]), array([ 0.016404]), array([-0.00382422]), array([-0.001828]), array([-0.02172844]), array([ 0.00901822]), array([-0.00980967]), array([ 0.050031]), array([-0.01668067]), array([-0.04200033]), array([-0.01468633]), array([ 0.00837456]), array([-0.06321333]), array([-0.033151]), array([-0.08477333]), array([ 0.022717]), array([-0.07743233]), array([-0.05816156]), array([ 0.04120433]), array([ 0.09521356]), array([ 0.067638]), array([-0.00605667]), array([ 0.081569]), array([ 0.03131733]), array([ 0.045122]), array([-0.02805133]), array([ 0.05275889]), array([ 0.02837733]), array([-0.037146]), array([ 0.03468333]), array([ 0.04762922]), array([ 0.015035]), array([-0.07927033]), array([-0.00475433])]</t>
+  </si>
+  <si>
+    <t>[ 0.          0.          0.          0.          0.          0.          0.
+  0.          0.          0.          0.          0.          0.          0.
+  0.          0.          0.          0.          0.          0.          0.
+  0.          0.          0.          0.          0.          0.          0.
+  0.          0.          0.          0.          0.          0.          0.
+  0.          0.          0.          0.          1.          0.44444444
+  0.          0.22222222  0.          0.55555556  0.          0.33333333
+  0.44444444  0.44444444  0.11111111  0.11111111  0.55555556  0.          1.
+  0.66666667  0.22222222  0.66666667  0.77777778  0.22222222]</t>
+  </si>
+  <si>
+    <t>[array([-0.014922]), array([-0.01183467]), array([ 0.00108067]), array([ 0.00256433]), array([-0.00579433]), array([-0.00540367]), array([-0.00991733]), array([-0.00512533]), array([-0.00574333]), array([-0.00303567]), array([ 0.009011]), array([ 0.00925267]), array([ 0.00393767]), array([-0.00011]), array([ 0.00445733]), array([-0.01153167]), array([-0.004913]), array([ 0.01131633]), array([-0.00106367]), array([ 0.00032867]), array([-0.01500067]), array([-0.00304267]), array([ 0.01481033]), array([ 0.013903]), array([ 0.00105233]), array([ 0.004046]), array([ 0.034758]), array([-0.001828]), array([ 0.03165933]), array([ 0.01307433]), array([ 0.003473]), array([-0.024977]), array([-0.01668067]), array([ 0.005478]), array([ 0.00589067]), array([ 0.00743067]), array([ 0.00825733]), array([ 0.01028567]), array([ 0.04507467]), array([ 0.022123]), array([-0.04385844]), array([-0.005286]), array([ 0.03365256]), array([-0.01688333]), array([ 0.031622]), array([-0.007461]), array([ 0.031113]), array([ 0.01912733]), array([ 0.02358922]), array([  5.00003333e-05]), array([ 0.02267678]), array([ 0.00353378]), array([ 0.018514]), array([ 0.03468333]), array([ 0.03970333]), array([ 0.011379]), array([-0.047865]), array([-0.03546278]), array([ 0.02405533])]</t>
+  </si>
+  <si>
+    <t>[ 0.          0.          0.          0.          0.          0.          0.
+  0.          0.          0.          0.          0.          0.          0.
+  0.          0.          0.          0.          0.          0.          0.
+  0.          0.          0.          0.          0.          0.          0.
+  0.33333333  0.          0.          0.          0.          0.          0.
+  0.          0.          0.          0.          0.          0.          0.
+  0.          0.          0.          0.          0.          0.          0.
+  0.          0.          0.          0.          0.          0.          0.
+  0.          0.          0.        ]</t>
+  </si>
+  <si>
+    <t>[array([-0.01183467]), array([ 0.00108067]), array([ 0.00256433]), array([-0.00579433]), array([-0.00540367]), array([-0.00991733]), array([-0.00512533]), array([-0.00574333]), array([-0.00303567]), array([ 0.009011]), array([ 0.00925267]), array([ 0.00393767]), array([-0.00011]), array([ 0.00445733]), array([-0.01153167]), array([-0.004913]), array([ 0.01131633]), array([-0.00106367]), array([ 0.00032867]), array([-0.01500067]), array([-0.00304267]), array([ 0.01481033]), array([ 0.013903]), array([ 0.00105233]), array([ 0.004046]), array([ 0.034758]), array([-0.001828]), array([ 0.03165933]), array([ 0.000906]), array([ 0.003473]), array([-0.024977]), array([-0.01668067]), array([ 0.005478]), array([ 0.00589067]), array([ 0.00743067]), array([ 0.00825733]), array([ 0.01028567]), array([ 0.04507467]), array([ 0.023014]), array([-0.01699933]), array([-0.005286]), array([ 0.018549]), array([-0.01688333]), array([-0.013398]), array([-0.007461]), array([ 0.005885]), array([ 0.00937533]), array([ 0.006363]), array([ 0.00356267]), array([ 0.01837933]), array([-0.02752067]), array([ 0.018514]), array([ 0.00440233]), array([-0.007852]), array([ 0.00894167]), array([ 0.01494567]), array([ 0.018277]), array([ 0.01088267]), array([ 0.01359467])]</t>
+  </si>
+  <si>
+    <t>[ 1.          1.          1.          1.          1.          1.          1.
+  1.          1.          1.          1.          1.          1.          1.
+  1.          1.          1.          1.          1.          1.          1.
+  1.          1.          0.55555556  1.          1.          1.          1.
+  1.          1.          1.          1.          1.          1.          1.
+  1.          1.          1.          0.77777778  1.          1.          1.
+  1.          1.          1.          0.77777778  0.77777778  0.33333333
+  1.          0.77777778  1.          0.11111111  0.55555556  0.44444444
+  1.          0.88888889  0.66666667  0.88888889  0.77777778]</t>
+  </si>
+  <si>
+    <t>[array([ 0.03709567]), array([ 0.00021433]), array([ 0.03649967]), array([-0.00533167]), array([ 0.01529467]), array([ 0.00913167]), array([-0.03497833]), array([-0.00437767]), array([-0.006009]), array([ 0.02091467]), array([ 0.01541567]), array([ 0.033034]), array([ 0.01958833]), array([ 0.00681233]), array([ 0.015254]), array([-0.01818567]), array([ 0.00882933]), array([ 0.03576267]), array([ 0.03499033]), array([-0.01859567]), array([-0.03577467]), array([ 0.008131]), array([ 0.03760733]), array([ 0.01434433]), array([-0.052052]), array([-0.006928]), array([-0.06443867]), array([-0.02343067]), array([-0.01147]), array([ 0.050031]), array([ 0.02239933]), array([-0.079983]), array([-0.01468633]), array([ 0.00912967]), array([-0.09894867]), array([-0.18517933]), array([-0.08477333]), array([ 0.022123]), array([-0.06400278]), array([-0.100462]), array([ 0.086515]), array([ 0.10922567]), array([ 0.067638]), array([-0.003248]), array([ 0.081569]), array([ 0.02644133]), array([ 0.03650889]), array([-0.00697533]), array([ 0.05705633]), array([ 0.01595556]), array([-0.037146]), array([ 0.00776689]), array([ 0.03177744]), array([ 0.01381633]), array([-0.07927033]), array([-0.04313989]), array([ 0.05040067]), array([-0.036664]), array([ 0.07221844])]</t>
+  </si>
+  <si>
+    <t>[ 1.          0.44444444  1.          1.          1.          0.55555556
+  1.          1.          0.33333333  1.          0.66666667  0.55555556
+  0.22222222  1.          0.          0.          0.88888889  1.          1.
+  0.77777778  0.66666667  0.55555556  1.          1.          1.          1.
+  0.55555556  1.          0.55555556  0.33333333  1.          1.          0.
+  1.          1.          0.55555556  0.          0.77777778  0.
+  0.11111111  0.          0.          0.11111111  0.55555556  0.          0.
+  1.          0.11111111  0.          0.          0.          0.22222222
+  0.          0.          0.22222222  0.          0.          0.          0.        ]</t>
+  </si>
+  <si>
+    <t>[array([ 0.00021433]), array([ 0.013003]), array([-0.00533167]), array([ 0.01529467]), array([ 0.00913167]), array([-0.021985]), array([-0.00437767]), array([-0.006009]), array([ 0.01314]), array([ 0.01541567]), array([ 0.021986]), array([ 0.01286344]), array([-0.00745522]), array([ 0.015254]), array([ 0.01131633]), array([-0.00106367]), array([ 0.03182556]), array([ 0.03499033]), array([-0.01859567]), array([-0.02453356]), array([ 0.010055]), array([ 0.02136067]), array([ 0.022583]), array([-0.052052]), array([-0.006928]), array([-0.06443867]), array([-0.00720622]), array([-0.01147]), array([ 0.01669411]), array([-0.003654]), array([-0.079983]), array([-0.01468633]), array([ 0.00743067]), array([-0.09894867]), array([-0.18517933]), array([-0.02706311]), array([ 0.023014]), array([-0.06400278]), array([-0.005286]), array([ 0.02610078]), array([-0.01688333]), array([-0.013398]), array([-0.00699289]), array([ 0.04793167]), array([ 0.00937533]), array([ 0.006363]), array([-0.02805133]), array([ 0.02267678]), array([-0.02752067]), array([ 0.018514]), array([ 0.00440233]), array([ 0.00799978]), array([ 0.00894167]), array([ 0.01494567]), array([ 0.00292278]), array([ 0.01088267]), array([ 0.01359467]), array([ 0.005111]), array([ 0.00614867])]</t>
+  </si>
+  <si>
+    <t>[ 0.22222222  0.          0.          0.55555556  0.33333333  0.          0.
+  0.          1.          0.33333333  0.          0.33333333  0.
+  0.22222222  0.          0.          0.11111111  0.          1.          1.
+  0.55555556  1.          0.77777778  0.77777778  0.77777778  0.55555556
+  0.55555556  0.22222222  0.55555556  0.          0.55555556  0.
+  0.88888889  0.66666667  1.          1.          1.          1.
+  0.44444444  1.          1.          1.          1.          1.          1.
+  1.          1.          0.66666667  1.          1.          1.
+  0.33333333  1.          1.          1.          1.          1.          1.
+  0.88888889]</t>
+  </si>
+  <si>
+    <t>[array([ 0.00360433]), array([-0.00540367]), array([-0.00991733]), array([ 0.00279522]), array([-0.01548833]), array([-0.00303567]), array([ 0.009011]), array([ 0.00925267]), array([ 0.01541567]), array([ 0.010938]), array([ 0.00445733]), array([-0.005417]), array([-0.004913]), array([ 0.00476033]), array([-0.00106367]), array([ 0.00032867]), array([-0.00944611]), array([-0.00304267]), array([-0.03577467]), array([ 0.008131]), array([ 0.02136067]), array([ 0.022583]), array([-0.03276089]), array([-0.00579467]), array([-0.04308356]), array([-0.00720622]), array([-0.00482867]), array([-0.00830856]), array([ 0.00503044]), array([ 0.005478]), array([-0.005541]), array([ 0.00743067]), array([-0.08703689]), array([-0.12002433]), array([-0.08477333]), array([ 0.022123]), array([-0.07743233]), array([-0.100462]), array([ 0.04875611]), array([ 0.10922567]), array([ 0.067638]), array([-0.003248]), array([ 0.081569]), array([ 0.03131733]), array([ 0.045122]), array([-0.02805133]), array([ 0.05705633]), array([ 0.00974467]), array([-0.037146]), array([ 0.03468333]), array([ 0.063481]), array([ 0.01259767]), array([-0.07927033]), array([-0.050817]), array([ 0.07015967]), array([-0.04294633]), array([ 0.091392]), array([ 0.03842267]), array([ 0.00307233])]</t>
+  </si>
+  <si>
+    <t>[ 0.          0.33333333  0.33333333  0.          1.          0.          0.
+  0.          0.11111111  0.22222222  0.11111111  0.33333333  0.22222222
+  0.          0.          1.          0.          0.66666667  0.          0.
+  0.          0.          0.55555556  0.          0.77777778  0.          0.
+  0.          0.77777778  0.          0.          0.          0.          0.
+  0.11111111  0.          0.          0.          0.22222222  0.          0.
+  0.          0.          0.          0.11111111  0.          0.          0.
+  0.          0.          0.          0.          0.55555556  0.
+  0.11111111  0.          0.          0.          0.        ]</t>
+  </si>
+  <si>
+    <t>[array([-0.00540367]), array([-0.00151333]), array([-0.000373]), array([-0.00574333]), array([-0.00437767]), array([ 0.009011]), array([ 0.00925267]), array([ 0.00393767]), array([ 0.00357267]), array([ 0.00781978]), array([-0.00949344]), array([ 0.00180933]), array([ 0.00476033]), array([-0.00106367]), array([ 0.00032867]), array([ 0.03499033]), array([-0.00304267]), array([-0.018913]), array([ 0.013903]), array([ 0.00105233]), array([ 0.004046]), array([ 0.034758]), array([-0.00466133]), array([ 0.03165933]), array([-0.01531844]), array([ 0.003473]), array([-0.024977]), array([-0.01668067]), array([-0.06099167]), array([ 0.00589067]), array([ 0.00743067]), array([ 0.00825733]), array([ 0.01028567]), array([ 0.04507467]), array([ 0.022915]), array([-0.01699933]), array([-0.005286]), array([ 0.018549]), array([ 0.01114089]), array([-0.013398]), array([-0.007461]), array([ 0.005885]), array([ 0.00937533]), array([ 0.006363]), array([  5.00003333e-05]), array([ 0.01837933]), array([-0.02752067]), array([ 0.018514]), array([ 0.00440233]), array([-0.007852]), array([ 0.00894167]), array([ 0.01494567]), array([-0.02010856]), array([ 0.01088267]), array([ 0.00731233]), array([ 0.005111]), array([ 0.00614867]), array([-0.01227167]), array([-0.02243967])]</t>
+  </si>
+  <si>
+    <t>[ 0.          0.77777778  0.          0.          0.          0.33333333
+  0.55555556  0.          0.          0.          0.11111111  0.          0.
+  0.22222222  0.          0.          0.          0.55555556  0.          0.
+  0.          0.22222222  0.          0.          0.22222222  0.77777778
+  0.          0.          0.          0.          0.          0.
+  0.77777778  0.          0.11111111  0.11111111  1.          0.22222222
+  0.88888889  0.66666667  0.66666667  0.11111111  0.          0.          0.
+  0.22222222  1.          0.          0.66666667  0.66666667  0.          0.
+  1.          0.44444444  0.66666667  0.33333333  0.66666667  0.33333333
+  0.44444444]</t>
+  </si>
+  <si>
+    <t>[array([-0.00991733]), array([ 0.00596344]), array([-0.00574333]), array([-0.00303567]), array([ 0.009011]), array([ 0.01314]), array([ 0.01031433]), array([-0.00011]), array([ 0.00445733]), array([-0.01153167]), array([-0.00267222]), array([ 0.01131633]), array([-0.00106367]), array([ 0.00820289]), array([-0.01500067]), array([-0.00304267]), array([ 0.01481033]), array([ 0.01069633]), array([ 0.00105233]), array([ 0.004046]), array([ 0.034758]), array([-0.00296133]), array([ 0.03165933]), array([ 0.01307433]), array([ 0.00015233]), array([ 0.03336256]), array([-0.01668067]), array([ 0.005478]), array([ 0.00589067]), array([ 0.00743067]), array([ 0.00825733]), array([ 0.01028567]), array([-0.05591822]), array([ 0.023014]), array([-0.02371411]), array([-0.01586111]), array([ 0.086515]), array([ 0.01114089]), array([ 0.058634]), array([-0.00465233]), array([ 0.056341]), array([ 0.01181333]), array([ 0.006363]), array([ 0.00356267]), array([ 0.01837933]), array([-0.01509889]), array([-0.037146]), array([ 0.00440233]), array([ 0.03970333]), array([ 0.01625367]), array([ 0.01494567]), array([ 0.018277]), array([ 0.07015967]), array([-0.01153467]), array([ 0.06263167]), array([ 0.01690667]), array([-0.00076367]), array([ 0.00738467]), array([ 0.01211211])]</t>
+  </si>
+  <si>
+    <t>[ 0.11111111  0.          0.          0.          0.33333333  0.33333333
+  0.          0.55555556  0.          0.          0.          0.22222222
+  0.11111111  0.77777778  0.          0.44444444  0.55555556  0.44444444
+  0.          0.          0.44444444  0.          0.88888889  0.          0.
+  0.11111111  0.          0.          0.          0.          0.11111111
+  0.77777778  0.          1.          0.22222222  1.          0.77777778
+  0.          0.          0.55555556  0.22222222  0.66666667  0.55555556
+  1.          0.55555556  0.33333333  0.33333333  1.          0.22222222
+  1.          0.33333333  0.77777778  1.          1.          1.
+  0.33333333  0.          1.          1.        ]</t>
+  </si>
+  <si>
+    <t>[array([-0.00354122]), array([-0.00574333]), array([-0.00303567]), array([ 0.009011]), array([ 0.01314]), array([ 0.00776367]), array([-0.00011]), array([ 0.01286344]), array([-0.01153167]), array([-0.004913]), array([ 0.01131633]), array([ 0.00113478]), array([ 0.00426578]), array([ 0.02388122]), array([-0.00304267]), array([-0.00767189]), array([ 0.01069633]), array([ 0.017299]), array([ 0.004046]), array([ 0.034758]), array([-0.00409467]), array([ 0.03165933]), array([-0.01937456]), array([ 0.003473]), array([-0.024977]), array([-0.01233844]), array([ 0.005478]), array([ 0.00589067]), array([ 0.00743067]), array([ 0.00825733]), array([-0.01143267]), array([-0.05591822]), array([ 0.023014]), array([-0.07743233]), array([-0.02643622]), array([ 0.086515]), array([ 0.08120144]), array([-0.013398]), array([-0.007461]), array([ 0.04793167]), array([ 0.01425133]), array([ 0.03220233]), array([-0.01400067]), array([ 0.05705633]), array([ 0.00353378]), array([ -3.93333333e-05]), array([ 0.014496]), array([ 0.063481]), array([ 0.011379]), array([-0.07927033]), array([-0.00475433]), array([ 0.056987]), array([-0.04294633]), array([ 0.091392]), array([ 0.03842267]), array([-0.00651767]), array([-0.02243967]), array([ 0.019031]), array([ 0.03805667])]</t>
+  </si>
+  <si>
+    <t>[ 0.          0.          0.          0.          0.          0.          0.
+  0.          0.22222222  0.          0.          0.          0.          0.
+  0.          0.          0.          0.          0.          0.          0.
+  0.          0.          0.          0.          0.          0.          0.
+  0.          0.          0.          0.          0.          0.          0.
+  0.          0.          0.          0.          0.          0.          0.
+  0.          0.          0.          0.          0.          0.          0.
+  0.          0.          0.          0.          0.          0.          0.
+  0.          0.          0.        ]</t>
+  </si>
+  <si>
+    <t>[array([-0.00574333]), array([-0.00303567]), array([ 0.009011]), array([ 0.00925267]), array([ 0.00393767]), array([-0.00011]), array([ 0.00445733]), array([-0.01153167]), array([-0.00043144]), array([ 0.01131633]), array([-0.00106367]), array([ 0.00032867]), array([-0.01500067]), array([-0.00304267]), array([ 0.01481033]), array([ 0.013903]), array([ 0.00105233]), array([ 0.004046]), array([ 0.034758]), array([-0.001828]), array([ 0.03165933]), array([ 0.01307433]), array([ 0.003473]), array([-0.024977]), array([-0.01668067]), array([ 0.005478]), array([ 0.00589067]), array([ 0.00743067]), array([ 0.00825733]), array([ 0.01028567]), array([ 0.04507467]), array([ 0.023014]), array([-0.01699933]), array([-0.005286]), array([ 0.018549]), array([-0.01688333]), array([-0.013398]), array([-0.007461]), array([ 0.005885]), array([ 0.00937533]), array([ 0.006363]), array([ 0.00356267]), array([ 0.01837933]), array([-0.02752067]), array([ 0.018514]), array([ 0.00440233]), array([-0.007852]), array([ 0.00894167]), array([ 0.01494567]), array([ 0.018277]), array([ 0.01088267]), array([ 0.01359467]), array([ 0.005111]), array([ 0.00614867]), array([-0.01227167]), array([-0.02243967]), array([ 0.006577]), array([-0.00602833]), array([-0.00246733])]</t>
+  </si>
+  <si>
+    <t>[ 0.          0.33333333  1.          0.          0.          0.77777778
+  0.77777778  0.          0.88888889  0.          0.          0.77777778
+  0.          0.66666667  0.11111111  0.22222222  0.          0.44444444
+  0.33333333  0.77777778  0.          1.          0.66666667  0.          0.
+  0.          0.          0.33333333  1.          0.55555556  1.          0.
+  0.          0.11111111  0.          0.          1.          0.          0.
+  0.          0.          0.88888889  0.          0.          0.22222222
+  0.          0.88888889  0.          0.55555556  0.          0.77777778
+  0.11111111  0.          0.33333333  0.          0.          0.          0.
+  0.        ]</t>
+  </si>
+  <si>
+    <t>[array([-0.00303567]), array([ 0.00400433]), array([ 0.02091467]), array([ 0.00393767]), array([-0.00011]), array([ 0.01622589]), array([ 0.00273589]), array([-0.004913]), array([-0.01490767]), array([-0.00106367]), array([ 0.00032867]), array([ 0.02388122]), array([-0.00304267]), array([-0.018913]), array([ 0.01326167]), array([ 0.00917567]), array([ 0.004046]), array([-0.00382422]), array([-0.003528]), array([-0.04308356]), array([ 0.01307433]), array([-0.01147]), array([ 0.02502833]), array([-0.01668067]), array([ 0.005478]), array([ 0.00589067]), array([ 0.00743067]), array([-0.027478]), array([-0.18517933]), array([-0.02706311]), array([ 0.022123]), array([-0.01699933]), array([-0.005286]), array([ 0.02610078]), array([-0.01688333]), array([-0.013398]), array([-0.003248]), array([ 0.005885]), array([ 0.00937533]), array([ 0.006363]), array([ 0.00356267]), array([ 0.05275889]), array([-0.02752067]), array([ 0.018514]), array([ 0.01113144]), array([-0.007852]), array([ 0.018691]), array([ 0.01494567]), array([-0.02010856]), array([ 0.01088267]), array([-0.03038167]), array([ 0.01469778]), array([ 0.00614867]), array([-0.00651767]), array([-0.02243967]), array([ 0.006577]), array([-0.00602833]), array([-0.00246733]), array([ 0.017065])]</t>
+  </si>
+  <si>
+    <t>[ 1.          0.33333333  1.          0.          1.          0.77777778
+  1.          1.          1.          1.          1.          0.          1.
+  1.          0.11111111  0.55555556  1.          0.88888889  0.          0.
+  0.          1.          0.55555556  1.          0.33333333  1.
+  0.22222222  0.55555556  0.88888889  0.77777778  0.11111111  0.55555556
+  0.          0.33333333  1.          0.22222222  0.55555556  0.88888889
+  0.44444444  1.          0.33333333  0.          0.88888889  0.          1.
+  1.          0.11111111  0.          1.          0.88888889  1.          1.
+  0.          0.33333333  0.          0.77777778  0.88888889  1.          0.        ]</t>
+  </si>
+  <si>
+    <t>[array([-0.006009]), array([ 0.01314]), array([ 0.01541567]), array([-0.00011]), array([ 0.01958833]), array([ 0.00273589]), array([ 0.015254]), array([-0.01818567]), array([ 0.00882933]), array([ 0.03576267]), array([ 0.03499033]), array([-0.00304267]), array([-0.03577467]), array([ 0.008131]), array([ 0.005114]), array([ 0.01434433]), array([-0.052052]), array([-0.00636133]), array([ 0.03165933]), array([ 0.01307433]), array([ 0.003473]), array([ 0.050031]), array([ 0.00503044]), array([-0.079983]), array([-0.00096833]), array([ 0.00912967]), array([-0.01556622]), array([-0.098306]), array([-0.07034578]), array([ 0.022321]), array([-0.02371411]), array([-0.05816156]), array([ 0.018549]), array([ 0.025153]), array([ 0.067638]), array([-0.00652478]), array([ 0.04793167]), array([ 0.02887933]), array([ 0.02358922]), array([-0.02805133]), array([ 0.03127167]), array([-0.02752067]), array([-0.03096156]), array([ 0.00440233]), array([ 0.063481]), array([ 0.01990967]), array([ 0.00447722]), array([ 0.018277]), array([ 0.07015967]), array([-0.036664]), array([ 0.091392]), array([ 0.03842267]), array([-0.01227167]), array([ 0.00738467]), array([ 0.006577]), array([ 0.02826]), array([ 0.00264378]), array([ 0.028638]), array([ 0.01615067])]</t>
+  </si>
+  <si>
+    <t>[ 1.          1.          0.77777778  1.          1.          1.          1.
+  1.          1.          0.66666667  0.55555556  1.          1.          1.
+  1.          0.66666667  1.          1.          1.          1.          1.
+  1.          1.          1.          1.          1.          1.          1.
+  1.          1.          0.88888889  1.          1.          1.          1.
+  1.          1.          1.          0.66666667  1.          0.88888889
+  1.          1.          1.          0.44444444  1.          0.44444444
+  1.          1.          1.          1.          1.          1.
+  0.77777778  0.44444444  1.          1.          0.88888889  1.        ]</t>
+  </si>
+  <si>
+    <t>[array([ 0.02091467]), array([ 0.01541567]), array([ 0.02566867]), array([ 0.01958833]), array([ 0.00681233]), array([ 0.015254]), array([-0.01818567]), array([ 0.00882933]), array([ 0.03576267]), array([ 0.01832667]), array([-0.01168322]), array([-0.03577467]), array([ 0.008131]), array([ 0.03760733]), array([ 0.022583]), array([-0.02311533]), array([-0.006928]), array([-0.06443867]), array([-0.02343067]), array([-0.01147]), array([ 0.050031]), array([ 0.02239933]), array([-0.079983]), array([-0.01468633]), array([ 0.00912967]), array([-0.09894867]), array([-0.18517933]), array([-0.08477333]), array([ 0.022123]), array([-0.07743233]), array([-0.08988689]), array([ 0.086515]), array([ 0.10922567]), array([ 0.067638]), array([-0.003248]), array([ 0.081569]), array([ 0.03131733]), array([ 0.045122]), array([-0.01751333]), array([ 0.05705633]), array([ 0.02216644]), array([-0.037146]), array([ 0.03468333]), array([ 0.063481]), array([ 0.01381633]), array([-0.07927033]), array([-0.01243144]), array([ 0.07015967]), array([-0.04294633]), array([ 0.091392]), array([ 0.03842267]), array([ 0.00499033]), array([ 0.06703333]), array([ 0.01626344]), array([ 0.013565]), array([ 0.00328267]), array([ 0.028638]), array([-0.01151067]), array([-0.01842833])]</t>
+  </si>
+  <si>
+    <t>[ 1.          1.          1.          1.          1.          1.          1.
+  1.          1.          1.          1.          1.          0.44444444
+  1.          1.          1.          1.          1.          0.66666667
+  1.          1.          1.          1.          1.          1.          1.
+  1.          0.77777778  0.88888889  0.33333333  0.          0.44444444
+  0.55555556  0.55555556  0.55555556  0.44444444  0.33333333  0.
+  0.11111111  0.          1.          0.          0.22222222  0.33333333
+  0.55555556  0.88888889  0.          0.77777778  1.          0.11111111
+  0.          0.          0.44444444  1.          0.33333333  0.88888889
+  0.          0.          0.33333333]</t>
+  </si>
+  <si>
+    <t>[array([ 0.01541567]), array([ 0.033034]), array([ 0.01958833]), array([ 0.00681233]), array([ 0.015254]), array([-0.01818567]), array([ 0.00882933]), array([ 0.03576267]), array([ 0.03499033]), array([-0.01859567]), array([-0.03577467]), array([ 0.008131]), array([ 0.017299]), array([ 0.022583]), array([-0.052052]), array([-0.006928]), array([-0.06443867]), array([-0.02343067]), array([-0.006489]), array([ 0.050031]), array([ 0.02239933]), array([-0.079983]), array([-0.01468633]), array([ 0.00912967]), array([-0.09894867]), array([-0.18517933]), array([-0.08477333]), array([ 0.022321]), array([-0.07071756]), array([-0.03701133]), array([ 0.018549]), array([ 0.03916511]), array([ 0.031622]), array([-0.00512044]), array([ 0.04793167]), array([ 0.01912733]), array([ 0.01928267]), array([ 0.00356267]), array([ 0.02267678]), array([-0.02752067]), array([-0.037146]), array([ 0.00440233]), array([ 0.00799978]), array([ 0.01259767]), array([-0.03739656]), array([-0.04313989]), array([ 0.01088267]), array([-0.03038167]), array([ 0.091392]), array([ 0.00973467]), array([-0.01227167]), array([-0.02243967]), array([ 0.01211211]), array([ 0.03805667]), array([-0.00055067]), array([ 0.02735211]), array([ 0.01615067]), array([ 0.00057467]), array([ 0.00659467])]</t>
+  </si>
+  <si>
+    <t>[ 1.          1.          1.          1.          1.          1.          1.
+  1.          1.          1.          1.          1.          1.          1.
+  1.          1.          1.          1.          1.          1.
+  0.88888889  1.          1.          1.          1.          1.          1.
+  1.          0.22222222  1.          0.88888889  1.          0.55555556
+  0.33333333  1.          0.22222222  1.          1.          1.          1.
+  0.77777778  0.33333333  0.          0.77777778  1.          0.55555556
+  0.          0.44444444  0.11111111  0.44444444  0.88888889  0.88888889
+  0.55555556  0.88888889  0.44444444  0.          1.          1.
+  0.33333333]</t>
+  </si>
+  <si>
+    <t>[array([ 0.033034]), array([ 0.01958833]), array([ 0.00681233]), array([ 0.015254]), array([-0.01818567]), array([ 0.00882933]), array([ 0.03576267]), array([ 0.03499033]), array([-0.01859567]), array([-0.03577467]), array([ 0.008131]), array([ 0.03760733]), array([ 0.022583]), array([-0.052052]), array([-0.006928]), array([-0.06443867]), array([-0.02343067]), array([-0.01147]), array([ 0.050031]), array([ 0.02239933]), array([-0.07048733]), array([-0.01468633]), array([ 0.00912967]), array([-0.09894867]), array([-0.18517933]), array([-0.08477333]), array([ 0.022123]), array([-0.07743233]), array([-0.02643622]), array([ 0.086515]), array([ 0.09521356]), array([ 0.067638]), array([-0.00512044]), array([ 0.031113]), array([ 0.03131733]), array([ 0.01497611]), array([-0.02805133]), array([ 0.05705633]), array([ 0.02837733]), array([-0.037146]), array([ 0.02795422]), array([ 0.01592567]), array([ 0.00894167]), array([-0.05833344]), array([-0.050817]), array([ 0.04381433]), array([ 0.01359467]), array([ 0.04345811]), array([ 0.00973467]), array([-0.00459967]), array([ 0.05709189]), array([ 0.01764722]), array([ 0.01846333]), array([ 0.00264378]), array([ 0.02220856]), array([ 0.01615067]), array([-0.01842833]), array([-0.02250333]), array([-0.00546467])]</t>
+  </si>
+  <si>
+    <t>[ 1.          1.          1.          0.55555556  0.77777778  1.          1.
+  1.          1.          1.          1.          1.          1.          1.
+  1.          1.          1.          1.          1.          1.
+  0.88888889  1.          1.          0.55555556  1.          1.
+  0.66666667  1.          0.55555556  1.          0.77777778  1.
+  0.77777778  1.          1.          0.66666667  0.77777778  1.
+  0.22222222  1.          1.          1.          0.          1.
+  0.88888889  0.44444444  1.          1.          0.          0.          1.
+  0.          1.          1.          1.          0.          0.
+  0.55555556  0.        ]</t>
+  </si>
+  <si>
+    <t>[array([ 0.01958833]), array([ 0.00681233]), array([ 0.015254]), array([-0.00507367]), array([ 0.00663089]), array([ 0.03576267]), array([ 0.03499033]), array([-0.01859567]), array([-0.03577467]), array([ 0.008131]), array([ 0.03760733]), array([ 0.022583]), array([-0.052052]), array([-0.006928]), array([-0.06443867]), array([-0.02343067]), array([-0.01147]), array([ 0.050031]), array([ 0.02239933]), array([-0.079983]), array([-0.0124]), array([ 0.00912967]), array([-0.09894867]), array([-0.098306]), array([-0.08477333]), array([ 0.022123]), array([-0.057288]), array([-0.100462]), array([ 0.05630789]), array([ 0.10922567]), array([ 0.04963]), array([-0.003248]), array([ 0.06475033]), array([ 0.03131733]), array([ 0.045122]), array([-0.01751333]), array([ 0.04846144]), array([ 0.02837733]), array([ 0.00614511]), array([ 0.03468333]), array([ 0.063481]), array([ 0.01990967]), array([ 0.01494567]), array([-0.050817]), array([ 0.06357333]), array([-0.01153467]), array([ 0.091392]), array([ 0.03842267]), array([-0.01227167]), array([-0.02243967]), array([ 0.019031]), array([-0.00602833]), array([ 0.00328267]), array([ 0.028638]), array([-0.01496833]), array([ 0.00057467]), array([ 0.02114367]), array([-0.022806]), array([ 0.00241367])]</t>
+  </si>
+  <si>
+    <t>[ 0.          0.44444444  0.          0.          0.          0.          0.
+  0.          0.          0.          0.          0.66666667  0.          0.
+  0.11111111  0.33333333  0.22222222  0.          0.          1.
+  0.55555556  0.          0.          0.          0.          0.
+  0.88888889  0.33333333  0.          0.          0.          0.
+  0.11111111  0.          0.          0.          0.          0.          0.
+  1.          0.22222222  0.          0.44444444  0.          0.          0.
+  0.          0.          0.          0.          0.          0.          0.
+  0.          0.          0.          0.33333333  0.          0.        ]</t>
+  </si>
+  <si>
+    <t>[array([-0.01153167]), array([ 0.00405011]), array([ 0.01131633]), array([-0.00106367]), array([ 0.00032867]), array([-0.01500067]), array([-0.00304267]), array([ 0.01481033]), array([ 0.013903]), array([ 0.00105233]), array([ 0.004046]), array([-0.02311533]), array([-0.001828]), array([ 0.03165933]), array([ 0.00901822]), array([-0.001508]), array([-0.00830856]), array([-0.01668067]), array([ 0.005478]), array([-0.01468633]), array([ 0.00837456]), array([ 0.00825733]), array([ 0.01028567]), array([ 0.04507467]), array([ 0.023014]), array([-0.01699933]), array([-0.08988689]), array([ 0.04120433]), array([-0.01688333]), array([-0.013398]), array([-0.007461]), array([ 0.005885]), array([ 0.01181333]), array([ 0.006363]), array([ 0.00356267]), array([ 0.01837933]), array([-0.02752067]), array([ 0.018514]), array([ 0.00440233]), array([ 0.063481]), array([ 0.011379]), array([ 0.01494567]), array([-0.01243144]), array([ 0.01088267]), array([ 0.01359467]), array([ 0.005111]), array([ 0.00614867]), array([-0.01227167]), array([-0.02243967]), array([ 0.006577]), array([-0.00602833]), array([-0.00246733]), array([ 0.017065]), array([ 0.01615067]), array([ 0.00057467]), array([ 0.02114367]), array([-0.00546467]), array([ 0.00241367]), array([ 0.00066033])]</t>
+  </si>
+  <si>
+    <t>[ 0.          0.          0.          0.11111111  0.          1.          0.
+  0.          0.          0.44444444  0.          1.          0.77777778
+  0.66666667  0.          1.          0.55555556  1.          0.
+  0.66666667  0.          0.77777778  1.          0.          0.77777778
+  0.11111111  0.77777778  0.22222222  0.55555556  0.66666667  1.
+  0.33333333  0.77777778  0.88888889  0.55555556  1.          0.11111111
+  0.          1.          0.33333333  0.22222222  0.          0.22222222
+  0.          0.          0.77777778  0.          0.          0.11111111
+  1.          1.          0.          0.          0.11111111  0.33333333
+  0.11111111  0.77777778  0.44444444  1.        ]</t>
+  </si>
+  <si>
+    <t>[array([-0.004913]), array([ 0.01131633]), array([-0.00106367]), array([ 0.00426578]), array([-0.01500067]), array([-0.01859567]), array([ 0.01481033]), array([ 0.013903]), array([ 0.00105233]), array([ 0.01228467]), array([ 0.034758]), array([-0.006928]), array([-0.04308356]), array([-0.01126233]), array([ 0.003473]), array([ 0.050031]), array([ 0.00503044]), array([-0.079983]), array([ 0.00589067]), array([ 0.00856333]), array([ 0.00825733]), array([-0.14174267]), array([-0.08477333]), array([ 0.023014]), array([-0.06400278]), array([-0.01586111]), array([ 0.07141144]), array([ 0.01114089]), array([ 0.031622]), array([-0.00465233]), array([ 0.081569]), array([ 0.01668933]), array([ 0.03650889]), array([-0.02453867]), array([ 0.03986656]), array([ 0.02837733]), array([ 0.01232956]), array([ 0.00440233]), array([ 0.063481]), array([ 0.01259767]), array([-0.00599122]), array([ 0.018277]), array([ 0.02405533]), array([ 0.01359467]), array([ 0.005111]), array([ 0.03125067]), array([-0.01227167]), array([-0.02243967]), array([ 0.00796078]), array([ 0.03805667]), array([ 0.00328267]), array([ 0.017065]), array([ 0.01615067]), array([-0.00153678]), array([ 0.00659467]), array([ 0.01187667]), array([-0.06548167]), array([ 0.05101811]), array([-0.00623533])]</t>
+  </si>
+  <si>
+    <t>[ 0.33333333  0.          1.          0.22222222  0.66666667  0.88888889
+  0.11111111  0.22222222  1.          1.          0.          0.55555556
+  1.          0.          0.66666667  0.11111111  1.          0.77777778
+  0.44444444  0.44444444  0.55555556  0.88888889  0.          0.44444444
+  0.44444444  0.          0.55555556  0.          0.77777778  0.
+  0.77777778  0.11111111  0.55555556  0.66666667  0.44444444  0.22222222
+  0.          1.          1.          0.          0.11111111  0.22222222
+  0.          1.          1.          0.          1.          0.88888889
+  0.11111111  0.88888889  0.          1.          0.          0.66666667
+  0.          0.88888889  0.44444444  0.          1.        ]</t>
+  </si>
+  <si>
+    <t>[array([ 0.00148233]), array([-0.00106367]), array([ 0.03576267]), array([-0.00389156]), array([-0.01341133]), array([-0.03015411]), array([ 0.01326167]), array([ 0.00917567]), array([ 0.022583]), array([-0.052052]), array([-0.001828]), array([-0.02172844]), array([-0.02343067]), array([ 0.003473]), array([ 0.02502833]), array([-0.01233844]), array([-0.079983]), array([-0.01011367]), array([ 0.00818578]), array([-0.03938978]), array([-0.098306]), array([-0.07034578]), array([ 0.023014]), array([-0.04385844]), array([-0.04758644]), array([ 0.018549]), array([ 0.05317722]), array([-0.013398]), array([-0.00418422]), array([ 0.005885]), array([ 0.02644133]), array([ 0.01066956]), array([-0.01400067]), array([ 0.044164]), array([-0.00267711]), array([ 0.00614511]), array([ 0.00440233]), array([ 0.063481]), array([ 0.01990967]), array([ 0.01494567]), array([ 0.01059989]), array([ 0.02405533]), array([ 0.01359467]), array([ 0.091392]), array([ 0.03842267]), array([-0.01227167]), array([ 0.06703333]), array([ 0.01764722]), array([-0.00113]), array([ 0.00264378]), array([ 0.017065]), array([-0.01496833]), array([ 0.00057467]), array([-0.00795433]), array([ 0.02054733]), array([-0.075181]), array([ 0.05101811]), array([ 0.00261467]), array([ 0.00369467])]</t>
+  </si>
+  <si>
+    <t>[ 0.11111111  0.33333333  1.          0.88888889  0.11111111  0.          1.
+  0.22222222  0.88888889  0.11111111  0.22222222  1.          0.77777778
+  0.          0.33333333  0.          0.66666667  0.55555556  0.44444444
+  0.22222222  0.          0.55555556  0.          0.55555556  0.
+  0.66666667  0.44444444  1.          0.66666667  0.77777778  1.          0.
+  0.66666667  1.          1.          1.          0.33333333  0.77777778
+  1.          1.          1.          0.88888889  1.          0.88888889
+  1.          0.88888889  0.44444444  0.77777778  1.          1.
+  0.66666667  0.22222222  1.          1.          1.          1.          1.
+  1.          0.22222222]</t>
+  </si>
+  <si>
+    <t>[array([  3.55552222e-05]), array([ 0.01214]), array([ 0.03499033]), array([-0.01686756]), array([ 0.00918978]), array([ 0.013903]), array([ 0.03760733]), array([ 0.00816533]), array([-0.04240644]), array([-0.00239467]), array([ 0.01030422]), array([-0.02343067]), array([-0.00814933]), array([-0.024977]), array([-0.003654]), array([ 0.005478]), array([-0.00782733]), array([ 0.00837456]), array([-0.03938978]), array([-0.033151]), array([ 0.04507467]), array([ 0.022519]), array([-0.01699933]), array([-0.05816156]), array([ 0.018549]), array([ 0.06718933]), array([ 0.022618]), array([-0.003248]), array([ 0.056341]), array([ 0.02644133]), array([ 0.045122]), array([ 0.00356267]), array([ 0.044164]), array([ 0.02837733]), array([-0.037146]), array([ 0.03468333]), array([ 0.01592567]), array([ 0.01747233]), array([-0.07927033]), array([-0.050817]), array([ 0.07015967]), array([-0.036664]), array([ 0.091392]), array([ 0.03483667]), array([ 0.00499033]), array([ 0.05709189]), array([ 0.01211211]), array([ 0.02826]), array([ 0.00328267]), array([ 0.028638]), array([-0.00459533]), array([-0.00364822]), array([-0.02250333]), array([-0.05748867]), array([-0.08488033]), array([ 0.11396533]), array([-0.00623533]), array([ 0.00369467]), array([ 0.01819333])]</t>
+  </si>
+  <si>
+    <t>[ 1.          1.          1.          0.88888889  1.          1.          1.
+  1.          1.          0.55555556  1.          1.          1.          1.
+  0.44444444  1.          1.          1.          1.          1.          1.
+  1.          1.          1.          1.          1.          1.          1.
+  1.          1.          1.          1.          1.          1.          1.
+  1.          1.          1.          1.          1.          1.          1.
+  1.          0.66666667  1.          1.          1.          1.          1.
+  1.          1.          1.          1.          1.          1.          1.
+  1.          1.          1.        ]</t>
+  </si>
+  <si>
+    <t>[array([ 0.03576267]), array([ 0.03499033]), array([-0.01859567]), array([-0.03015411]), array([ 0.008131]), array([ 0.03760733]), array([ 0.022583]), array([-0.052052]), array([-0.006928]), array([-0.02172844]), array([-0.02343067]), array([-0.01147]), array([ 0.050031]), array([ 0.02239933]), array([-0.03250467]), array([-0.01468633]), array([ 0.00912967]), array([-0.09894867]), array([-0.18517933]), array([-0.08477333]), array([ 0.022123]), array([-0.07743233]), array([-0.100462]), array([ 0.086515]), array([ 0.10922567]), array([ 0.067638]), array([-0.003248]), array([ 0.081569]), array([ 0.03131733]), array([ 0.045122]), array([-0.02805133]), array([ 0.05705633]), array([ 0.02837733]), array([-0.037146]), array([ 0.03468333]), array([ 0.063481]), array([ 0.01990967]), array([-0.07927033]), array([-0.050817]), array([ 0.07015967]), array([-0.04294633]), array([ 0.091392]), array([ 0.03842267]), array([-0.00076367]), array([ 0.06703333]), array([ 0.019031]), array([ 0.03805667]), array([ 0.00328267]), array([ 0.028638]), array([-0.01496833]), array([-0.01842833]), array([-0.02250333]), array([-0.05748867]), array([-0.08488033]), array([ 0.11396533]), array([-0.00623533]), array([ 0.00369467]), array([ 0.054052]), array([ 0.04111])]</t>
+  </si>
+  <si>
+    <t>[ 0.11111111  0.          0.11111111  0.          0.          0.66666667
+  0.          0.11111111  0.77777778  0.11111111  0.          0.          0.
+  0.66666667  0.22222222  0.33333333  0.          0.44444444  0.22222222
+  1.          0.          0.55555556  0.22222222  0.55555556  1.          1.
+  0.66666667  1.          0.11111111  0.66666667  0.          0.44444444
+  0.66666667  0.22222222  0.66666667  1.          1.          0.          1.
+  0.88888889  1.          0.88888889  1.          1.          0.77777778
+  0.88888889  0.66666667  0.44444444  1.          1.          1.          1.
+  0.44444444  1.          1.          1.          1.          0.11111111
+  0.66666667]</t>
+  </si>
+  <si>
+    <t>[array([-0.00944611]), array([-0.00304267]), array([ 0.00918978]), array([ 0.013903]), array([ 0.00105233]), array([ 0.016404]), array([ 0.034758]), array([-0.00239467]), array([-0.04308356]), array([ 0.00901822]), array([ 0.003473]), array([-0.024977]), array([-0.01668067]), array([-0.051496]), array([ 0.001318]), array([ 0.007997]), array([ 0.00825733]), array([-0.07658767]), array([ 0.01621956]), array([ 0.022123]), array([-0.01699933]), array([-0.05816156]), array([ 0.03365256]), array([ 0.05317722]), array([ 0.067638]), array([-0.003248]), array([ 0.056341]), array([ 0.03131733]), array([ 0.01066956]), array([-0.01751333]), array([ 0.01837933]), array([-0.00267711]), array([-0.01859267]), array([ 0.01113144]), array([ 0.03970333]), array([ 0.01990967]), array([-0.07927033]), array([ 0.018277]), array([ 0.07015967]), array([-0.036664]), array([ 0.091392]), array([ 0.03483667]), array([ 0.00499033]), array([ 0.06703333]), array([ 0.01626344]), array([ 0.03315833]), array([ 0.001366]), array([ 0.02220856]), array([-0.01496833]), array([-0.01842833]), array([-0.02250333]), array([-0.05748867]), array([-0.03638367]), array([ 0.11396533]), array([-0.00623533]), array([ 0.00369467]), array([ 0.054052]), array([-0.00058422]), array([ 0.01355967])]</t>
+  </si>
+  <si>
+    <t>[ 0.          0.44444444  0.          0.          0.          0.          0.
+  0.55555556  0.          0.11111111  0.          0.          0.          0.
+  0.          0.55555556  0.          0.33333333  0.          0.          0.
+  0.          0.          0.          0.          0.          0.          0.
+  0.          0.          0.          0.          0.          0.          0.
+  0.          0.          0.          0.          0.          0.          0.
+  0.          0.          0.55555556  0.          0.          0.          0.
+  0.          0.          0.          0.          0.          0.          0.
+  0.          0.          0.        ]</t>
+  </si>
+  <si>
+    <t>[array([-0.00304267]), array([-0.00767189]), array([ 0.013903]), array([ 0.00105233]), array([ 0.004046]), array([ 0.034758]), array([-0.001828]), array([-0.02172844]), array([ 0.01307433]), array([ 0.00181267]), array([-0.024977]), array([-0.01668067]), array([ 0.005478]), array([ 0.00589067]), array([ 0.00743067]), array([-0.05130156]), array([ 0.01028567]), array([ 0.001792]), array([ 0.023014]), array([-0.01699933]), array([-0.005286]), array([ 0.018549]), array([-0.01688333]), array([-0.013398]), array([-0.007461]), array([ 0.005885]), array([ 0.00937533]), array([ 0.006363]), array([ 0.00356267]), array([ 0.01837933]), array([-0.02752067]), array([ 0.018514]), array([ 0.00440233]), array([-0.007852]), array([ 0.00894167]), array([ 0.01494567]), array([ 0.018277]), array([ 0.01088267]), array([ 0.01359467]), array([ 0.005111]), array([ 0.00614867]), array([-0.01227167]), array([-0.02243967]), array([ 0.006577]), array([ 0.01846333]), array([-0.00246733]), array([ 0.017065]), array([ 0.01615067]), array([ 0.00057467]), array([ 0.02114367]), array([ 0.02054733]), array([ 0.00241367]), array([ 0.00066033]), array([ 0.00261467]), array([ 0.00650967]), array([ 0.007948]), array([-0.005796]), array([-0.00717567]), array([ 0.01199533])]</t>
+  </si>
+  <si>
+    <t>[ 1.          1.          0.          0.77777778  0.66666667  1.
+  0.77777778  0.44444444  0.77777778  0.          0.11111111  0.33333333
+  0.22222222  0.66666667  0.66666667  0.77777778  0.44444444  0.          0.
+  0.          0.          0.          0.          0.          0.55555556
+  0.22222222  0.          0.33333333  0.          0.          0.          0.
+  0.          0.          0.          0.          0.          0.          0.
+  0.          0.          0.33333333  0.          0.          0.
+  0.11111111  0.          0.          0.          0.          0.22222222
+  0.          0.          0.          0.          0.          0.          0.
+  0.        ]</t>
+  </si>
+  <si>
+    <t>[array([-0.03577467]), array([ 0.008131]), array([ 0.00105233]), array([ 0.01846367]), array([-0.02311533]), array([-0.006928]), array([-0.04308356]), array([-0.00315011]), array([-0.00814933]), array([-0.024977]), array([-0.01233844]), array([-0.023009]), array([ 0.001318]), array([ 0.00856333]), array([-0.06321333]), array([-0.14174267]), array([-0.01263556]), array([ 0.023014]), array([-0.01699933]), array([-0.005286]), array([ 0.018549]), array([-0.01688333]), array([-0.013398]), array([-0.007461]), array([ 0.04793167]), array([ 0.01425133]), array([ 0.006363]), array([-0.00697533]), array([ 0.01837933]), array([-0.02752067]), array([ 0.018514]), array([ 0.00440233]), array([-0.007852]), array([ 0.00894167]), array([ 0.01494567]), array([ 0.018277]), array([ 0.01088267]), array([ 0.01359467]), array([ 0.005111]), array([ 0.00614867]), array([-0.01227167]), array([ 0.00738467]), array([ 0.006577]), array([-0.00602833]), array([-0.00246733]), array([ 0.01835089]), array([ 0.01615067]), array([ 0.00057467]), array([ 0.02114367]), array([ 0.02054733]), array([-0.016985]), array([ 0.00066033]), array([ 0.00261467]), array([ 0.00650967]), array([ 0.007948]), array([-0.005796]), array([-0.00717567]), array([ 0.01199533]), array([ 0.008315])]</t>
+  </si>
+  <si>
+    <t>[ 0.          1.          1.          0.66666667  1.          1.          1.
+  1.          1.          1.          1.          0.44444444  1.          1.
+  1.          1.          1.          0.33333333  1.          1.
+  0.77777778  1.          1.          1.          0.55555556  0.77777778
+  1.          1.          1.          1.          0.88888889  1.          1.
+  1.          0.66666667  0.55555556  1.          1.          0.77777778
+  1.          1.          1.          1.          1.          0.55555556
+  0.44444444  0.22222222  0.55555556  1.          1.          1.          1.
+  1.          0.55555556  0.77777778  1.          1.          0.44444444
+  0.88888889]</t>
+  </si>
+  <si>
+    <t>[array([ 0.013903]), array([ 0.03760733]), array([ 0.022583]), array([-0.02311533]), array([-0.006928]), array([-0.06443867]), array([-0.02343067]), array([-0.01147]), array([ 0.050031]), array([ 0.02239933]), array([-0.079983]), array([-0.00325467]), array([ 0.00912967]), array([-0.09894867]), array([-0.18517933]), array([-0.08477333]), array([ 0.022123]), array([-0.03714367]), array([-0.100462]), array([ 0.086515]), array([ 0.08120144]), array([ 0.067638]), array([-0.003248]), array([ 0.081569]), array([ 0.02156533]), array([ 0.03650889]), array([-0.02805133]), array([ 0.05705633]), array([ 0.02837733]), array([-0.037146]), array([ 0.03131878]), array([ 0.063481]), array([ 0.01990967]), array([-0.07927033]), array([-0.02778567]), array([ 0.04381433]), array([-0.04294633]), array([ 0.091392]), array([ 0.03125067]), array([ 0.00499033]), array([ 0.06703333]), array([ 0.019031]), array([ 0.03805667]), array([ 0.00328267]), array([ 0.02349444]), array([ 0.00232]), array([-0.00364822]), array([-0.00310467]), array([-0.05748867]), array([-0.08488033]), array([ 0.11396533]), array([-0.00623533]), array([ 0.00369467]), array([ 0.03356133]), array([ 0.03068644]), array([ 0.02392733]), array([-0.00686767]), array([-0.02453833]), array([ 0.03368756])]</t>
+  </si>
+  <si>
+    <t>[ 1.          1.          1.          1.          1.          1.          1.
+  1.          1.          1.          1.          1.          0.55555556
+  0.66666667  1.          1.          0.66666667  1.          1.          1.
+  1.          1.          1.          1.          1.          1.          1.
+  1.          0.55555556  1.          1.          1.          1.          1.
+  1.          0.66666667  1.          1.          1.          1.          1.
+  1.          1.          1.          1.          1.          1.          1.
+  1.          1.          1.          1.          0.66666667  1.
+  0.88888889  0.66666667  1.          1.          1.        ]</t>
+  </si>
+  <si>
+    <t>[array([ 0.03760733]), array([ 0.022583]), array([-0.052052]), array([-0.006928]), array([-0.06443867]), array([-0.02343067]), array([-0.01147]), array([ 0.050031]), array([ 0.02239933]), array([-0.079983]), array([-0.01468633]), array([ 0.00912967]), array([-0.05130156]), array([-0.12002433]), array([-0.08477333]), array([ 0.022123]), array([-0.057288]), array([-0.100462]), array([ 0.086515]), array([ 0.10922567]), array([ 0.067638]), array([-0.003248]), array([ 0.081569]), array([ 0.03131733]), array([ 0.045122]), array([-0.02805133]), array([ 0.05705633]), array([ 0.02837733]), array([-0.01240822]), array([ 0.03468333]), array([ 0.063481]), array([ 0.01990967]), array([-0.07927033]), array([-0.050817]), array([ 0.07015967]), array([-0.02409933]), array([ 0.091392]), array([ 0.03842267]), array([ 0.00499033]), array([ 0.06703333]), array([ 0.019031]), array([ 0.03805667]), array([ 0.00328267]), array([ 0.028638]), array([-0.01496833]), array([-0.01842833]), array([-0.02250333]), array([-0.05748867]), array([-0.08488033]), array([ 0.11396533]), array([-0.00623533]), array([ 0.00369467]), array([ 0.038684]), array([ 0.04111]), array([ 0.02047144]), array([-0.00058]), array([-0.065605]), array([ 0.038081]), array([ 0.01018267])]</t>
+  </si>
+  <si>
+    <t>[ 1.          1.          1.          1.          0.55555556  0.88888889
+  1.          1.          0.          1.          1.          1.
+  0.33333333  1.          0.66666667  1.          0.22222222  0.88888889
+  0.          0.          0.88888889  0.44444444  0.44444444  1.          1.
+  0.88888889  1.          1.          1.          1.          0.88888889
+  0.66666667  1.          1.          1.          1.          1.          1.
+  1.          1.          1.          1.          0.55555556  1.
+  0.88888889  1.          0.88888889  1.          0.77777778  1.          1.
+  1.          0.88888889  1.          1.          1.          1.          1.
+  1.        ]</t>
+  </si>
+  <si>
+    <t>[array([ 0.022583]), array([-0.052052]), array([-0.006928]), array([-0.06443867]), array([-0.00720622]), array([-0.00980967]), array([ 0.050031]), array([ 0.02239933]), array([ 0.005478]), array([-0.01468633]), array([ 0.00912967]), array([-0.09894867]), array([-0.05486933]), array([-0.08477333]), array([ 0.02242]), array([-0.07743233]), array([-0.02643622]), array([ 0.07896322]), array([-0.01688333]), array([-0.013398]), array([-0.00371611]), array([ 0.03952233]), array([ 0.01912733]), array([ 0.045122]), array([-0.02805133]), array([ 0.05275889]), array([ 0.02837733]), array([-0.037146]), array([ 0.03468333]), array([ 0.063481]), array([ 0.018691]), array([-0.047865]), array([-0.050817]), array([ 0.07015967]), array([-0.04294633]), array([ 0.091392]), array([ 0.03842267]), array([ 0.00499033]), array([ 0.06703333]), array([ 0.019031]), array([ 0.03805667]), array([ 0.00328267]), array([ 0.02349444]), array([-0.01496833]), array([-0.01631689]), array([-0.02250333]), array([-0.048818]), array([-0.08488033]), array([ 0.08878644]), array([-0.00623533]), array([ 0.00369467]), array([ 0.054052]), array([ 0.03589822]), array([ 0.02392733]), array([-0.00686767]), array([-0.065605]), array([ 0.038081]), array([ 0.01018267]), array([ 0.02618167])]</t>
+  </si>
+  <si>
+    <t>[ 1.          1.          0.11111111  1.          0.77777778  0.55555556
+  1.          0.77777778  1.          1.          0.88888889  1.          1.
+  0.55555556  1.          0.44444444  1.          0.          0.55555556
+  0.44444444  0.22222222  0.55555556  0.          0.44444444  0.11111111
+  1.          0.66666667  0.33333333  1.          1.          1.
+  0.66666667  0.55555556  1.          1.          1.          0.22222222
+  0.77777778  0.22222222  1.          1.          0.          1.          1.
+  1.          0.77777778  1.          0.44444444  0.66666667  0.55555556
+  0.33333333  0.66666667  0.55555556  1.          0.          0.
+  0.66666667  0.55555556  0.77777778]</t>
+  </si>
+  <si>
+    <t>[array([-0.052052]), array([-0.006928]), array([ 0.02098178]), array([-0.02343067]), array([-0.00814933]), array([ 0.01669411]), array([ 0.02239933]), array([-0.06099167]), array([-0.01468633]), array([ 0.00912967]), array([-0.08703689]), array([-0.18517933]), array([-0.08477333]), array([ 0.022519]), array([-0.07743233]), array([-0.04758644]), array([ 0.086515]), array([-0.01688333]), array([ 0.031622]), array([-0.00558856]), array([ 0.02270367]), array([ 0.02156533]), array([ 0.006363]), array([-0.010488]), array([ 0.02267678]), array([ 0.02837733]), array([-0.01859267]), array([ 0.014496]), array([ 0.063481]), array([ 0.01990967]), array([-0.07927033]), array([-0.02778567]), array([ 0.04381433]), array([-0.04294633]), array([ 0.091392]), array([ 0.03842267]), array([-0.00843567]), array([ 0.04715044]), array([ 0.00934456]), array([ 0.03805667]), array([ 0.00328267]), array([ 0.017065]), array([-0.01496833]), array([-0.01842833]), array([-0.02250333]), array([-0.04014733]), array([-0.08488033]), array([ 0.05101811]), array([-0.00328533]), array([ 0.00494578]), array([ 0.023316]), array([ 0.02547467]), array([ 0.01010378]), array([-0.00686767]), array([ 0.008315]), array([-0.00146]), array([ 0.009501]), array([ 0.01498567]), array([ 0.02060422])]</t>
+  </si>
+  <si>
+    <t>[ 0.          0.44444444  0.33333333  0.11111111  1.          0.55555556
+  0.77777778  0.66666667  0.66666667  0.          0.22222222  0.11111111
+  0.          0.22222222  0.          0.          0.          0.          1.
+  0.          0.22222222  0.          0.          0.44444444  0.          0.
+  0.          0.44444444  0.88888889  0.33333333  0.22222222  0.          0.
+  0.          0.          0.          0.          0.77777778  0.11111111
+  0.          0.          0.          0.          0.66666667  0.
+  0.11111111  0.          0.          0.          0.22222222  0.          0.
+  0.          0.          0.22222222  0.22222222  0.          1.          0.        ]</t>
+  </si>
+  <si>
+    <t>[array([-0.001828]), array([-0.01105089]), array([ 0.000906]), array([ 0.00181267]), array([ 0.050031]), array([ 0.00503044]), array([-0.06099167]), array([-0.00782733]), array([ 0.00856333]), array([ 0.00825733]), array([-0.033151]), array([ 0.03064711]), array([ 0.023014]), array([-0.03042889]), array([-0.005286]), array([ 0.018549]), array([-0.01688333]), array([-0.013398]), array([-0.003248]), array([ 0.005885]), array([ 0.01425133]), array([ 0.006363]), array([ 0.00356267]), array([ 0.03556911]), array([-0.02752067]), array([ 0.018514]), array([ 0.00440233]), array([ 0.02385156]), array([ 0.018691]), array([-0.01645967]), array([ 0.00292278]), array([ 0.01088267]), array([ 0.01359467]), array([ 0.005111]), array([ 0.00614867]), array([-0.01227167]), array([-0.02243967]), array([ 0.01626344]), array([-0.00113]), array([-0.00246733]), array([ 0.017065]), array([ 0.01615067]), array([ 0.00057467]), array([-0.00795433]), array([ 0.02054733]), array([-0.00728567]), array([ 0.00066033]), array([ 0.00261467]), array([ 0.00650967]), array([ 0.01819333]), array([-0.005796]), array([-0.00717567]), array([ 0.01199533]), array([ 0.008315]), array([ 0.00732689]), array([ 0.00859211]), array([ 0.00099067]), array([ 0.02644733]), array([-0.00373433])]</t>
+  </si>
+  <si>
+    <t>[ 0.66666667  0.88888889  0.22222222  0.          0.          0.44444444
+  1.          0.          1.          0.55555556  0.77777778  0.
+  0.44444444  1.          0.          0.22222222  0.22222222  0.          0.
+  0.77777778  0.          0.          0.44444444  1.          0.55555556
+  0.22222222  0.55555556  0.          0.11111111  0.          0.33333333
+  0.44444444  0.66666667  0.88888889  0.          0.          0.22222222
+  0.          0.22222222  0.33333333  0.88888889  0.          0.          0.
+  0.          0.          0.          1.          0.          0.          0.
+  0.          0.          0.          0.22222222  0.66666667  0.
+  0.44444444  0.        ]</t>
+  </si>
+  <si>
+    <t>[array([-0.032406]), array([-0.01937456]), array([ 0.00015233]), array([-0.024977]), array([-0.01668067]), array([-0.03250467]), array([-0.01468633]), array([ 0.00743067]), array([-0.09894867]), array([-0.098306]), array([-0.05591822]), array([ 0.023014]), array([-0.04385844]), array([-0.100462]), array([ 0.018549]), array([ 0.01114089]), array([ 0.00461]), array([-0.007461]), array([ 0.005885]), array([ 0.02644133]), array([ 0.006363]), array([ 0.00356267]), array([ 0.03556911]), array([ 0.02837733]), array([-0.01240822]), array([ 0.01113144]), array([ 0.03177744]), array([ 0.00894167]), array([ 0.00447722]), array([ 0.018277]), array([ 0.03064167]), array([-0.01153467]), array([ 0.06263167]), array([ 0.03483667]), array([-0.01227167]), array([-0.02243967]), array([ 0.00934456]), array([-0.00602833]), array([-0.00118956]), array([ 0.02092267]), array([-0.01151067]), array([ 0.00057467]), array([ 0.02114367]), array([ 0.02054733]), array([ 0.00241367]), array([ 0.00066033]), array([ 0.00261467]), array([ 0.00369467]), array([ 0.007948]), array([-0.005796]), array([-0.00717567]), array([ 0.01199533]), array([ 0.008315]), array([-0.00146]), array([ 0.00859211]), array([ 0.01778467]), array([ 0.00015333]), array([-0.00837878]), array([ 0.007106])]</t>
+  </si>
+  <si>
+    <t>[ 1.          0.88888889  0.55555556  0.          0.88888889  0.55555556
+  0.66666667  0.88888889  0.          0.33333333  1.          0.33333333
+  0.22222222  0.22222222  1.          0.55555556  0.          0.11111111
+  0.66666667  0.66666667  0.44444444  1.          0.          0.11111111
+  0.66666667  1.          0.          0.          0.          0.          0.
+  0.11111111  0.22222222  0.44444444  0.55555556  0.11111111  0.88888889
+  0.33333333  0.55555556  0.          0.          0.          0.88888889
+  0.          0.          0.          0.66666667  0.11111111  1.
+  0.11111111  0.          0.55555556  0.          0.66666667  0.
+  0.55555556  0.11111111  0.          0.11111111]</t>
+  </si>
+  <si>
+    <t>[array([-0.02343067]), array([-0.00980967]), array([ 0.01669411]), array([-0.01668067]), array([-0.07048733]), array([-0.005541]), array([ 0.00856333]), array([-0.08703689]), array([ 0.01028567]), array([ 0.001792]), array([ 0.022123]), array([-0.03714367]), array([-0.02643622]), array([ 0.03365256]), array([ 0.10922567]), array([ 0.031622]), array([-0.007461]), array([ 0.01429433]), array([ 0.02400333]), array([ 0.03220233]), array([-0.010488]), array([ 0.05705633]), array([-0.02752067]), array([ 0.01232956]), array([ 0.02458967]), array([ 0.063481]), array([ 0.00894167]), array([ 0.01494567]), array([ 0.018277]), array([ 0.01088267]), array([ 0.01359467]), array([ 0.01469778]), array([ 0.01332067]), array([-0.00459967]), array([ 0.02726756]), array([ 0.00796078]), array([ 0.03315833]), array([-0.00055067]), array([ 0.02349444]), array([ 0.01615067]), array([ 0.00057467]), array([ 0.02114367]), array([-0.048818]), array([ 0.00241367]), array([ 0.00066033]), array([ 0.00261467]), array([ 0.004633]), array([ 0.01307067]), array([ 0.04111]), array([-0.00371978]), array([ 0.01199533]), array([-0.03275167]), array([-0.00146]), array([ 0.009501]), array([ 0.00099067]), array([ 0.01476111]), array([-0.00489544]), array([ 0.007106]), array([-0.00145356])]</t>
+  </si>
+  <si>
+    <t>[ 0.          0.          0.55555556  0.          0.          0.          0.
+  0.          0.          0.66666667  0.66666667  0.33333333  0.          0.
+  1.          0.77777778  0.11111111  0.66666667  1.          0.44444444
+  0.88888889  0.33333333  0.22222222  0.66666667  1.          0.88888889
+  1.          0.          0.11111111  0.22222222  0.88888889  1.          1.
+  0.77777778  0.55555556  1.          1.          0.55555556  1.          1.
+  0.          1.          0.44444444  0.77777778  0.88888889  1.
+  0.22222222  0.22222222  1.          0.          0.11111111  0.88888889
+  0.66666667  0.77777778  1.          0.11111111  0.55555556  1.
+  0.22222222]</t>
+  </si>
+  <si>
+    <t>[array([ 0.003473]), array([-0.024977]), array([ 0.00503044]), array([ 0.005478]), array([ 0.00589067]), array([ 0.00743067]), array([ 0.00825733]), array([ 0.01028567]), array([ 0.04507467]), array([ 0.02242]), array([-0.057288]), array([-0.03701133]), array([ 0.018549]), array([-0.01688333]), array([ 0.067638]), array([-0.00418422]), array([ 0.01429433]), array([ 0.02400333]), array([ 0.045122]), array([-0.010488]), array([ 0.05275889]), array([-0.008888]), array([ 0.00614511]), array([ 0.02458967]), array([ 0.063481]), array([ 0.018691]), array([-0.07927033]), array([ 0.018277]), array([ 0.017469]), array([ 0.00103]), array([ 0.08180522]), array([ 0.03842267]), array([ 0.00499033]), array([ 0.04715044]), array([ 0.01349589]), array([ 0.03805667]), array([ 0.00328267]), array([ 0.02349444]), array([-0.01496833]), array([-0.01842833]), array([ 0.02114367]), array([-0.05748867]), array([-0.03638367]), array([ 0.08878644]), array([-0.005252]), array([ 0.00369467]), array([ 0.01819333]), array([ 0.00462756]), array([ 0.02392733]), array([ 0.01199533]), array([ 0.00010167]), array([ 0.03368756]), array([ 0.009501]), array([ 0.02058367]), array([ 0.02644733]), array([-0.00489544]), array([ 0.00655656]), array([ 0.01247267]), array([ 0.00782711])]</t>
+  </si>
+  <si>
+    <t>[ 0.          0.22222222  0.55555556  0.          0.          0.55555556
+  0.          0.88888889  0.          1.          1.          0.55555556
+  1.          1.          1.          1.          0.77777778  0.55555556
+  1.          0.          1.          0.33333333  0.77777778  1.
+  0.88888889  0.88888889  1.          1.          0.77777778  0.66666667
+  0.33333333  0.44444444  0.88888889  0.33333333  1.          0.          1.
+  0.77777778  0.88888889  0.88888889  1.          0.44444444  0.77777778
+  0.55555556  1.          0.44444444  0.33333333  0.33333333  0.11111111
+  1.          0.88888889  1.          0.55555556  1.          0.77777778
+  0.77777778  1.          0.66666667  1.        ]</t>
+  </si>
+  <si>
+    <t>[array([-0.024977]), array([-0.00799622]), array([-0.04200033]), array([ 0.00589067]), array([ 0.00743067]), array([-0.05130156]), array([ 0.01028567]), array([-0.07034578]), array([ 0.023014]), array([-0.07743233]), array([-0.100462]), array([ 0.05630789]), array([ 0.10922567]), array([ 0.067638]), array([-0.003248]), array([ 0.081569]), array([ 0.02644133]), array([ 0.02789578]), array([-0.02805133]), array([ 0.01837933]), array([ 0.02837733]), array([ -3.93333333e-05]), array([ 0.02795422]), array([ 0.063481]), array([ 0.018691]), array([-0.06880189]), array([-0.050817]), array([ 0.07015967]), array([-0.03038167]), array([ 0.06263167]), array([ 0.01690667]), array([-0.00459967]), array([ 0.05709189]), array([ 0.01072833]), array([ 0.03805667]), array([-0.00246733]), array([ 0.028638]), array([-0.008053]), array([-0.01631689]), array([-0.01765367]), array([-0.05748867]), array([-0.03638367]), array([ 0.08878644]), array([-0.002302]), array([ 0.00369467]), array([ 0.02843867]), array([ 0.00983933]), array([ 0.003192]), array([ 0.00989944]), array([-0.065605]), array([ 0.03368756]), array([ 0.01018267]), array([ 0.01498567]), array([ 0.02644733]), array([-0.01186211]), array([ 0.00633678]), array([ 0.01247267]), array([ 0.034232]), array([ 0.00824867])]</t>
+  </si>
+  <si>
+    <t>[ 0.          0.          0.          0.44444444  0.          0.          0.
+  0.          0.11111111  0.44444444  0.66666667  0.33333333  0.44444444
+  0.77777778  0.55555556  1.          0.44444444  0.88888889  0.22222222
+  0.          1.          0.55555556  1.          0.77777778  0.55555556
+  1.          1.          0.55555556  1.          1.          0.44444444
+  1.          1.          0.          0.77777778  0.66666667  0.33333333
+  0.88888889  0.55555556  0.55555556  1.          0.88888889  0.
+  0.88888889  1.          0.11111111  0.77777778  0.          0.22222222
+  1.          0.55555556  0.88888889  0.55555556  1.          0.44444444
+  1.          1.          0.          0.88888889]</t>
+  </si>
+  <si>
+    <t>[array([-0.01668067]), array([ 0.005478]), array([ 0.00589067]), array([ 0.00818578]), array([ 0.00825733]), array([ 0.01028567]), array([ 0.04507467]), array([ 0.023014]), array([-0.02371411]), array([-0.04758644]), array([ 0.06385967]), array([ 0.025153]), array([ 0.022618]), array([-0.00418422]), array([ 0.04793167]), array([ 0.03131733]), array([ 0.02358922]), array([-0.02453867]), array([ 0.02697422]), array([-0.02752067]), array([-0.037146]), array([ 0.02122511]), array([ 0.063481]), array([ 0.01747233]), array([-0.03739656]), array([-0.050817]), array([ 0.07015967]), array([-0.017817]), array([ 0.091392]), array([ 0.03842267]), array([-0.00459967]), array([ 0.06703333]), array([ 0.019031]), array([-0.00602833]), array([ 0.00200489]), array([ 0.02478033]), array([ 0.00577767]), array([-0.01631689]), array([-0.00310467]), array([-0.022806]), array([-0.08488033]), array([ 0.10137589]), array([ 0.00261467]), array([ 0.00400744]), array([ 0.054052]), array([-0.00058422]), array([ 0.01701556]), array([ 0.01199533]), array([-0.00811167]), array([ 0.038081]), array([ 0.00927378]), array([ 0.02338267]), array([ 0.01476111]), array([-0.01418433]), array([ 0.00666644]), array([ 0.01247267]), array([ 0.05403567]), array([ 0.00672467]), array([ 0.031422])]</t>
+  </si>
+  <si>
+    <t>[ 0.          0.          0.          0.          0.          0.          0.
+  0.          0.          0.          0.          0.          0.          0.
+  0.          0.          0.          0.          0.          0.          0.
+  0.          0.          0.          0.          0.          0.          0.
+  0.          0.          0.          0.          0.          0.33333333
+  0.          0.          0.          0.          0.          0.          0.
+  0.          0.          0.          0.          0.          0.          0.
+  0.          0.          0.          0.          0.          0.          0.
+  0.          0.          0.          0.        ]</t>
+  </si>
+  <si>
+    <t>[array([ 0.005478]), array([ 0.00589067]), array([ 0.00743067]), array([ 0.00825733]), array([ 0.01028567]), array([ 0.04507467]), array([ 0.023014]), array([-0.01699933]), array([-0.005286]), array([ 0.018549]), array([-0.01688333]), array([-0.013398]), array([-0.007461]), array([ 0.005885]), array([ 0.00937533]), array([ 0.006363]), array([ 0.00356267]), array([ 0.01837933]), array([-0.02752067]), array([ 0.018514]), array([ 0.00440233]), array([-0.007852]), array([ 0.00894167]), array([ 0.01494567]), array([ 0.018277]), array([ 0.01088267]), array([ 0.01359467]), array([ 0.005111]), array([ 0.00614867]), array([-0.01227167]), array([-0.02243967]), array([ 0.006577]), array([-0.00602833]), array([-0.00055067]), array([ 0.017065]), array([ 0.01615067]), array([ 0.00057467]), array([ 0.02114367]), array([ 0.02054733]), array([ 0.00241367]), array([ 0.00066033]), array([ 0.00261467]), array([ 0.00650967]), array([ 0.007948]), array([-0.005796]), array([-0.00717567]), array([ 0.01199533]), array([ 0.008315]), array([-0.00146]), array([ 0.00813767]), array([ 0.00099067]), array([ 0.00015333]), array([-0.00373433]), array([ 0.007106]), array([-0.00319433]), array([-0.00537533]), array([ 0.00672467]), array([ 0.001206]), array([ 0.005731])]</t>
+  </si>
+  <si>
+    <t>[array([ 0.067638]), array([-0.003248]), array([ 0.081569]), array([ 0.03131733]), array([ 0.045122]), array([-0.02805133]), array([ 0.05705633]), array([ 0.02837733]), array([-0.037146]), array([ 0.03468333]), array([ 0.063481]), array([ 0.01990967]), array([-0.07927033]), array([-0.050817]), array([ 0.07015967]), array([-0.04294633]), array([ 0.091392]), array([ 0.03842267]), array([ 0.00499033]), array([ 0.06703333]), array([ 0.019031]), array([ 0.03805667]), array([ 0.00328267]), array([ 0.028638]), array([-0.01496833]), array([-0.01842833]), array([-0.00795433]), array([-0.05748867]), array([-0.08488033]), array([ 0.11396533]), array([-0.00623533]), array([ 0.00369467]), array([ 0.054052]), array([ 0.04111]), array([ 0.02392733]), array([-0.00686767]), array([-0.065605]), array([ 0.038081]), array([ 0.01018267]), array([ 0.00378967]), array([ 0.02644733]), array([-0.01418433]), array([ 0.006117]), array([ 0.01247267]), array([ 0.05403567]), array([ 0.00824867]), array([ 0.035199]), array([ 0.014896]), array([ 0.01903267]), array([-0.01508067]), array([ 0.05264767]), array([-0.02574733]), array([ 0.03746033]), array([ 0.03981033]), array([ 0.02488867]), array([ 0.02606767]), array([-0.02999033]), array([ 0.04613033]), array([ 0.00442733])]</t>
+  </si>
+  <si>
+    <t>[ 1.          1.          1.          1.          1.          1.          1.
+  1.          1.          1.          1.          1.          1.          1.
+  1.          1.          1.          1.          1.          1.          1.
+  1.          1.          1.          1.          1.          0.66666667
+  1.          1.          1.          1.          1.          1.          1.
+  1.          1.          1.          1.          1.          0.11111111
+  1.          1.          1.          1.          1.          1.          1.
+  1.          1.          1.          1.          1.          1.          1.
+  1.          1.          1.          1.          1.        ]</t>
+  </si>
+  <si>
+    <t>[array([ 0.10922567]), array([ 0.067638]), array([-0.003248]), array([ 0.081569]), array([ 0.03131733]), array([ 0.045122]), array([-0.02805133]), array([ 0.05705633]), array([ 0.02837733]), array([-0.037146]), array([ 0.03468333]), array([ 0.063481]), array([ 0.01990967]), array([-0.07927033]), array([-0.050817]), array([ 0.07015967]), array([-0.04294633]), array([ 0.091392]), array([ 0.03842267]), array([ 0.00499033]), array([ 0.06703333]), array([ 0.019031]), array([ 0.03805667]), array([ 0.00328267]), array([ 0.028638]), array([-0.01496833]), array([-0.01842833]), array([-0.02250333]), array([-0.05748867]), array([-0.08488033]), array([ 0.11396533]), array([-0.00623533]), array([ 0.00369467]), array([ 0.054052]), array([ 0.04111]), array([ 0.02392733]), array([-0.00686767]), array([-0.065605]), array([ 0.038081]), array([ 0.01018267]), array([ 0.02618167]), array([ 0.02644733]), array([-0.01418433]), array([ 0.006117]), array([ 0.01247267]), array([ 0.05403567]), array([ 0.00824867]), array([ 0.035199]), array([ 0.014896]), array([ 0.01903267]), array([-0.01508067]), array([ 0.05264767]), array([-0.02574733]), array([ 0.03746033]), array([ 0.03981033]), array([ 0.02488867]), array([ 0.02606767]), array([-0.02999033]), array([ 0.04613033])]</t>
+  </si>
+  <si>
+    <t>[array([ 0.086515]), array([ 0.10922567]), array([ 0.067638]), array([-0.003248]), array([ 0.081569]), array([ 0.03131733]), array([ 0.045122]), array([-0.02805133]), array([ 0.05705633]), array([ 0.02837733]), array([-0.037146]), array([ 0.03468333]), array([ 0.063481]), array([ 0.01990967]), array([-0.07927033]), array([-0.050817]), array([ 0.07015967]), array([-0.04294633]), array([ 0.091392]), array([ 0.03842267]), array([ 0.00499033]), array([ 0.06703333]), array([ 0.019031]), array([ 0.03805667]), array([ 0.00328267]), array([ 0.028638]), array([-0.01496833]), array([-0.01842833]), array([-0.02250333]), array([-0.05748867]), array([-0.08488033]), array([ 0.11396533]), array([-0.00623533]), array([ 0.00369467]), array([ 0.054052]), array([ 0.04111]), array([ 0.02392733]), array([-0.00686767]), array([-0.065605]), array([ 0.038081]), array([ 0.01018267]), array([ 0.02618167]), array([ 0.02644733]), array([-0.01418433]), array([ 0.006117]), array([ 0.01247267]), array([ 0.05403567]), array([ 0.00824867]), array([ 0.035199]), array([ 0.014896]), array([ 0.01903267]), array([-0.01508067]), array([ 0.05264767]), array([-0.02574733]), array([ 0.03746033]), array([ 0.03981033]), array([ 0.02488867]), array([ 0.02606767]), array([-0.02999033])]</t>
+  </si>
+  <si>
+    <t>[array([-0.005286]), array([ 0.018549]), array([-0.01688333]), array([-0.013398]), array([-0.007461]), array([ 0.005885]), array([ 0.00937533]), array([ 0.006363]), array([ 0.00356267]), array([ 0.01837933]), array([-0.02752067]), array([ 0.018514]), array([ 0.00440233]), array([-0.007852]), array([ 0.00894167]), array([ 0.01494567]), array([ 0.018277]), array([ 0.01088267]), array([ 0.01359467]), array([ 0.005111]), array([ 0.00614867]), array([-0.01227167]), array([-0.02243967]), array([ 0.006577]), array([-0.00602833]), array([-0.00246733]), array([ 0.017065]), array([ 0.01615067]), array([ 0.00057467]), array([ 0.02114367]), array([ 0.02054733]), array([ 0.00241367]), array([ 0.00066033]), array([ 0.00261467]), array([ 0.00650967]), array([ 0.007948]), array([-0.005796]), array([-0.00717567]), array([ 0.01199533]), array([ 0.008315]), array([-0.00146]), array([ 0.00813767]), array([ 0.00099067]), array([ 0.00015333]), array([-0.00373433]), array([ 0.007106]), array([-0.00319433]), array([-0.00537533]), array([ 0.00672467]), array([ 0.001206]), array([ 0.005731]), array([-0.01492033]), array([-0.01632867]), array([ 0.00288767]), array([-0.00942133]), array([ 0.01494233]), array([ 0.00509533]), array([ 0.00075167]), array([-0.01515333])]</t>
+  </si>
+  <si>
+    <t>[array([-0.01699933]), array([-0.005286]), array([ 0.018549]), array([-0.01688333]), array([-0.013398]), array([-0.007461]), array([ 0.005885]), array([ 0.00937533]), array([ 0.006363]), array([ 0.00356267]), array([ 0.01837933]), array([-0.02752067]), array([ 0.018514]), array([ 0.00440233]), array([-0.007852]), array([ 0.00894167]), array([ 0.01494567]), array([ 0.018277]), array([ 0.01088267]), array([ 0.01359467]), array([ 0.005111]), array([ 0.00614867]), array([-0.01227167]), array([-0.02243967]), array([ 0.006577]), array([-0.00602833]), array([-0.00246733]), array([ 0.017065]), array([ 0.01615067]), array([ 0.00057467]), array([ 0.02114367]), array([ 0.02054733]), array([ 0.00241367]), array([ 0.00066033]), array([ 0.00261467]), array([ 0.00650967]), array([ 0.007948]), array([-0.005796]), array([-0.00717567]), array([ 0.01199533]), array([ 0.008315]), array([-0.00146]), array([ 0.00813767]), array([ 0.00099067]), array([ 0.00015333]), array([-0.00373433]), array([ 0.007106]), array([-0.00319433]), array([-0.00537533]), array([ 0.00672467]), array([ 0.001206]), array([ 0.005731]), array([-0.01492033]), array([-0.01632867]), array([ 0.00288767]), array([-0.00942133]), array([ 0.01494233]), array([ 0.00509533]), array([ 0.00075167])]</t>
+  </si>
+  <si>
+    <t>[array([ 0.022123]), array([-0.07743233]), array([-0.100462]), array([ 0.086515]), array([ 0.10922567]), array([ 0.067638]), array([-0.003248]), array([ 0.081569]), array([ 0.02887933]), array([ 0.045122]), array([-0.02805133]), array([ 0.05705633]), array([ 0.02837733]), array([-0.037146]), array([ 0.00440233]), array([ 0.063481]), array([ 0.01990967]), array([-0.07927033]), array([-0.050817]), array([ 0.07015967]), array([-0.04294633]), array([ 0.091392]), array([ 0.03842267]), array([ 0.00115433]), array([ 0.06703333]), array([ 0.019031]), array([ 0.03805667]), array([ 0.00328267]), array([ 0.028638]), array([-0.01496833]), array([-0.01842833]), array([-0.02250333]), array([-0.05748867]), array([-0.03638367]), array([ 0.11396533]), array([-0.00623533]), array([ 0.00369467]), array([ 0.023316]), array([ 0.04111]), array([ 0.02392733]), array([-0.00686767]), array([-0.065605]), array([ 0.038081]), array([ 0.01018267]), array([ 0.02618167]), array([ 0.02644733]), array([-0.01418433]), array([ 0.006117]), array([ 0.01247267]), array([ 0.05403567]), array([ 0.00824867]), array([ 0.035199]), array([ 0.014896]), array([ 0.01526011]), array([-0.01508067]), array([ 0.05264767]), array([-0.02574733]), array([ 0.03746033]), array([ 0.03981033])]</t>
+  </si>
+  <si>
+    <t>[ 1.          1.          1.          1.          1.          1.          1.
+  1.          0.88888889  1.          1.          1.          1.          1.
+  0.          1.          1.          1.          1.          1.          1.
+  1.          1.          0.77777778  1.          1.          1.          1.
+  1.          1.          1.          1.          1.          0.44444444
+  1.          1.          1.          0.33333333  1.          1.          1.
+  1.          1.          1.          1.          1.          1.          1.
+  1.          1.          1.          1.          1.          0.88888889
+  1.          1.          1.          1.          1.        ]</t>
+  </si>
+  <si>
+    <t>[array([-0.08477333]), array([ 0.023014]), array([-0.01699933]), array([-0.005286]), array([ 0.018549]), array([-0.00287122]), array([-0.013398]), array([-0.007461]), array([ 0.005885]), array([ 0.00937533]), array([ 0.006363]), array([ 0.00356267]), array([ 0.01837933]), array([-0.02752067]), array([ 0.018514]), array([ 0.00440233]), array([-0.007852]), array([ 0.00894167]), array([ 0.01494567]), array([ 0.018277]), array([ 0.01088267]), array([ 0.01359467]), array([ 0.005111]), array([ 0.00614867]), array([-0.01227167]), array([-0.02243967]), array([ 0.006577]), array([-0.00602833]), array([-0.00246733]), array([ 0.017065]), array([ 0.01615067]), array([ 0.00057467]), array([ 0.02114367]), array([ 0.02054733]), array([ 0.00241367]), array([ 0.00066033]), array([ 0.00261467]), array([ 0.00650967]), array([ 0.007948]), array([-0.005796]), array([-0.00717567]), array([ 0.01199533]), array([ 0.008315]), array([-0.00146]), array([ 0.00813767]), array([ 0.00099067]), array([ 0.00015333]), array([-0.00373433]), array([ 0.007106]), array([-0.00319433]), array([-0.00537533]), array([ 0.00672467]), array([ 0.001206]), array([ 0.005731]), array([-0.01492033]), array([-0.01632867]), array([ 0.00288767]), array([-0.00942133]), array([ 0.01494233])]</t>
+  </si>
+  <si>
+    <t>[ 1.          0.          0.          0.          0.          0.11111111
+  0.          0.          0.          0.          0.          0.          0.
+  0.          0.          0.          0.          0.          0.          0.
+  0.          0.          0.          0.          0.          0.          0.
+  0.          0.          0.          0.          0.          0.          0.
+  0.          0.          0.          0.          0.          0.          0.
+  0.          0.          0.          0.          0.          0.          0.
+  0.          0.          0.          0.          0.          0.          0.
+  0.          0.          0.          0.        ]</t>
+  </si>
+  <si>
+    <t>[array([ 0.01028567]), array([ 0.04507467]), array([ 0.023014]), array([-0.01699933]), array([-0.005286]), array([ 0.018549]), array([-0.01688333]), array([-0.013398]), array([-0.007461]), array([ 0.005885]), array([ 0.00937533]), array([ 0.006363]), array([ 0.00356267]), array([ 0.01837933]), array([-0.02752067]), array([ 0.018514]), array([ 0.00440233]), array([-0.007852]), array([ 0.00894167]), array([ 0.01494567]), array([ 0.018277]), array([ 0.01088267]), array([ 0.01359467]), array([ 0.005111]), array([ 0.00614867]), array([-0.01227167]), array([-0.02243967]), array([ 0.006577]), array([-0.00602833]), array([-0.00246733]), array([ 0.017065]), array([ 0.01615067]), array([ 0.00057467]), array([ 0.02114367]), array([ 0.02054733]), array([ 0.00241367]), array([ 0.00066033]), array([ 0.00261467]), array([ 0.00650967]), array([ 0.007948]), array([-0.005796]), array([-0.00717567]), array([ 0.01199533]), array([ 0.008315]), array([-0.00146]), array([ 0.00813767]), array([ 0.00099067]), array([ 0.00015333]), array([-0.00373433]), array([ 0.007106]), array([-0.00319433]), array([-0.00537533]), array([ 0.00672467]), array([ 0.001206]), array([ 0.005731]), array([-0.01492033]), array([-0.01632867]), array([ 0.00288767]), array([-0.00942133])]</t>
+  </si>
+  <si>
+    <t>[array([ 0.00825733]), array([ 0.01028567]), array([ 0.04507467]), array([ 0.023014]), array([-0.01699933]), array([-0.005286]), array([ 0.018549]), array([-0.01688333]), array([-0.013398]), array([-0.007461]), array([ 0.005885]), array([ 0.00937533]), array([ 0.006363]), array([ 0.00356267]), array([ 0.01837933]), array([-0.02752067]), array([ 0.018514]), array([ 0.00440233]), array([-0.007852]), array([ 0.00894167]), array([ 0.01494567]), array([ 0.018277]), array([ 0.01088267]), array([ 0.01359467]), array([ 0.005111]), array([ 0.00614867]), array([-0.01227167]), array([-0.02243967]), array([ 0.006577]), array([-0.00602833]), array([-0.00246733]), array([ 0.017065]), array([ 0.01615067]), array([ 0.00057467]), array([ 0.02114367]), array([ 0.02054733]), array([ 0.00241367]), array([ 0.00066033]), array([ 0.00261467]), array([ 0.00650967]), array([ 0.007948]), array([-0.005796]), array([-0.00717567]), array([ 0.01199533]), array([ 0.008315]), array([-0.00146]), array([ 0.00813767]), array([ 0.00099067]), array([ 0.00015333]), array([-0.00373433]), array([ 0.007106]), array([-0.00319433]), array([-0.00537533]), array([ 0.00672467]), array([ 0.001206]), array([ 0.005731]), array([-0.01492033]), array([-0.01632867]), array([ 0.00288767])]</t>
+  </si>
+  <si>
+    <t>[array([ 0.00912967]), array([-0.09894867]), array([-0.18517933]), array([-0.05591822]), array([ 0.022123]), array([-0.07743233]), array([-0.100462]), array([ 0.086515]), array([ 0.10922567]), array([ 0.04963]), array([-0.00652478]), array([ 0.081569]), array([ 0.03131733]), array([ 0.006363]), array([ 0.00356267]), array([ 0.03127167]), array([ 0.02837733]), array([-0.037146]), array([ 0.03131878]), array([ 0.01592567]), array([ 0.01381633]), array([-0.03739656]), array([-0.050817]), array([ 0.07015967]), array([-0.00525233]), array([ 0.06263167]), array([ 0.02049267]), array([-0.00843567]), array([ 0.06703333]), array([ 0.00796078]), array([ 0.03805667]), array([-0.00246733]), array([ 0.017065]), array([ 0.01615067]), array([-0.01842833]), array([ 0.001745]), array([ 0.02054733]), array([ 0.00241367]), array([ 0.06360756]), array([-0.00623533]), array([ 0.00369467]), array([ 0.007948]), array([ 0.04111]), array([ 0.02392733]), array([-0.00058]), array([-0.016325]), array([ 0.038081]), array([ 0.00813767]), array([ 0.02058367]), array([ 0.01183956]), array([-0.01418433]), array([ 0.00644667]), array([-0.00319433]), array([ 0.04083322]), array([ 0.00757133]), array([ 0.001206]), array([ 0.011841]), array([ 0.01148756]), array([-0.015774])]</t>
+  </si>
+  <si>
+    <t>[ 1.          1.          1.          0.77777778  1.          1.          1.
+  1.          1.          0.77777778  0.22222222  1.          1.          0.
+  0.          0.33333333  1.          1.          0.88888889  0.33333333
+  0.44444444  0.55555556  1.          1.          0.33333333  0.66666667
+  0.44444444  0.22222222  1.          0.11111111  1.          0.          0.
+  0.          1.          0.44444444  0.          0.          0.55555556
+  1.          1.          0.          1.          1.          0.66666667
+  0.33333333  1.          0.          0.77777778  0.44444444  1.
+  0.66666667  0.          0.77777778  0.55555556  0.          0.66666667
+  0.77777778  0.44444444]</t>
+  </si>
+  <si>
+    <t>[array([ 0.00589067]), array([ 0.007997]), array([-0.01556622]), array([ 0.01028567]), array([-0.07034578]), array([ 0.022123]), array([-0.01699933]), array([-0.005286]), array([ 0.018549]), array([-0.00287122]), array([-0.004394]), array([-0.003248]), array([ 0.056341]), array([ 0.02644133]), array([ 0.006363]), array([-0.00346267]), array([ 0.044164]), array([-0.02752067]), array([-0.00622378]), array([ 0.01113144]), array([ 0.04762922]), array([ 0.01259767]), array([-0.06880189]), array([-0.03546278]), array([ 0.017469]), array([-0.04294633]), array([ 0.02428456]), array([ 0.01690667]), array([-0.00459967]), array([ 0.06703333]), array([ 0.01626344]), array([-0.00113]), array([ 0.00264378]), array([ 0.02735211]), array([-0.008053]), array([-0.00153678]), array([ 0.016294]), array([ 0.003206]), array([-0.00728567]), array([ 0.11396533]), array([-0.00623533]), array([ 0.00525856]), array([ 0.007948]), array([ 0.01505111]), array([ 0.00664789]), array([ 0.01199533]), array([ 0.008315]), array([ 0.02929411]), array([ 0.009501]), array([ 0.00938767]), array([ 0.01183956]), array([-0.010701]), array([ 0.00677633]), array([-0.00145356]), array([ 0.02763078]), array([ 0.00774067]), array([ 0.00876]), array([ 0.005731]), array([-0.01492033])]</t>
+  </si>
+  <si>
+    <t>[ 0.          0.33333333  0.22222222  0.          0.88888889  1.          0.
+  0.          0.          0.11111111  0.11111111  1.          0.66666667
+  0.77777778  0.          0.22222222  0.66666667  0.          0.44444444
+  0.22222222  0.77777778  0.33333333  0.88888889  0.77777778  0.11111111
+  1.          0.22222222  0.33333333  0.44444444  1.          0.77777778
+  0.11111111  0.88888889  0.88888889  0.77777778  0.11111111  0.11111111
+  0.22222222  0.11111111  1.          1.          0.44444444  0.
+  0.44444444  0.44444444  0.          0.          0.77777778  0.66666667
+  0.33333333  0.44444444  0.66666667  0.33333333  0.11111111  0.55555556
+  0.66666667  0.22222222  0.          0.        ]</t>
   </si>
 </sst>
 </file>
@@ -14444,10 +15781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G323"/>
+  <dimension ref="A1:G425"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
-      <selection activeCell="G323" sqref="G323"/>
+    <sheetView tabSelected="1" topLeftCell="A399" workbookViewId="0">
+      <selection activeCell="G416" sqref="G416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21881,6 +23218,2352 @@
         <v>561</v>
       </c>
     </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>1</v>
+      </c>
+      <c r="B324" t="s">
+        <v>10</v>
+      </c>
+      <c r="C324">
+        <v>-0.92365745294112811</v>
+      </c>
+      <c r="D324" t="s">
+        <v>584</v>
+      </c>
+      <c r="E324">
+        <v>1.0826524452498929</v>
+      </c>
+      <c r="F324">
+        <v>58.165114818341351</v>
+      </c>
+      <c r="G324">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>0.97551789077212814</v>
+      </c>
+      <c r="B325" t="s">
+        <v>583</v>
+      </c>
+      <c r="C325">
+        <v>-0.96321839278443078</v>
+      </c>
+      <c r="D325" t="s">
+        <v>582</v>
+      </c>
+      <c r="E325">
+        <v>1.0381861553839751</v>
+      </c>
+      <c r="F325">
+        <v>61.067211818417903</v>
+      </c>
+      <c r="G325">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>0</v>
+      </c>
+      <c r="B326" t="s">
+        <v>7</v>
+      </c>
+      <c r="C326">
+        <v>-0.86949444668452558</v>
+      </c>
+      <c r="D326" t="s">
+        <v>581</v>
+      </c>
+      <c r="E326">
+        <v>1.1500936018776271</v>
+      </c>
+      <c r="F326">
+        <v>58.152233111105303</v>
+      </c>
+      <c r="G326">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>1.1299435028248589E-2</v>
+      </c>
+      <c r="B327" t="s">
+        <v>580</v>
+      </c>
+      <c r="C327">
+        <v>-0.90461867670969431</v>
+      </c>
+      <c r="D327" t="s">
+        <v>579</v>
+      </c>
+      <c r="E327">
+        <v>1.1054381539382201</v>
+      </c>
+      <c r="F327">
+        <v>59.4570560830822</v>
+      </c>
+      <c r="G327">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>0.92843691148775886</v>
+      </c>
+      <c r="B328" t="s">
+        <v>578</v>
+      </c>
+      <c r="C328">
+        <v>-0.73503201671940888</v>
+      </c>
+      <c r="D328" t="s">
+        <v>577</v>
+      </c>
+      <c r="E328">
+        <v>1.3604849547414199</v>
+      </c>
+      <c r="F328">
+        <v>66.192920383696162</v>
+      </c>
+      <c r="G328">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>0.35969868173258002</v>
+      </c>
+      <c r="B329" t="s">
+        <v>576</v>
+      </c>
+      <c r="C329">
+        <v>-0.9336913718665526</v>
+      </c>
+      <c r="D329" t="s">
+        <v>575</v>
+      </c>
+      <c r="E329">
+        <v>1.071017715415844</v>
+      </c>
+      <c r="F329">
+        <v>84.357205083607411</v>
+      </c>
+      <c r="G329">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>0.19585687382297551</v>
+      </c>
+      <c r="B330" t="s">
+        <v>574</v>
+      </c>
+      <c r="C330">
+        <v>-0.81528606997743669</v>
+      </c>
+      <c r="D330" t="s">
+        <v>573</v>
+      </c>
+      <c r="E330">
+        <v>1.226563333809537</v>
+      </c>
+      <c r="F330">
+        <v>74.433818888021875</v>
+      </c>
+      <c r="G330">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>0.94350282485875703</v>
+      </c>
+      <c r="B331" t="s">
+        <v>572</v>
+      </c>
+      <c r="C331">
+        <v>-0.84798641333149583</v>
+      </c>
+      <c r="D331" t="s">
+        <v>571</v>
+      </c>
+      <c r="E331">
+        <v>1.1792641772069039</v>
+      </c>
+      <c r="F331">
+        <v>64.337711168559352</v>
+      </c>
+      <c r="G331">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>9.2278719397363457E-2</v>
+      </c>
+      <c r="B332" t="s">
+        <v>570</v>
+      </c>
+      <c r="C332">
+        <v>-1.0684813429664259</v>
+      </c>
+      <c r="D332" t="s">
+        <v>569</v>
+      </c>
+      <c r="E332">
+        <v>0.93590777843972361</v>
+      </c>
+      <c r="F332">
+        <v>66.714579680573308</v>
+      </c>
+      <c r="G332">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>2.2598870056497179E-2</v>
+      </c>
+      <c r="B333" t="s">
+        <v>568</v>
+      </c>
+      <c r="C333">
+        <v>-0.90619680109365763</v>
+      </c>
+      <c r="D333" t="s">
+        <v>567</v>
+      </c>
+      <c r="E333">
+        <v>1.103513054551875</v>
+      </c>
+      <c r="F333">
+        <v>60.803940468136616</v>
+      </c>
+      <c r="G333">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>1</v>
+      </c>
+      <c r="B334" t="s">
+        <v>10</v>
+      </c>
+      <c r="C334">
+        <v>-0.70385094858502939</v>
+      </c>
+      <c r="D334" t="s">
+        <v>566</v>
+      </c>
+      <c r="E334">
+        <v>1.4207553488566389</v>
+      </c>
+      <c r="F334">
+        <v>58.074332384809587</v>
+      </c>
+      <c r="G334">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>0.88512241054613938</v>
+      </c>
+      <c r="B335" t="s">
+        <v>565</v>
+      </c>
+      <c r="C335">
+        <v>-0.71386894215970953</v>
+      </c>
+      <c r="D335" t="s">
+        <v>564</v>
+      </c>
+      <c r="E335">
+        <v>1.4008173502753061</v>
+      </c>
+      <c r="F335">
+        <v>66.461467871420481</v>
+      </c>
+      <c r="G335">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="B336" t="s">
+        <v>563</v>
+      </c>
+      <c r="C336">
+        <v>-0.85767131840755617</v>
+      </c>
+      <c r="D336" t="s">
+        <v>562</v>
+      </c>
+      <c r="E336">
+        <v>1.165947815366738</v>
+      </c>
+      <c r="F336">
+        <v>81.889819474224112</v>
+      </c>
+      <c r="G336">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>0.22410546139359699</v>
+      </c>
+      <c r="B337" t="s">
+        <v>561</v>
+      </c>
+      <c r="C337">
+        <v>-0.77490857818273917</v>
+      </c>
+      <c r="D337" t="s">
+        <v>560</v>
+      </c>
+      <c r="E337">
+        <v>1.2904748097448211</v>
+      </c>
+      <c r="F337">
+        <v>77.954763734253532</v>
+      </c>
+      <c r="G337">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>0.29566854990583802</v>
+      </c>
+      <c r="B338" t="s">
+        <v>559</v>
+      </c>
+      <c r="C338">
+        <v>-0.78034884620501099</v>
+      </c>
+      <c r="D338" t="s">
+        <v>558</v>
+      </c>
+      <c r="E338">
+        <v>1.2814781553957511</v>
+      </c>
+      <c r="F338">
+        <v>81.679986798297705</v>
+      </c>
+      <c r="G338">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>2.4482109227871938E-2</v>
+      </c>
+      <c r="B339" t="s">
+        <v>557</v>
+      </c>
+      <c r="C339">
+        <v>-0.86986493051615965</v>
+      </c>
+      <c r="D339" t="s">
+        <v>556</v>
+      </c>
+      <c r="E339">
+        <v>1.1496037659624021</v>
+      </c>
+      <c r="F339">
+        <v>60.993557049564629</v>
+      </c>
+      <c r="G339">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>0.3352165725047081</v>
+      </c>
+      <c r="B340" t="s">
+        <v>555</v>
+      </c>
+      <c r="C340">
+        <v>-0.85515470357813073</v>
+      </c>
+      <c r="D340" t="s">
+        <v>554</v>
+      </c>
+      <c r="E340">
+        <v>1.169379055995142</v>
+      </c>
+      <c r="F340">
+        <v>79.365865488193649</v>
+      </c>
+      <c r="G340">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>0.67796610169491522</v>
+      </c>
+      <c r="B341" t="s">
+        <v>553</v>
+      </c>
+      <c r="C341">
+        <v>-0.6429664225380185</v>
+      </c>
+      <c r="D341" t="s">
+        <v>552</v>
+      </c>
+      <c r="E341">
+        <v>1.555291170653426</v>
+      </c>
+      <c r="F341">
+        <v>80.862955504546719</v>
+      </c>
+      <c r="G341">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>4.5197740112994357E-2</v>
+      </c>
+      <c r="B342" t="s">
+        <v>551</v>
+      </c>
+      <c r="C342">
+        <v>-0.93588251207848849</v>
+      </c>
+      <c r="D342" t="s">
+        <v>550</v>
+      </c>
+      <c r="E342">
+        <v>1.06851018914662</v>
+      </c>
+      <c r="F342">
+        <v>62.830398557533208</v>
+      </c>
+      <c r="G342">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>0.25423728813559321</v>
+      </c>
+      <c r="B343" t="s">
+        <v>549</v>
+      </c>
+      <c r="C343">
+        <v>-0.81546599710348389</v>
+      </c>
+      <c r="D343" t="s">
+        <v>548</v>
+      </c>
+      <c r="E343">
+        <v>1.226292700801721</v>
+      </c>
+      <c r="F343">
+        <v>77.179855609955823</v>
+      </c>
+      <c r="G343">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>0.935969868173258</v>
+      </c>
+      <c r="B344" t="s">
+        <v>547</v>
+      </c>
+      <c r="C344">
+        <v>-0.61388895644338315</v>
+      </c>
+      <c r="D344" t="s">
+        <v>546</v>
+      </c>
+      <c r="E344">
+        <v>1.628959096761706</v>
+      </c>
+      <c r="F344">
+        <v>64.52955193961138</v>
+      </c>
+      <c r="G344">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>6.5913370998116755E-2</v>
+      </c>
+      <c r="B345" t="s">
+        <v>545</v>
+      </c>
+      <c r="C345">
+        <v>-1.01963857359354</v>
+      </c>
+      <c r="D345" t="s">
+        <v>544</v>
+      </c>
+      <c r="E345">
+        <v>0.98073967177965049</v>
+      </c>
+      <c r="F345">
+        <v>63.598489999656373</v>
+      </c>
+      <c r="G345">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>0.98116760828625238</v>
+      </c>
+      <c r="B346" t="s">
+        <v>543</v>
+      </c>
+      <c r="C346">
+        <v>-0.55012003720160174</v>
+      </c>
+      <c r="D346" t="s">
+        <v>542</v>
+      </c>
+      <c r="E346">
+        <v>1.8177850875726811</v>
+      </c>
+      <c r="F346">
+        <v>60.24755353231717</v>
+      </c>
+      <c r="G346">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>0.63088512241054628</v>
+      </c>
+      <c r="B347" t="s">
+        <v>541</v>
+      </c>
+      <c r="C347">
+        <v>-0.6442071866469129</v>
+      </c>
+      <c r="D347" t="s">
+        <v>540</v>
+      </c>
+      <c r="E347">
+        <v>1.5522956289962899</v>
+      </c>
+      <c r="F347">
+        <v>81.072273815596077</v>
+      </c>
+      <c r="G347">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>0.78907721280602627</v>
+      </c>
+      <c r="B348" t="s">
+        <v>539</v>
+      </c>
+      <c r="C348">
+        <v>-0.63651363325902788</v>
+      </c>
+      <c r="D348" t="s">
+        <v>538</v>
+      </c>
+      <c r="E348">
+        <v>1.5710582582180961</v>
+      </c>
+      <c r="F348">
+        <v>76.520416847536993</v>
+      </c>
+      <c r="G348">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>1.8832391713747652E-2</v>
+      </c>
+      <c r="B349" t="s">
+        <v>537</v>
+      </c>
+      <c r="C349">
+        <v>-0.96734625579510181</v>
+      </c>
+      <c r="D349" t="s">
+        <v>536</v>
+      </c>
+      <c r="E349">
+        <v>1.0337560041291101</v>
+      </c>
+      <c r="F349">
+        <v>60.3129884187789</v>
+      </c>
+      <c r="G349">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>0.58380414312617701</v>
+      </c>
+      <c r="B350" t="s">
+        <v>535</v>
+      </c>
+      <c r="C350">
+        <v>-0.6470027234682032</v>
+      </c>
+      <c r="D350" t="s">
+        <v>534</v>
+      </c>
+      <c r="E350">
+        <v>1.5455885481278731</v>
+      </c>
+      <c r="F350">
+        <v>84.712191693041405</v>
+      </c>
+      <c r="G350">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <v>0.23728813559322029</v>
+      </c>
+      <c r="B351" t="s">
+        <v>533</v>
+      </c>
+      <c r="C351">
+        <v>-0.85453703025966676</v>
+      </c>
+      <c r="D351" t="s">
+        <v>532</v>
+      </c>
+      <c r="E351">
+        <v>1.1702243022705889</v>
+      </c>
+      <c r="F351">
+        <v>76.876345383506901</v>
+      </c>
+      <c r="G351">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <v>1</v>
+      </c>
+      <c r="B352" t="s">
+        <v>10</v>
+      </c>
+      <c r="C352">
+        <v>-0.65154857205886552</v>
+      </c>
+      <c r="D352" t="s">
+        <v>531</v>
+      </c>
+      <c r="E352">
+        <v>1.534804990578128</v>
+      </c>
+      <c r="F352">
+        <v>58.081363034940438</v>
+      </c>
+      <c r="G352">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>1</v>
+      </c>
+      <c r="B353" t="s">
+        <v>10</v>
+      </c>
+      <c r="C353">
+        <v>-0.65977593237838505</v>
+      </c>
+      <c r="D353" t="s">
+        <v>530</v>
+      </c>
+      <c r="E353">
+        <v>1.515666078323231</v>
+      </c>
+      <c r="F353">
+        <v>58.060220514493167</v>
+      </c>
+      <c r="G353">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>0.4143126177024482</v>
+      </c>
+      <c r="B354" t="s">
+        <v>529</v>
+      </c>
+      <c r="C354">
+        <v>-0.82121180369758073</v>
+      </c>
+      <c r="D354" t="s">
+        <v>528</v>
+      </c>
+      <c r="E354">
+        <v>1.2177126479397999</v>
+      </c>
+      <c r="F354">
+        <v>82.712184433067051</v>
+      </c>
+      <c r="G354">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>0</v>
+      </c>
+      <c r="B355" t="s">
+        <v>7</v>
+      </c>
+      <c r="C355">
+        <v>-0.94726916408763062</v>
+      </c>
+      <c r="D355" t="s">
+        <v>527</v>
+      </c>
+      <c r="E355">
+        <v>1.055666159008942</v>
+      </c>
+      <c r="F355">
+        <v>58.053512792242913</v>
+      </c>
+      <c r="G355">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>0.5122410546139361</v>
+      </c>
+      <c r="B356" t="s">
+        <v>526</v>
+      </c>
+      <c r="C356">
+        <v>-0.84048822815161639</v>
+      </c>
+      <c r="D356" t="s">
+        <v>525</v>
+      </c>
+      <c r="E356">
+        <v>1.189784659089371</v>
+      </c>
+      <c r="F356">
+        <v>83.393120845102175</v>
+      </c>
+      <c r="G356">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>0.98870056497175129</v>
+      </c>
+      <c r="B357" t="s">
+        <v>524</v>
+      </c>
+      <c r="C357">
+        <v>-0.77223142646544418</v>
+      </c>
+      <c r="D357" t="s">
+        <v>523</v>
+      </c>
+      <c r="E357">
+        <v>1.2949485940724641</v>
+      </c>
+      <c r="F357">
+        <v>59.425775892161198</v>
+      </c>
+      <c r="G357">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A358">
+        <v>0.74387947269303201</v>
+      </c>
+      <c r="B358" t="s">
+        <v>522</v>
+      </c>
+      <c r="C358">
+        <v>-0.79952671550549126</v>
+      </c>
+      <c r="D358" t="s">
+        <v>521</v>
+      </c>
+      <c r="E358">
+        <v>1.250739944778158</v>
+      </c>
+      <c r="F358">
+        <v>78.758885460266498</v>
+      </c>
+      <c r="G358">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A359">
+        <v>0.71751412429378525</v>
+      </c>
+      <c r="B359" t="s">
+        <v>585</v>
+      </c>
+      <c r="C359">
+        <v>-1.173541514238142</v>
+      </c>
+      <c r="D359" t="s">
+        <v>586</v>
+      </c>
+      <c r="E359">
+        <v>0.85212153798342249</v>
+      </c>
+      <c r="F359">
+        <v>77.393188617923471</v>
+      </c>
+      <c r="G359">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <v>0.99623352165725043</v>
+      </c>
+      <c r="B360" t="s">
+        <v>587</v>
+      </c>
+      <c r="C360">
+        <v>-1.156120111267616</v>
+      </c>
+      <c r="D360" t="s">
+        <v>588</v>
+      </c>
+      <c r="E360">
+        <v>0.86496203141346673</v>
+      </c>
+      <c r="F360">
+        <v>58.454082386265974</v>
+      </c>
+      <c r="G360">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <v>0.80602636534839922</v>
+      </c>
+      <c r="B361" t="s">
+        <v>589</v>
+      </c>
+      <c r="C361">
+        <v>-1.215606884429016</v>
+      </c>
+      <c r="D361" t="s">
+        <v>590</v>
+      </c>
+      <c r="E361">
+        <v>0.82263436708793469</v>
+      </c>
+      <c r="F361">
+        <v>72.617820052694782</v>
+      </c>
+      <c r="G361">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <v>0.89830508474576276</v>
+      </c>
+      <c r="B362" t="s">
+        <v>591</v>
+      </c>
+      <c r="C362">
+        <v>-1.388100286196893</v>
+      </c>
+      <c r="D362" t="s">
+        <v>592</v>
+      </c>
+      <c r="E362">
+        <v>0.72040904388817095</v>
+      </c>
+      <c r="F362">
+        <v>68.169787928094365</v>
+      </c>
+      <c r="G362">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <v>0.35404896421845572</v>
+      </c>
+      <c r="B363" t="s">
+        <v>593</v>
+      </c>
+      <c r="C363">
+        <v>-1.326309138877537</v>
+      </c>
+      <c r="D363" t="s">
+        <v>594</v>
+      </c>
+      <c r="E363">
+        <v>0.75397203463915363</v>
+      </c>
+      <c r="F363">
+        <v>78.497160845915886</v>
+      </c>
+      <c r="G363">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>0</v>
+      </c>
+      <c r="B364" t="s">
+        <v>7</v>
+      </c>
+      <c r="C364">
+        <v>-0.87259187289679385</v>
+      </c>
+      <c r="D364" t="s">
+        <v>595</v>
+      </c>
+      <c r="E364">
+        <v>1.1460111319628059</v>
+      </c>
+      <c r="F364">
+        <v>58.122727626803098</v>
+      </c>
+      <c r="G364">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <v>0.27871939736346513</v>
+      </c>
+      <c r="B365" t="s">
+        <v>596</v>
+      </c>
+      <c r="C365">
+        <v>-1.0028530632602271</v>
+      </c>
+      <c r="D365" t="s">
+        <v>597</v>
+      </c>
+      <c r="E365">
+        <v>0.99715505355196077</v>
+      </c>
+      <c r="F365">
+        <v>79.107776535704943</v>
+      </c>
+      <c r="G365">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A366">
+        <v>0.80979284369114879</v>
+      </c>
+      <c r="B366" t="s">
+        <v>598</v>
+      </c>
+      <c r="C366">
+        <v>-0.93007814885967766</v>
+      </c>
+      <c r="D366" t="s">
+        <v>599</v>
+      </c>
+      <c r="E366">
+        <v>1.075178468848075</v>
+      </c>
+      <c r="F366">
+        <v>76.386062243663304</v>
+      </c>
+      <c r="G366">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <v>0.25800376647834272</v>
+      </c>
+      <c r="B367" t="s">
+        <v>600</v>
+      </c>
+      <c r="C367">
+        <v>-0.82699083602940793</v>
+      </c>
+      <c r="D367" t="s">
+        <v>601</v>
+      </c>
+      <c r="E367">
+        <v>1.2092032419624541</v>
+      </c>
+      <c r="F367">
+        <v>75.843951445792072</v>
+      </c>
+      <c r="G367">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A368">
+        <v>0.95480225988700562</v>
+      </c>
+      <c r="B368" t="s">
+        <v>602</v>
+      </c>
+      <c r="C368">
+        <v>-1.003517730296986</v>
+      </c>
+      <c r="D368" t="s">
+        <v>603</v>
+      </c>
+      <c r="E368">
+        <v>0.99649460075215135</v>
+      </c>
+      <c r="F368">
+        <v>62.80409427360263</v>
+      </c>
+      <c r="G368">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <v>0.62523540489642182</v>
+      </c>
+      <c r="B369" t="s">
+        <v>604</v>
+      </c>
+      <c r="C369">
+        <v>-1.2135554589371631</v>
+      </c>
+      <c r="D369" t="s">
+        <v>605</v>
+      </c>
+      <c r="E369">
+        <v>0.82402496946930159</v>
+      </c>
+      <c r="F369">
+        <v>81.645413704793327</v>
+      </c>
+      <c r="G369">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <v>0.69868173258003763</v>
+      </c>
+      <c r="B370" t="s">
+        <v>606</v>
+      </c>
+      <c r="C370">
+        <v>-0.88254446240862638</v>
+      </c>
+      <c r="D370" t="s">
+        <v>607</v>
+      </c>
+      <c r="E370">
+        <v>1.1330873883348791</v>
+      </c>
+      <c r="F370">
+        <v>79.138814989716096</v>
+      </c>
+      <c r="G370">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A371">
+        <v>0.41807909604519777</v>
+      </c>
+      <c r="B371" t="s">
+        <v>608</v>
+      </c>
+      <c r="C371">
+        <v>-0.66826071663802711</v>
+      </c>
+      <c r="D371" t="s">
+        <v>609</v>
+      </c>
+      <c r="E371">
+        <v>1.4964219429670049</v>
+      </c>
+      <c r="F371">
+        <v>79.644805784076794</v>
+      </c>
+      <c r="G371">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A372">
+        <v>0.97551789077212792</v>
+      </c>
+      <c r="B372" t="s">
+        <v>610</v>
+      </c>
+      <c r="C372">
+        <v>-1.0770438508796849</v>
+      </c>
+      <c r="D372" t="s">
+        <v>611</v>
+      </c>
+      <c r="E372">
+        <v>0.92846730352087481</v>
+      </c>
+      <c r="F372">
+        <v>61.063973633218573</v>
+      </c>
+      <c r="G372">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A373">
+        <v>4.331450094161958E-2</v>
+      </c>
+      <c r="B373" t="s">
+        <v>612</v>
+      </c>
+      <c r="C373">
+        <v>-0.86842495111165074</v>
+      </c>
+      <c r="D373" t="s">
+        <v>613</v>
+      </c>
+      <c r="E373">
+        <v>1.1515099822039001</v>
+      </c>
+      <c r="F373">
+        <v>62.186493413455153</v>
+      </c>
+      <c r="G373">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A374">
+        <v>0.16572504708097929</v>
+      </c>
+      <c r="B374" t="s">
+        <v>614</v>
+      </c>
+      <c r="C374">
+        <v>-0.84291494594907501</v>
+      </c>
+      <c r="D374" t="s">
+        <v>615</v>
+      </c>
+      <c r="E374">
+        <v>1.186359317515786</v>
+      </c>
+      <c r="F374">
+        <v>70.248886393230023</v>
+      </c>
+      <c r="G374">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A375">
+        <v>4.519774011299435E-2</v>
+      </c>
+      <c r="B375" t="s">
+        <v>616</v>
+      </c>
+      <c r="C375">
+        <v>-0.8706606413148219</v>
+      </c>
+      <c r="D375" t="s">
+        <v>617</v>
+      </c>
+      <c r="E375">
+        <v>1.1485531245444349</v>
+      </c>
+      <c r="F375">
+        <v>63.464942277912577</v>
+      </c>
+      <c r="G375">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A376">
+        <v>0.34086629001883229</v>
+      </c>
+      <c r="B376" t="s">
+        <v>618</v>
+      </c>
+      <c r="C376">
+        <v>-1.1254084112518541</v>
+      </c>
+      <c r="D376" t="s">
+        <v>619</v>
+      </c>
+      <c r="E376">
+        <v>0.88856631068506464</v>
+      </c>
+      <c r="F376">
+        <v>79.626375985320365</v>
+      </c>
+      <c r="G376">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A377">
+        <v>0.99246704331450097</v>
+      </c>
+      <c r="B377" t="s">
+        <v>620</v>
+      </c>
+      <c r="C377">
+        <v>-0.88690536038043311</v>
+      </c>
+      <c r="D377" t="s">
+        <v>621</v>
+      </c>
+      <c r="E377">
+        <v>1.127516017685422</v>
+      </c>
+      <c r="F377">
+        <v>58.987872114153191</v>
+      </c>
+      <c r="G377">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A378">
+        <v>0.70621468926553665</v>
+      </c>
+      <c r="B378" t="s">
+        <v>622</v>
+      </c>
+      <c r="C378">
+        <v>-1.14355570234369</v>
+      </c>
+      <c r="D378" t="s">
+        <v>623</v>
+      </c>
+      <c r="E378">
+        <v>0.87446549210547797</v>
+      </c>
+      <c r="F378">
+        <v>77.8020800519391</v>
+      </c>
+      <c r="G378">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A379">
+        <v>0.45762711864406769</v>
+      </c>
+      <c r="B379" t="s">
+        <v>624</v>
+      </c>
+      <c r="C379">
+        <v>-0.85685758371563192</v>
+      </c>
+      <c r="D379" t="s">
+        <v>625</v>
+      </c>
+      <c r="E379">
+        <v>1.1670550847710921</v>
+      </c>
+      <c r="F379">
+        <v>80.16676557296455</v>
+      </c>
+      <c r="G379">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A380">
+        <v>0.67796610169491522</v>
+      </c>
+      <c r="B380" t="s">
+        <v>626</v>
+      </c>
+      <c r="C380">
+        <v>-0.7870100807547854</v>
+      </c>
+      <c r="D380" t="s">
+        <v>627</v>
+      </c>
+      <c r="E380">
+        <v>1.270631754857505</v>
+      </c>
+      <c r="F380">
+        <v>79.33673590365818</v>
+      </c>
+      <c r="G380">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A381">
+        <v>0.13182674199623351</v>
+      </c>
+      <c r="B381" t="s">
+        <v>628</v>
+      </c>
+      <c r="C381">
+        <v>-0.85443192667515067</v>
+      </c>
+      <c r="D381" t="s">
+        <v>629</v>
+      </c>
+      <c r="E381">
+        <v>1.170368251443153</v>
+      </c>
+      <c r="F381">
+        <v>66.265397592827497</v>
+      </c>
+      <c r="G381">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A382">
+        <v>5.6497175141242938E-3</v>
+      </c>
+      <c r="B382" t="s">
+        <v>630</v>
+      </c>
+      <c r="C382">
+        <v>-0.81351492975179407</v>
+      </c>
+      <c r="D382" t="s">
+        <v>631</v>
+      </c>
+      <c r="E382">
+        <v>1.229233740436827</v>
+      </c>
+      <c r="F382">
+        <v>58.86388802391923</v>
+      </c>
+      <c r="G382">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A383">
+        <v>0.92090395480225984</v>
+      </c>
+      <c r="B383" t="s">
+        <v>632</v>
+      </c>
+      <c r="C383">
+        <v>-0.89727739052853428</v>
+      </c>
+      <c r="D383" t="s">
+        <v>633</v>
+      </c>
+      <c r="E383">
+        <v>1.1144825564042771</v>
+      </c>
+      <c r="F383">
+        <v>64.197042626122865</v>
+      </c>
+      <c r="G383">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A384">
+        <v>0.50470809792843696</v>
+      </c>
+      <c r="B384" t="s">
+        <v>634</v>
+      </c>
+      <c r="C384">
+        <v>-1.218254517729682</v>
+      </c>
+      <c r="D384" t="s">
+        <v>635</v>
+      </c>
+      <c r="E384">
+        <v>0.8208465353065818</v>
+      </c>
+      <c r="F384">
+        <v>77.983401256988472</v>
+      </c>
+      <c r="G384">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A385">
+        <v>0.6158192090395479</v>
+      </c>
+      <c r="B385" t="s">
+        <v>636</v>
+      </c>
+      <c r="C385">
+        <v>-0.7856746969566879</v>
+      </c>
+      <c r="D385" t="s">
+        <v>637</v>
+      </c>
+      <c r="E385">
+        <v>1.2727914032022429</v>
+      </c>
+      <c r="F385">
+        <v>71.446108850460618</v>
+      </c>
+      <c r="G385">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A386">
+        <v>0.128060263653484</v>
+      </c>
+      <c r="B386" t="s">
+        <v>638</v>
+      </c>
+      <c r="C386">
+        <v>-0.8737305711136587</v>
+      </c>
+      <c r="D386" t="s">
+        <v>639</v>
+      </c>
+      <c r="E386">
+        <v>1.1445175813470709</v>
+      </c>
+      <c r="F386">
+        <v>71.473060316150409</v>
+      </c>
+      <c r="G386">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A387">
+        <v>0.2504708097928437</v>
+      </c>
+      <c r="B387" t="s">
+        <v>640</v>
+      </c>
+      <c r="C387">
+        <v>-0.59297877907480145</v>
+      </c>
+      <c r="D387" t="s">
+        <v>641</v>
+      </c>
+      <c r="E387">
+        <v>1.6864009898638459</v>
+      </c>
+      <c r="F387">
+        <v>75.671386569013748</v>
+      </c>
+      <c r="G387">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A388">
+        <v>0.37476459510357812</v>
+      </c>
+      <c r="B388" t="s">
+        <v>642</v>
+      </c>
+      <c r="C388">
+        <v>-0.62292461081518702</v>
+      </c>
+      <c r="D388" t="s">
+        <v>643</v>
+      </c>
+      <c r="E388">
+        <v>1.6053306975483841</v>
+      </c>
+      <c r="F388">
+        <v>78.208630006084448</v>
+      </c>
+      <c r="G388">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A389">
+        <v>3.766478342749529E-3</v>
+      </c>
+      <c r="B389" t="s">
+        <v>644</v>
+      </c>
+      <c r="C389">
+        <v>-0.80272855081660754</v>
+      </c>
+      <c r="D389" t="s">
+        <v>645</v>
+      </c>
+      <c r="E389">
+        <v>1.2457511309180549</v>
+      </c>
+      <c r="F389">
+        <v>58.662697561528411</v>
+      </c>
+      <c r="G389">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A390">
+        <v>0.28060263653483991</v>
+      </c>
+      <c r="B390" t="s">
+        <v>646</v>
+      </c>
+      <c r="C390">
+        <v>-0.75638524864450707</v>
+      </c>
+      <c r="D390" t="s">
+        <v>647</v>
+      </c>
+      <c r="E390">
+        <v>1.3220776076636429</v>
+      </c>
+      <c r="F390">
+        <v>82.770285029140098</v>
+      </c>
+      <c r="G390">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A391">
+        <v>0.59887005649717506</v>
+      </c>
+      <c r="B391" t="s">
+        <v>648</v>
+      </c>
+      <c r="C391">
+        <v>-0.88366276374063313</v>
+      </c>
+      <c r="D391" t="s">
+        <v>649</v>
+      </c>
+      <c r="E391">
+        <v>1.131653432772135</v>
+      </c>
+      <c r="F391">
+        <v>87.496555446142025</v>
+      </c>
+      <c r="G391">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A392">
+        <v>0.93408662900188311</v>
+      </c>
+      <c r="B392" t="s">
+        <v>650</v>
+      </c>
+      <c r="C392">
+        <v>-0.83681856489689332</v>
+      </c>
+      <c r="D392" t="s">
+        <v>651</v>
+      </c>
+      <c r="E392">
+        <v>1.19500216886705</v>
+      </c>
+      <c r="F392">
+        <v>64.883514660914898</v>
+      </c>
+      <c r="G392">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A393">
+        <v>0.66101694915254239</v>
+      </c>
+      <c r="B393" t="s">
+        <v>652</v>
+      </c>
+      <c r="C393">
+        <v>-1.2313364342476909</v>
+      </c>
+      <c r="D393" t="s">
+        <v>653</v>
+      </c>
+      <c r="E393">
+        <v>0.8121257295622617</v>
+      </c>
+      <c r="F393">
+        <v>72.661823491360167</v>
+      </c>
+      <c r="G393">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A394">
+        <v>0.80602636534839922</v>
+      </c>
+      <c r="B394" t="s">
+        <v>654</v>
+      </c>
+      <c r="C394">
+        <v>-1.0936989074876491</v>
+      </c>
+      <c r="D394" t="s">
+        <v>655</v>
+      </c>
+      <c r="E394">
+        <v>0.91432842545039561</v>
+      </c>
+      <c r="F394">
+        <v>71.712920464293305</v>
+      </c>
+      <c r="G394">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A395">
+        <v>0.79849340866290019</v>
+      </c>
+      <c r="B395" t="s">
+        <v>656</v>
+      </c>
+      <c r="C395">
+        <v>-1.0053937162152291</v>
+      </c>
+      <c r="D395" t="s">
+        <v>657</v>
+      </c>
+      <c r="E395">
+        <v>0.99463521988626136</v>
+      </c>
+      <c r="F395">
+        <v>75.000563809628872</v>
+      </c>
+      <c r="G395">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A396">
+        <v>0.1129943502824859</v>
+      </c>
+      <c r="B396" t="s">
+        <v>658</v>
+      </c>
+      <c r="C396">
+        <v>-0.71884553427979747</v>
+      </c>
+      <c r="D396" t="s">
+        <v>659</v>
+      </c>
+      <c r="E396">
+        <v>1.391119444042854</v>
+      </c>
+      <c r="F396">
+        <v>68.664807942933379</v>
+      </c>
+      <c r="G396">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A397">
+        <v>0.41054613935969869</v>
+      </c>
+      <c r="B397" t="s">
+        <v>660</v>
+      </c>
+      <c r="C397">
+        <v>-0.97689075942819947</v>
+      </c>
+      <c r="D397" t="s">
+        <v>661</v>
+      </c>
+      <c r="E397">
+        <v>1.023655910703186</v>
+      </c>
+      <c r="F397">
+        <v>83.268023297003566</v>
+      </c>
+      <c r="G397">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A398">
+        <v>0.47645951035781542</v>
+      </c>
+      <c r="B398" t="s">
+        <v>662</v>
+      </c>
+      <c r="C398">
+        <v>-0.80071106691878535</v>
+      </c>
+      <c r="D398" t="s">
+        <v>663</v>
+      </c>
+      <c r="E398">
+        <v>1.2488899445939941</v>
+      </c>
+      <c r="F398">
+        <v>89.724022651796659</v>
+      </c>
+      <c r="G398">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A399">
+        <v>0.63276836158192096</v>
+      </c>
+      <c r="B399" t="s">
+        <v>664</v>
+      </c>
+      <c r="C399">
+        <v>-0.70196754179974497</v>
+      </c>
+      <c r="D399" t="s">
+        <v>665</v>
+      </c>
+      <c r="E399">
+        <v>1.424567291866718</v>
+      </c>
+      <c r="F399">
+        <v>78.866734459764061</v>
+      </c>
+      <c r="G399">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A400">
+        <v>0.97551789077212814</v>
+      </c>
+      <c r="B400" t="s">
+        <v>666</v>
+      </c>
+      <c r="C400">
+        <v>-0.87987087774489126</v>
+      </c>
+      <c r="D400" t="s">
+        <v>667</v>
+      </c>
+      <c r="E400">
+        <v>1.136530399281994</v>
+      </c>
+      <c r="F400">
+        <v>61.121434782899357</v>
+      </c>
+      <c r="G400">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A401">
+        <v>0.54802259887005644</v>
+      </c>
+      <c r="B401" t="s">
+        <v>668</v>
+      </c>
+      <c r="C401">
+        <v>-0.77717504747139787</v>
+      </c>
+      <c r="D401" t="s">
+        <v>669</v>
+      </c>
+      <c r="E401">
+        <v>1.286711408521904</v>
+      </c>
+      <c r="F401">
+        <v>77.661079664605921</v>
+      </c>
+      <c r="G401">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A402">
+        <v>4.331450094161958E-2</v>
+      </c>
+      <c r="B402" t="s">
+        <v>670</v>
+      </c>
+      <c r="C402">
+        <v>-0.82499019372576565</v>
+      </c>
+      <c r="D402" t="s">
+        <v>671</v>
+      </c>
+      <c r="E402">
+        <v>1.2121356200415749</v>
+      </c>
+      <c r="F402">
+        <v>63.205701648632143</v>
+      </c>
+      <c r="G402">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A403">
+        <v>0.1939736346516007</v>
+      </c>
+      <c r="B403" t="s">
+        <v>672</v>
+      </c>
+      <c r="C403">
+        <v>-1.0791651965767231</v>
+      </c>
+      <c r="D403" t="s">
+        <v>673</v>
+      </c>
+      <c r="E403">
+        <v>0.92664218895508554</v>
+      </c>
+      <c r="F403">
+        <v>68.246411715893743</v>
+      </c>
+      <c r="G403">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A404">
+        <v>0.86252354048964208</v>
+      </c>
+      <c r="B404" t="s">
+        <v>674</v>
+      </c>
+      <c r="C404">
+        <v>-0.85841876778500026</v>
+      </c>
+      <c r="D404" t="s">
+        <v>675</v>
+      </c>
+      <c r="E404">
+        <v>1.1649325917935429</v>
+      </c>
+      <c r="F404">
+        <v>67.81233885006101</v>
+      </c>
+      <c r="G404">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A405">
+        <v>0.95480225988700573</v>
+      </c>
+      <c r="B405" t="s">
+        <v>676</v>
+      </c>
+      <c r="C405">
+        <v>-0.7898717651171504</v>
+      </c>
+      <c r="D405" t="s">
+        <v>677</v>
+      </c>
+      <c r="E405">
+        <v>1.2660282898600439</v>
+      </c>
+      <c r="F405">
+        <v>62.621947657899902</v>
+      </c>
+      <c r="G405">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A406">
+        <v>0.86064030131826741</v>
+      </c>
+      <c r="B406" t="s">
+        <v>678</v>
+      </c>
+      <c r="C406">
+        <v>-0.90982490193233378</v>
+      </c>
+      <c r="D406" t="s">
+        <v>679</v>
+      </c>
+      <c r="E406">
+        <v>1.099112585153635</v>
+      </c>
+      <c r="F406">
+        <v>70.129503228147129</v>
+      </c>
+      <c r="G406">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A407">
+        <v>0.67608286252354044</v>
+      </c>
+      <c r="B407" t="s">
+        <v>680</v>
+      </c>
+      <c r="C407">
+        <v>-1.288908836605906</v>
+      </c>
+      <c r="D407" t="s">
+        <v>681</v>
+      </c>
+      <c r="E407">
+        <v>0.77585006138471968</v>
+      </c>
+      <c r="F407">
+        <v>79.902932982213272</v>
+      </c>
+      <c r="G407">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A408">
+        <v>0.20338983050847459</v>
+      </c>
+      <c r="B408" t="s">
+        <v>682</v>
+      </c>
+      <c r="C408">
+        <v>-0.88580991741694026</v>
+      </c>
+      <c r="D408" t="s">
+        <v>683</v>
+      </c>
+      <c r="E408">
+        <v>1.128910368170231</v>
+      </c>
+      <c r="F408">
+        <v>73.416658177505511</v>
+      </c>
+      <c r="G408">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A409">
+        <v>0.29566854990583802</v>
+      </c>
+      <c r="B409" t="s">
+        <v>684</v>
+      </c>
+      <c r="C409">
+        <v>-0.89513525629113577</v>
+      </c>
+      <c r="D409" t="s">
+        <v>685</v>
+      </c>
+      <c r="E409">
+        <v>1.1171496072485809</v>
+      </c>
+      <c r="F409">
+        <v>79.666090125926772</v>
+      </c>
+      <c r="G409">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A410">
+        <v>0.36911487758945388</v>
+      </c>
+      <c r="B410" t="s">
+        <v>686</v>
+      </c>
+      <c r="C410">
+        <v>-0.76465200166023339</v>
+      </c>
+      <c r="D410" t="s">
+        <v>687</v>
+      </c>
+      <c r="E410">
+        <v>1.30778445335757</v>
+      </c>
+      <c r="F410">
+        <v>82.139086461160346</v>
+      </c>
+      <c r="G410">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A411">
+        <v>0.52919020715630882</v>
+      </c>
+      <c r="B411" t="s">
+        <v>688</v>
+      </c>
+      <c r="C411">
+        <v>-0.72732287373415339</v>
+      </c>
+      <c r="D411" t="s">
+        <v>689</v>
+      </c>
+      <c r="E411">
+        <v>1.3749051983830689</v>
+      </c>
+      <c r="F411">
+        <v>79.641477997551078</v>
+      </c>
+      <c r="G411">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A412">
+        <v>0.67231638418079087</v>
+      </c>
+      <c r="B412" t="s">
+        <v>690</v>
+      </c>
+      <c r="C412">
+        <v>-0.63484123328970143</v>
+      </c>
+      <c r="D412" t="s">
+        <v>691</v>
+      </c>
+      <c r="E412">
+        <v>1.5751969903058629</v>
+      </c>
+      <c r="F412">
+        <v>78.102015305380391</v>
+      </c>
+      <c r="G412">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A413">
+        <v>0.56308851224105461</v>
+      </c>
+      <c r="B413" t="s">
+        <v>692</v>
+      </c>
+      <c r="C413">
+        <v>-0.44948660428222659</v>
+      </c>
+      <c r="D413" t="s">
+        <v>693</v>
+      </c>
+      <c r="E413">
+        <v>2.224760405478321</v>
+      </c>
+      <c r="F413">
+        <v>80.755400943832328</v>
+      </c>
+      <c r="G413">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A414">
+        <v>5.6497175141242938E-3</v>
+      </c>
+      <c r="B414" t="s">
+        <v>694</v>
+      </c>
+      <c r="C414">
+        <v>-0.78738049540329014</v>
+      </c>
+      <c r="D414" t="s">
+        <v>695</v>
+      </c>
+      <c r="E414">
+        <v>1.270033999874238</v>
+      </c>
+      <c r="F414">
+        <v>58.938900822963781</v>
+      </c>
+      <c r="G414">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A415">
+        <v>0.41807909604519772</v>
+      </c>
+      <c r="B415" t="s">
+        <v>711</v>
+      </c>
+      <c r="C415">
+        <v>-0.6436820095739515</v>
+      </c>
+      <c r="D415" t="s">
+        <v>710</v>
+      </c>
+      <c r="E415">
+        <v>1.553562139575553</v>
+      </c>
+      <c r="F415">
+        <v>78.923953050434989</v>
+      </c>
+      <c r="G415">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A416">
+        <v>0.61393596986817311</v>
+      </c>
+      <c r="B416" t="s">
+        <v>709</v>
+      </c>
+      <c r="C416">
+        <v>-0.91528561447745937</v>
+      </c>
+      <c r="D416" t="s">
+        <v>708</v>
+      </c>
+      <c r="E416">
+        <v>1.0925551370878961</v>
+      </c>
+      <c r="F416">
+        <v>82.353650266854686</v>
+      </c>
+      <c r="G416">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A417">
+        <v>0</v>
+      </c>
+      <c r="B417" t="s">
+        <v>7</v>
+      </c>
+      <c r="C417">
+        <v>-0.82634327469137503</v>
+      </c>
+      <c r="D417" t="s">
+        <v>707</v>
+      </c>
+      <c r="E417">
+        <v>1.2101508303234909</v>
+      </c>
+      <c r="F417">
+        <v>58.205123829940263</v>
+      </c>
+      <c r="G417">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A418">
+        <v>0</v>
+      </c>
+      <c r="B418" t="s">
+        <v>7</v>
+      </c>
+      <c r="C418">
+        <v>-0.8225042156050999</v>
+      </c>
+      <c r="D418" t="s">
+        <v>706</v>
+      </c>
+      <c r="E418">
+        <v>1.215799239721002</v>
+      </c>
+      <c r="F418">
+        <v>58.185407992348303</v>
+      </c>
+      <c r="G418">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A419">
+        <v>1.8832391713747652E-2</v>
+      </c>
+      <c r="B419" t="s">
+        <v>705</v>
+      </c>
+      <c r="C419">
+        <v>-0.84913649253518098</v>
+      </c>
+      <c r="D419" t="s">
+        <v>704</v>
+      </c>
+      <c r="E419">
+        <v>1.1776669696698601</v>
+      </c>
+      <c r="F419">
+        <v>60.443209714040698</v>
+      </c>
+      <c r="G419">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A420">
+        <v>0.95480225988700573</v>
+      </c>
+      <c r="B420" t="s">
+        <v>703</v>
+      </c>
+      <c r="C420">
+        <v>-0.50302771851955197</v>
+      </c>
+      <c r="D420" t="s">
+        <v>702</v>
+      </c>
+      <c r="E420">
+        <v>1.9879620211448279</v>
+      </c>
+      <c r="F420">
+        <v>63.707952888035543</v>
+      </c>
+      <c r="G420">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A421">
+        <v>0</v>
+      </c>
+      <c r="B421" t="s">
+        <v>7</v>
+      </c>
+      <c r="C421">
+        <v>-0.87371066591344848</v>
+      </c>
+      <c r="D421" t="s">
+        <v>701</v>
+      </c>
+      <c r="E421">
+        <v>1.1445436561707969</v>
+      </c>
+      <c r="F421">
+        <v>58.153791633626447</v>
+      </c>
+      <c r="G421">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A422">
+        <v>0</v>
+      </c>
+      <c r="B422" t="s">
+        <v>7</v>
+      </c>
+      <c r="C422">
+        <v>-0.85651652223104291</v>
+      </c>
+      <c r="D422" t="s">
+        <v>700</v>
+      </c>
+      <c r="E422">
+        <v>1.1675198014805519</v>
+      </c>
+      <c r="F422">
+        <v>58.144024588326602</v>
+      </c>
+      <c r="G422">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A423">
+        <v>1</v>
+      </c>
+      <c r="B423" t="s">
+        <v>10</v>
+      </c>
+      <c r="C423">
+        <v>-0.36400924839121218</v>
+      </c>
+      <c r="D423" t="s">
+        <v>699</v>
+      </c>
+      <c r="E423">
+        <v>2.7471829477400211</v>
+      </c>
+      <c r="F423">
+        <v>58.139999102670807</v>
+      </c>
+      <c r="G423">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A424">
+        <v>1</v>
+      </c>
+      <c r="B424" t="s">
+        <v>10</v>
+      </c>
+      <c r="C424">
+        <v>-0.40422740731105178</v>
+      </c>
+      <c r="D424" t="s">
+        <v>698</v>
+      </c>
+      <c r="E424">
+        <v>2.4738550180257892</v>
+      </c>
+      <c r="F424">
+        <v>58.158352341202963</v>
+      </c>
+      <c r="G424">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A425">
+        <v>0.97928436911487748</v>
+      </c>
+      <c r="B425" t="s">
+        <v>697</v>
+      </c>
+      <c r="C425">
+        <v>-0.43066953394813468</v>
+      </c>
+      <c r="D425" t="s">
+        <v>696</v>
+      </c>
+      <c r="E425">
+        <v>2.321965965023264</v>
+      </c>
+      <c r="F425">
+        <v>60.630945977552763</v>
+      </c>
+      <c r="G425">
+        <v>663</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
